--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -423,21 +423,6 @@
     <t>%var%_day_HadGEM2-ES_historical_r1i1p1_19991201-20051130.nc</t>
   </si>
   <si>
-    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19591201-19691130.nc</t>
-  </si>
-  <si>
-    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19691201-19791130.nc</t>
-  </si>
-  <si>
-    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19791201-19891130.nc</t>
-  </si>
-  <si>
-    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19891201-19991130.nc</t>
-  </si>
-  <si>
-    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19991201-20051130.nc</t>
-  </si>
-  <si>
     <t>%var%_day_HadGEM2-ES_historical_r3i1p1_19591201-19691130.nc</t>
   </si>
   <si>
@@ -730,6 +715,21 @@
   </si>
   <si>
     <t>all30</t>
+  </si>
+  <si>
+    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19600101-19691230.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19700101-19791230.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19800101-19891230.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_19900101-19991230.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_HadGEM2-ES_historical_r2i1p1_20000101-20051230.nc</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1083,8 @@
   <dimension ref="A1:S318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,7 +1227,7 @@
         <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1286,10 +1286,10 @@
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1348,10 +1348,10 @@
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1410,10 +1410,10 @@
         <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1472,10 +1472,10 @@
         <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1534,10 +1534,10 @@
         <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1596,10 +1596,10 @@
         <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1658,10 +1658,10 @@
         <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1720,10 +1720,10 @@
         <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="S10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1782,10 +1782,10 @@
         <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1844,10 +1844,10 @@
         <v>19</v>
       </c>
       <c r="R12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="S12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1909,7 +1909,7 @@
         <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1971,7 +1971,7 @@
         <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2033,7 +2033,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2095,7 +2095,7 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2157,7 +2157,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2219,7 +2219,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2281,7 +2281,7 @@
         <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2343,7 +2343,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2405,7 +2405,7 @@
         <v>45</v>
       </c>
       <c r="S21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2467,7 +2467,7 @@
         <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2529,7 +2529,7 @@
         <v>47</v>
       </c>
       <c r="S23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2591,7 +2591,7 @@
         <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2653,7 +2653,7 @@
         <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2715,7 +2715,7 @@
         <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2777,7 +2777,7 @@
         <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2839,7 +2839,7 @@
         <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2901,7 +2901,7 @@
         <v>54</v>
       </c>
       <c r="S29" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2963,7 +2963,7 @@
         <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3025,7 +3025,7 @@
         <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -3087,7 +3087,7 @@
         <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -3149,7 +3149,7 @@
         <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3211,7 +3211,7 @@
         <v>59</v>
       </c>
       <c r="S34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3273,7 +3273,7 @@
         <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3335,7 +3335,7 @@
         <v>61</v>
       </c>
       <c r="S36" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3397,7 +3397,7 @@
         <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3459,7 +3459,7 @@
         <v>63</v>
       </c>
       <c r="S38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3521,7 +3521,7 @@
         <v>64</v>
       </c>
       <c r="S39" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3583,7 +3583,7 @@
         <v>65</v>
       </c>
       <c r="S40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3645,7 +3645,7 @@
         <v>66</v>
       </c>
       <c r="S41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3707,7 +3707,7 @@
         <v>67</v>
       </c>
       <c r="S42" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3769,7 +3769,7 @@
         <v>68</v>
       </c>
       <c r="S43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3831,7 +3831,7 @@
         <v>69</v>
       </c>
       <c r="S44" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3893,7 +3893,7 @@
         <v>70</v>
       </c>
       <c r="S45" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3955,7 +3955,7 @@
         <v>71</v>
       </c>
       <c r="S46" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4017,7 +4017,7 @@
         <v>72</v>
       </c>
       <c r="S47" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4079,7 +4079,7 @@
         <v>73</v>
       </c>
       <c r="S48" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -4141,7 +4141,7 @@
         <v>74</v>
       </c>
       <c r="S49" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4203,7 +4203,7 @@
         <v>75</v>
       </c>
       <c r="S50" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4265,7 +4265,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4327,7 +4327,7 @@
         <v>77</v>
       </c>
       <c r="S52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4389,7 +4389,7 @@
         <v>78</v>
       </c>
       <c r="S53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4451,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4513,7 +4513,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4575,7 +4575,7 @@
         <v>81</v>
       </c>
       <c r="S56" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4637,7 +4637,7 @@
         <v>82</v>
       </c>
       <c r="S57" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4699,7 +4699,7 @@
         <v>84</v>
       </c>
       <c r="S58" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4761,7 +4761,7 @@
         <v>85</v>
       </c>
       <c r="S59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4823,7 +4823,7 @@
         <v>86</v>
       </c>
       <c r="S60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4885,7 +4885,7 @@
         <v>87</v>
       </c>
       <c r="S61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4947,7 +4947,7 @@
         <v>89</v>
       </c>
       <c r="S62" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5009,7 +5009,7 @@
         <v>90</v>
       </c>
       <c r="S63" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -5071,7 +5071,7 @@
         <v>91</v>
       </c>
       <c r="S64" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -5133,7 +5133,7 @@
         <v>92</v>
       </c>
       <c r="S65" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5195,7 +5195,7 @@
         <v>93</v>
       </c>
       <c r="S66" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5257,7 +5257,7 @@
         <v>95</v>
       </c>
       <c r="S67" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5319,7 +5319,7 @@
         <v>97</v>
       </c>
       <c r="S68" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5381,7 +5381,7 @@
         <v>98</v>
       </c>
       <c r="S69" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5443,7 +5443,7 @@
         <v>96</v>
       </c>
       <c r="S70" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5505,7 +5505,7 @@
         <v>99</v>
       </c>
       <c r="S71" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5567,7 +5567,7 @@
         <v>100</v>
       </c>
       <c r="S72" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5629,7 +5629,7 @@
         <v>102</v>
       </c>
       <c r="S73" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5691,7 +5691,7 @@
         <v>103</v>
       </c>
       <c r="S74" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5753,7 +5753,7 @@
         <v>105</v>
       </c>
       <c r="S75" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5815,7 +5815,7 @@
         <v>107</v>
       </c>
       <c r="S76" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5878,7 +5878,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5941,7 +5941,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S78" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6004,7 +6004,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S79" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6067,7 +6067,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S80" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -6130,7 +6130,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S81" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6193,7 +6193,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S82" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6256,7 +6256,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S83" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6319,7 +6319,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S84" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6382,7 +6382,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S85" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6445,7 +6445,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6508,7 +6508,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S87" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6571,7 +6571,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S88" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6634,7 +6634,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6697,7 +6697,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S90" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6760,7 +6760,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S91" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6823,7 +6823,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S92" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6886,7 +6886,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S93" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6949,7 +6949,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S94" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -7012,7 +7012,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S95" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -7075,7 +7075,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S96" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7138,7 +7138,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S97" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -7201,7 +7201,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S98" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7264,7 +7264,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S99" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -7327,7 +7327,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S100" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7390,7 +7390,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S101" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7453,7 +7453,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S102" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7516,7 +7516,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S103" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7579,7 +7579,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S104" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7642,7 +7642,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7705,7 +7705,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S106" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7768,7 +7768,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S107" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7831,7 +7831,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S108" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7894,7 +7894,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S109" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7957,7 +7957,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S110" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8020,7 +8020,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S111" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -8083,7 +8083,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S112" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -8146,7 +8146,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S113" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8209,7 +8209,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S114" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -8272,7 +8272,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S115" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -8335,7 +8335,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S116" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8398,7 +8398,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S117" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8461,7 +8461,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S118" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8524,7 +8524,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S119" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8587,7 +8587,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S120" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8650,7 +8650,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S121" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8713,7 +8713,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S122" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8776,7 +8776,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S123" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8839,7 +8839,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S124" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8902,7 +8902,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S125" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8965,7 +8965,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S126" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -9028,7 +9028,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S127" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -9091,7 +9091,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S128" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -9154,7 +9154,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S129" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -9217,7 +9217,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S130" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -9280,7 +9280,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -9343,7 +9343,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S132" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -9406,7 +9406,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S133" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -9469,7 +9469,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S134" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -9532,7 +9532,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S135" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9595,7 +9595,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S136" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9658,7 +9658,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S137" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9721,7 +9721,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S138" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9784,7 +9784,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S139" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9847,7 +9847,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S140" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -9910,7 +9910,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S141" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9973,7 +9973,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S142" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -10036,7 +10036,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S143" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -10099,7 +10099,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S144" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -10162,7 +10162,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S145" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10225,7 +10225,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S146" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -10288,7 +10288,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S147" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -10351,7 +10351,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S148" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -10414,7 +10414,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S149" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -10477,7 +10477,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S150" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -10540,7 +10540,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S151" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10603,7 +10603,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S152" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10666,7 +10666,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S153" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -10729,7 +10729,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S154" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -10792,7 +10792,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S155" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -10855,7 +10855,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S156" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -10918,7 +10918,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S157" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -10981,7 +10981,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S158" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -11044,7 +11044,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S159" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -11107,7 +11107,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S160" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -11170,7 +11170,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S161" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -11233,7 +11233,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S162" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -11296,7 +11296,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S163" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -11359,7 +11359,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S164" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -11422,7 +11422,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S165" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -11485,7 +11485,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S166" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -11548,7 +11548,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S167" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -11611,7 +11611,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S168" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -11674,7 +11674,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S169" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -11737,7 +11737,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S170" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -11800,7 +11800,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S171" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -11863,7 +11863,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S172" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -11926,7 +11926,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S173" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -11989,7 +11989,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S174" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -12052,7 +12052,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S175" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -12115,7 +12115,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S176" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -12178,7 +12178,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S177" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -12241,7 +12241,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S178" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12304,7 +12304,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S179" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12367,7 +12367,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S180" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12430,7 +12430,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S181" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -12493,7 +12493,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S182" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -12556,7 +12556,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S183" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -12619,7 +12619,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S184" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -12682,7 +12682,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S185" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -12745,7 +12745,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S186" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -12808,7 +12808,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S187" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -12871,7 +12871,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S188" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -12934,7 +12934,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S189" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -12997,7 +12997,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S190" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -13060,7 +13060,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S191" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -13123,7 +13123,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S192" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -13186,7 +13186,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S193" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -13249,7 +13249,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S194" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -13312,7 +13312,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S195" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -13375,7 +13375,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S196" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -13438,7 +13438,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S197" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -13501,7 +13501,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S198" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -13564,7 +13564,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S199" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -13627,7 +13627,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S200" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -13690,7 +13690,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S201" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -13753,7 +13753,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S202" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -13816,7 +13816,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S203" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -13879,7 +13879,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S204" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -13942,7 +13942,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S205" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:19">
@@ -14005,7 +14005,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S206" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:19">
@@ -14068,7 +14068,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S207" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -14131,7 +14131,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S208" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -14194,7 +14194,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S209" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -14257,7 +14257,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S210" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -14320,7 +14320,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S211" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -14383,7 +14383,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S212" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -14446,7 +14446,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S213" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -14509,7 +14509,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S214" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -14571,7 +14571,7 @@
         <v>110</v>
       </c>
       <c r="S215" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -14633,7 +14633,7 @@
         <v>111</v>
       </c>
       <c r="S216" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -14695,7 +14695,7 @@
         <v>112</v>
       </c>
       <c r="S217" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -14757,7 +14757,7 @@
         <v>113</v>
       </c>
       <c r="S218" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -14819,7 +14819,7 @@
         <v>114</v>
       </c>
       <c r="S219" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -14869,7 +14869,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O220" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P220" t="s">
         <v>18</v>
@@ -14878,7 +14878,7 @@
         <v>19</v>
       </c>
       <c r="R220" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="S220" t="s">
         <v>118</v>
@@ -14931,7 +14931,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O221" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P221" t="s">
         <v>18</v>
@@ -14940,7 +14940,7 @@
         <v>19</v>
       </c>
       <c r="R221" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S221" t="s">
         <v>118</v>
@@ -14993,7 +14993,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O222" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P222" t="s">
         <v>18</v>
@@ -15002,7 +15002,7 @@
         <v>19</v>
       </c>
       <c r="R222" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S222" t="s">
         <v>118</v>
@@ -15055,7 +15055,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O223" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P223" t="s">
         <v>18</v>
@@ -15064,7 +15064,7 @@
         <v>19</v>
       </c>
       <c r="R223" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S223" t="s">
         <v>118</v>
@@ -15117,7 +15117,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O224" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P224" t="s">
         <v>18</v>
@@ -15126,7 +15126,7 @@
         <v>19</v>
       </c>
       <c r="R224" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S224" t="s">
         <v>118</v>
@@ -15179,7 +15179,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O225" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P225" t="s">
         <v>18</v>
@@ -15188,7 +15188,7 @@
         <v>19</v>
       </c>
       <c r="R225" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S225" t="s">
         <v>118</v>
@@ -15241,7 +15241,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O226" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P226" t="s">
         <v>18</v>
@@ -15250,7 +15250,7 @@
         <v>19</v>
       </c>
       <c r="R226" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S226" t="s">
         <v>118</v>
@@ -15303,7 +15303,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P227" t="s">
         <v>18</v>
@@ -15312,7 +15312,7 @@
         <v>19</v>
       </c>
       <c r="R227" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="S227" t="s">
         <v>118</v>
@@ -15365,7 +15365,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O228" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P228" t="s">
         <v>18</v>
@@ -15374,7 +15374,7 @@
         <v>19</v>
       </c>
       <c r="R228" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S228" t="s">
         <v>118</v>
@@ -15427,7 +15427,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O229" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P229" t="s">
         <v>18</v>
@@ -15436,7 +15436,7 @@
         <v>19</v>
       </c>
       <c r="R229" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S229" t="s">
         <v>118</v>
@@ -15489,7 +15489,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O230" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P230" t="s">
         <v>18</v>
@@ -15498,7 +15498,7 @@
         <v>19</v>
       </c>
       <c r="R230" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S230" t="s">
         <v>118</v>
@@ -15551,7 +15551,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O231" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P231" t="s">
         <v>18</v>
@@ -15560,7 +15560,7 @@
         <v>19</v>
       </c>
       <c r="R231" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="S231" t="s">
         <v>118</v>
@@ -15613,7 +15613,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O232" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P232" t="s">
         <v>18</v>
@@ -15622,7 +15622,7 @@
         <v>19</v>
       </c>
       <c r="R232" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S232" t="s">
         <v>118</v>
@@ -15675,7 +15675,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O233" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P233" t="s">
         <v>18</v>
@@ -15684,7 +15684,7 @@
         <v>19</v>
       </c>
       <c r="R233" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S233" t="s">
         <v>118</v>
@@ -15737,7 +15737,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O234" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P234" t="s">
         <v>18</v>
@@ -15746,7 +15746,7 @@
         <v>19</v>
       </c>
       <c r="R234" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S234" t="s">
         <v>118</v>
@@ -15799,7 +15799,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O235" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P235" t="s">
         <v>18</v>
@@ -15808,7 +15808,7 @@
         <v>19</v>
       </c>
       <c r="R235" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S235" t="s">
         <v>118</v>
@@ -15861,7 +15861,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O236" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P236" t="s">
         <v>18</v>
@@ -15870,7 +15870,7 @@
         <v>19</v>
       </c>
       <c r="R236" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S236" t="s">
         <v>118</v>
@@ -15923,7 +15923,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O237" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P237" t="s">
         <v>18</v>
@@ -15932,7 +15932,7 @@
         <v>19</v>
       </c>
       <c r="R237" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S237" t="s">
         <v>118</v>
@@ -15985,7 +15985,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O238" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P238" t="s">
         <v>18</v>
@@ -15994,7 +15994,7 @@
         <v>19</v>
       </c>
       <c r="R238" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="S238" t="s">
         <v>118</v>
@@ -16047,7 +16047,7 @@
         <v>2.4657534246575343</v>
       </c>
       <c r="O239" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P239" t="s">
         <v>18</v>
@@ -16056,7 +16056,7 @@
         <v>19</v>
       </c>
       <c r="R239" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="S239" t="s">
         <v>118</v>
@@ -16109,7 +16109,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O240" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P240" t="s">
         <v>18</v>
@@ -16171,7 +16171,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O241" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P241" t="s">
         <v>18</v>
@@ -16233,7 +16233,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O242" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P242" t="s">
         <v>18</v>
@@ -16295,7 +16295,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O243" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P243" t="s">
         <v>18</v>
@@ -16357,7 +16357,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O244" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P244" t="s">
         <v>18</v>
@@ -16419,7 +16419,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O245" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P245" t="s">
         <v>18</v>
@@ -16481,7 +16481,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O246" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P246" t="s">
         <v>18</v>
@@ -16543,7 +16543,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O247" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P247" t="s">
         <v>18</v>
@@ -16605,7 +16605,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O248" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P248" t="s">
         <v>18</v>
@@ -16667,7 +16667,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O249" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P249" t="s">
         <v>18</v>
@@ -16729,7 +16729,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O250" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P250" t="s">
         <v>18</v>
@@ -16791,7 +16791,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O251" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P251" t="s">
         <v>18</v>
@@ -16853,7 +16853,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O252" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P252" t="s">
         <v>18</v>
@@ -16915,7 +16915,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O253" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P253" t="s">
         <v>18</v>
@@ -16977,7 +16977,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O254" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P254" t="s">
         <v>18</v>
@@ -16994,7 +16994,7 @@
     </row>
     <row r="255" spans="1:19">
       <c r="A255" s="2">
-        <f t="shared" si="13"/>
+        <f>A254+1</f>
         <v>254</v>
       </c>
       <c r="B255" s="2">
@@ -17007,10 +17007,10 @@
         <v>23</v>
       </c>
       <c r="E255">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="F255">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -17019,7 +17019,7 @@
         <v>1969</v>
       </c>
       <c r="I255">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J255">
         <v>30</v>
@@ -17039,7 +17039,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O255" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P255" t="s">
         <v>18</v>
@@ -17048,7 +17048,7 @@
         <v>19</v>
       </c>
       <c r="R255" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="S255" t="s">
         <v>118</v>
@@ -17069,10 +17069,10 @@
         <v>23</v>
       </c>
       <c r="E256">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="F256">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -17081,7 +17081,7 @@
         <v>1979</v>
       </c>
       <c r="I256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J256">
         <v>30</v>
@@ -17101,7 +17101,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O256" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P256" t="s">
         <v>18</v>
@@ -17110,7 +17110,7 @@
         <v>19</v>
       </c>
       <c r="R256" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="S256" t="s">
         <v>118</v>
@@ -17131,10 +17131,10 @@
         <v>23</v>
       </c>
       <c r="E257">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="F257">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1989</v>
       </c>
       <c r="I257">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J257">
         <v>30</v>
@@ -17163,7 +17163,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O257" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P257" t="s">
         <v>18</v>
@@ -17172,7 +17172,7 @@
         <v>19</v>
       </c>
       <c r="R257" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="S257" t="s">
         <v>118</v>
@@ -17193,10 +17193,10 @@
         <v>23</v>
       </c>
       <c r="E258">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F258">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -17205,7 +17205,7 @@
         <v>1999</v>
       </c>
       <c r="I258">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J258">
         <v>30</v>
@@ -17225,7 +17225,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O258" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P258" t="s">
         <v>18</v>
@@ -17234,7 +17234,7 @@
         <v>19</v>
       </c>
       <c r="R258" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="S258" t="s">
         <v>118</v>
@@ -17255,10 +17255,10 @@
         <v>23</v>
       </c>
       <c r="E259">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F259">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -17267,7 +17267,7 @@
         <v>2005</v>
       </c>
       <c r="I259">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J259">
         <v>30</v>
@@ -17287,16 +17287,16 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O259" t="s">
+        <v>232</v>
+      </c>
+      <c r="P259" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>19</v>
+      </c>
+      <c r="R259" t="s">
         <v>237</v>
-      </c>
-      <c r="P259" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q259" t="s">
-        <v>19</v>
-      </c>
-      <c r="R259" t="s">
-        <v>139</v>
       </c>
       <c r="S259" t="s">
         <v>118</v>
@@ -17304,7 +17304,7 @@
     </row>
     <row r="260" spans="1:19">
       <c r="A260" s="2">
-        <f t="shared" ref="A260:A318" si="23">A259+1</f>
+        <f>A259+1</f>
         <v>259</v>
       </c>
       <c r="B260" s="2">
@@ -17349,7 +17349,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O260" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P260" t="s">
         <v>18</v>
@@ -17358,7 +17358,7 @@
         <v>19</v>
       </c>
       <c r="R260" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="S260" t="s">
         <v>118</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="261" spans="1:19">
       <c r="A261" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="A261:A318" si="23">A260+1</f>
         <v>260</v>
       </c>
       <c r="B261" s="2">
@@ -17411,7 +17411,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O261" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P261" t="s">
         <v>18</v>
@@ -17420,7 +17420,7 @@
         <v>19</v>
       </c>
       <c r="R261" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="S261" t="s">
         <v>118</v>
@@ -17473,7 +17473,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O262" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P262" t="s">
         <v>18</v>
@@ -17482,7 +17482,7 @@
         <v>19</v>
       </c>
       <c r="R262" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="S262" t="s">
         <v>118</v>
@@ -17535,7 +17535,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O263" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P263" t="s">
         <v>18</v>
@@ -17544,7 +17544,7 @@
         <v>19</v>
       </c>
       <c r="R263" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="S263" t="s">
         <v>118</v>
@@ -17597,7 +17597,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O264" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P264" t="s">
         <v>18</v>
@@ -17606,7 +17606,7 @@
         <v>19</v>
       </c>
       <c r="R264" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S264" t="s">
         <v>118</v>
@@ -17659,7 +17659,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O265" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P265" t="s">
         <v>18</v>
@@ -17668,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="R265" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S265" t="s">
         <v>118</v>
@@ -17721,7 +17721,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O266" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P266" t="s">
         <v>18</v>
@@ -17730,7 +17730,7 @@
         <v>19</v>
       </c>
       <c r="R266" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="S266" t="s">
         <v>118</v>
@@ -17783,7 +17783,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O267" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P267" t="s">
         <v>18</v>
@@ -17792,7 +17792,7 @@
         <v>19</v>
       </c>
       <c r="R267" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S267" t="s">
         <v>118</v>
@@ -17845,7 +17845,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O268" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P268" t="s">
         <v>18</v>
@@ -17854,7 +17854,7 @@
         <v>19</v>
       </c>
       <c r="R268" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S268" t="s">
         <v>118</v>
@@ -17907,7 +17907,7 @@
         <v>1.2413793103448276</v>
       </c>
       <c r="O269" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P269" t="s">
         <v>18</v>
@@ -17916,7 +17916,7 @@
         <v>19</v>
       </c>
       <c r="R269" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S269" t="s">
         <v>118</v>
@@ -17931,7 +17931,7 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -17978,10 +17978,10 @@
         <v>19</v>
       </c>
       <c r="R270" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="S270" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -17993,7 +17993,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
@@ -18040,10 +18040,10 @@
         <v>19</v>
       </c>
       <c r="R271" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S271" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -18055,7 +18055,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
@@ -18102,10 +18102,10 @@
         <v>19</v>
       </c>
       <c r="R272" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S272" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -18117,7 +18117,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
@@ -18164,10 +18164,10 @@
         <v>19</v>
       </c>
       <c r="R273" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S273" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="274" spans="1:19">
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D274" t="s">
         <v>3</v>
@@ -18226,10 +18226,10 @@
         <v>19</v>
       </c>
       <c r="R274" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S274" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -18241,7 +18241,7 @@
         <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D275" t="s">
         <v>23</v>
@@ -18288,10 +18288,10 @@
         <v>19</v>
       </c>
       <c r="R275" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S275" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="276" spans="1:19">
@@ -18303,7 +18303,7 @@
         <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D276" t="s">
         <v>23</v>
@@ -18350,10 +18350,10 @@
         <v>19</v>
       </c>
       <c r="R276" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S276" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -18365,7 +18365,7 @@
         <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D277" t="s">
         <v>23</v>
@@ -18412,10 +18412,10 @@
         <v>19</v>
       </c>
       <c r="R277" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S277" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:19">
@@ -18427,7 +18427,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D278" t="s">
         <v>23</v>
@@ -18474,10 +18474,10 @@
         <v>19</v>
       </c>
       <c r="R278" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="S278" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -18489,7 +18489,7 @@
         <v>2</v>
       </c>
       <c r="C279" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D279" t="s">
         <v>23</v>
@@ -18536,10 +18536,10 @@
         <v>19</v>
       </c>
       <c r="R279" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S279" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -18551,7 +18551,7 @@
         <v>3</v>
       </c>
       <c r="C280" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D280" t="s">
         <v>24</v>
@@ -18598,10 +18598,10 @@
         <v>19</v>
       </c>
       <c r="R280" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S280" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="281" spans="1:19">
@@ -18613,7 +18613,7 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D281" t="s">
         <v>24</v>
@@ -18660,10 +18660,10 @@
         <v>19</v>
       </c>
       <c r="R281" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="S281" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -18675,7 +18675,7 @@
         <v>3</v>
       </c>
       <c r="C282" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D282" t="s">
         <v>24</v>
@@ -18722,10 +18722,10 @@
         <v>19</v>
       </c>
       <c r="R282" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S282" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -18737,7 +18737,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D283" t="s">
         <v>24</v>
@@ -18784,10 +18784,10 @@
         <v>19</v>
       </c>
       <c r="R283" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S283" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -18799,7 +18799,7 @@
         <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D284" t="s">
         <v>24</v>
@@ -18846,10 +18846,10 @@
         <v>19</v>
       </c>
       <c r="R284" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="S284" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -18861,7 +18861,7 @@
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D285" t="s">
         <v>3</v>
@@ -18908,10 +18908,10 @@
         <v>19</v>
       </c>
       <c r="R285" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="S285" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -18923,7 +18923,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -18970,10 +18970,10 @@
         <v>19</v>
       </c>
       <c r="R286" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S286" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -19032,10 +19032,10 @@
         <v>19</v>
       </c>
       <c r="R287" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S287" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -19047,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
@@ -19094,10 +19094,10 @@
         <v>19</v>
       </c>
       <c r="R288" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S288" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -19109,7 +19109,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
@@ -19156,10 +19156,10 @@
         <v>19</v>
       </c>
       <c r="R289" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S289" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -19171,10 +19171,10 @@
         <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D290" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E290">
         <v>1960</v>
@@ -19218,10 +19218,10 @@
         <v>19</v>
       </c>
       <c r="R290" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="S290" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="291" spans="1:19">
@@ -19233,10 +19233,10 @@
         <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D291" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E291">
         <v>1970</v>
@@ -19280,10 +19280,10 @@
         <v>19</v>
       </c>
       <c r="R291" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="S291" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -19295,10 +19295,10 @@
         <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D292" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E292">
         <v>1980</v>
@@ -19342,10 +19342,10 @@
         <v>19</v>
       </c>
       <c r="R292" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S292" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="293" spans="1:19">
@@ -19357,10 +19357,10 @@
         <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D293" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E293">
         <v>1990</v>
@@ -19404,10 +19404,10 @@
         <v>19</v>
       </c>
       <c r="R293" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="S293" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="294" spans="1:19">
@@ -19419,10 +19419,10 @@
         <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D294" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E294">
         <v>2000</v>
@@ -19466,10 +19466,10 @@
         <v>19</v>
       </c>
       <c r="R294" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S294" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -19481,7 +19481,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -19528,10 +19528,10 @@
         <v>19</v>
       </c>
       <c r="R295" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S295" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="296" spans="1:19">
@@ -19543,7 +19543,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -19590,10 +19590,10 @@
         <v>19</v>
       </c>
       <c r="R296" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S296" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="297" spans="1:19">
@@ -19605,7 +19605,7 @@
         <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D297" t="s">
         <v>23</v>
@@ -19652,10 +19652,10 @@
         <v>19</v>
       </c>
       <c r="R297" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S297" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -19667,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D298" t="s">
         <v>23</v>
@@ -19714,10 +19714,10 @@
         <v>19</v>
       </c>
       <c r="R298" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S298" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="299" spans="1:19">
@@ -19729,7 +19729,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
@@ -19776,10 +19776,10 @@
         <v>19</v>
       </c>
       <c r="R299" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S299" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -19791,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -19838,10 +19838,10 @@
         <v>19</v>
       </c>
       <c r="R300" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S300" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="301" spans="1:19">
@@ -19853,7 +19853,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
@@ -19900,10 +19900,10 @@
         <v>19</v>
       </c>
       <c r="R301" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S301" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -19915,7 +19915,7 @@
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
@@ -19962,10 +19962,10 @@
         <v>19</v>
       </c>
       <c r="R302" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S302" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -19977,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -20024,10 +20024,10 @@
         <v>19</v>
       </c>
       <c r="R303" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S303" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -20039,7 +20039,7 @@
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -20086,10 +20086,10 @@
         <v>19</v>
       </c>
       <c r="R304" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S304" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -20101,7 +20101,7 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D305" t="s">
         <v>3</v>
@@ -20148,10 +20148,10 @@
         <v>19</v>
       </c>
       <c r="R305" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S305" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -20163,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
@@ -20210,10 +20210,10 @@
         <v>19</v>
       </c>
       <c r="R306" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S306" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -20225,7 +20225,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D307" t="s">
         <v>3</v>
@@ -20272,10 +20272,10 @@
         <v>19</v>
       </c>
       <c r="R307" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S307" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -20287,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
@@ -20334,10 +20334,10 @@
         <v>19</v>
       </c>
       <c r="R308" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S308" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -20349,7 +20349,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -20396,10 +20396,10 @@
         <v>19</v>
       </c>
       <c r="R309" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S309" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -20411,7 +20411,7 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -20458,10 +20458,10 @@
         <v>19</v>
       </c>
       <c r="R310" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S310" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -20520,10 +20520,10 @@
         <v>19</v>
       </c>
       <c r="R311" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S311" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -20535,7 +20535,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -20582,10 +20582,10 @@
         <v>19</v>
       </c>
       <c r="R312" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="S312" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="313" spans="1:19">
@@ -20597,7 +20597,7 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -20644,10 +20644,10 @@
         <v>19</v>
       </c>
       <c r="R313" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S313" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -20659,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
@@ -20706,10 +20706,10 @@
         <v>19</v>
       </c>
       <c r="R314" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S314" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="C315" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
@@ -20768,10 +20768,10 @@
         <v>19</v>
       </c>
       <c r="R315" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="S315" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="316" spans="1:19">
@@ -20783,7 +20783,7 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
@@ -20830,10 +20830,10 @@
         <v>19</v>
       </c>
       <c r="R316" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S316" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -20845,7 +20845,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
@@ -20892,10 +20892,10 @@
         <v>19</v>
       </c>
       <c r="R317" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S317" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -20907,7 +20907,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
@@ -20954,10 +20954,10 @@
         <v>19</v>
       </c>
       <c r="R318" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S318" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="421">
   <si>
     <t>GCM</t>
   </si>
@@ -730,6 +730,555 @@
   </si>
   <si>
     <t>%var%_day_HadGEM2-ES_historical_r2i1p1_20000101-20051230.nc</t>
+  </si>
+  <si>
+    <t>bnu_esm</t>
+  </si>
+  <si>
+    <t>%var%_day_BNU-ESM_historical_r1i1p1_19500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>srad_naming</t>
+  </si>
+  <si>
+    <t>rsds_day_BNU-ESM_historical_r1i1p1_19500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>csiro_access1_0</t>
+  </si>
+  <si>
+    <t>rsds_Amon_ACCESS1-0_historical_r1i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_ACCESS1-0_historical_r1i1p1_19500101-19741231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_ACCESS1-0_historical_r1i1p1_19750101-19991231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_ACCESS1-0_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>ipsl_ipsl_cm5b_lr</t>
+  </si>
+  <si>
+    <t>%var%_day_IPSL-CM5B-LR_historical_r1i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5B-LR_historical_r1i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_MPI-ESM-MR_historical_r1i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_MPI-ESM-MR_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_MPI-ESM-MR_historical_r1i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_MPI-ESM-MR_historical_r1i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>%var%_day_MPI-ESM-MR_historical_r1i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-MR_historical_r1i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-MR_historical_r1i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-MR_historical_r1i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-MR_historical_r1i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-MR_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_bcc-csm1-1_historical_r1i1p1_19500101-20121230</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r1i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r2i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r3i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r4i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r5i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r6i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r7i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r8i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r9i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CanCM4_historical_r10i1p1_196101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CanESM2_historical_r1i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CanESM2_historical_r2i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CanESM2_historical_r3i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CanESM2_historical_r4i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CanESM2_historical_r5i1p1_18500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19600101-19641231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19650101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19700101-19741231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19750101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19800101-19841231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19850101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19900101-19941231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_19950101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_20000101-20041231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CNRM-CM5_historical_r1i1p1_20050101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r1i1p1_19500101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r1i1p1_19700101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r1i1p1_19900101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CSIRO-Mk3-6-0_historical_r2i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CSIRO-Mk3-6-0_historical_r3i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CSIRO-Mk3-6-0_historical_r4i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CSIRO-Mk3-6-0_historical_r5i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CSIRO-Mk3-6-0_historical_r6i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r7i1p1_19500101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r7i1p1_19700101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r7i1p1_19900101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r8i1p1_19500101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r8i1p1_19700101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r8i1p1_19900101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r9i1p1_19500101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r9i1p1_19700101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r9i1p1_19900101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r10i1p1_19500101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r10i1p1_19700101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_CSIRO-Mk3-6-0_historical_r10i1p1_19900101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_inmcm4_historical_r1i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_inmcm4_historical_r1i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_inmcm4_historical_r1i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_inmcm4_historical_r1i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_inmcm4_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5A-LR_historical_r1i1p1_19500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5A-LR_historical_r2i1p1_19500101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5A-LR_historical_r2i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5A-LR_historical_r3i1p1_19500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5A-LR_historical_r4i1p1_19500101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_cfDay_IPSL-CM5A-LR_historical_r4i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_IPSL-CM5A-MR_historical_r1i1p1_19500101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_IPSL-CM5A-MR_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC-ESM_historical_r1i1p1_19500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC-ESM-CHEM_historical_r1i1p1_19500101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r2i1p1_195101-196012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r2i1p1_196101-197012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r2i1p1_197101-198012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r2i1p1_198101-199012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r2i1p1_199101-200012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r2i1p1_200101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r3i1p1_195101-196012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r3i1p1_196101-197012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r3i1p1_197101-198012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r3i1p1_198101-199012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r3i1p1_199101-200012.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_MIROC4h_historical_r3i1p1_200101-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC5_historical_r1i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC5_historical_r1i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC5_historical_r1i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC5_historical_r1i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MIROC5_historical_r1i1p1_20000101-20091231.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r1i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r1i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r2i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r2i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r3i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r3i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r4i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r4i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r5i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r5i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r6i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r6i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r7i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r7i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r8i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r8i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r9i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r9i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r10i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadCM3_historical_r10i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19641201-19691130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19691201-19741130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19741201-19791130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19791201-19841130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19841201-19891130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19891201-19941130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19941201-19991130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_19991201-20041130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-CC_historical_r1i1p1_20041201-20051130.nc</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-ES_historical_r1i1p1_19591201-19691130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-ES_historical_r1i1p1_19691201-19791130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-ES_historical_r1i1p1_19791201-19891130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-ES_historical_r1i1p1_19891201-19991130.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_HadGEM2-ES_historical_r1i1p1_19991201-20051130.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadGEM2-ES_historical_r2i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadGEM2-ES_historical_r2i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadGEM2-ES_historical_r3i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadGEM2-ES_historical_r3i1p1_198412-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadGEM2-ES_historical_r4i1p1_195912-198411.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_HadGEM2-ES_historical_r4i1p1_198412-200511.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r1i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r1i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r1i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r1i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r2i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r2i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r2i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r2i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r2i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r3i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r3i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r3i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r3i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MPI-ESM-LR_historical_r3i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MRI-CGCM3_historical_r1i1p1_19600101-19691231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MRI-CGCM3_historical_r1i1p1_19700101-19791231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MRI-CGCM3_historical_r1i1p1_19800101-19891231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MRI-CGCM3_historical_r1i1p1_19900101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_MRI-CGCM3_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CCSM4_historical_r1i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_Amon_CCSM4_historical_r2i1p1_185001-200512.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_NorESM1-M_historical_r1i1p1_19500101-19991231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_NorESM1-M_historical_r1i1p1_20000101-20051231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19560101-19601231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19610101-19651231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19660101-19701231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19710101-19751231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19760101-19801231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19810101-19851231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19860101-19901231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19910101-19951231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2G_historical_r1i1p1_19960101-20001231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19560101-19601231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19610101-19651231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19660101-19701231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19710101-19751231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19760101-19801231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19810101-19851231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19860101-19901231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19910101-19951231.nc</t>
+  </si>
+  <si>
+    <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19960101-20001231.nc</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +1629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S318"/>
+  <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A255" sqref="A255"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,10 +1656,11 @@
     <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="66" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:20" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1166,10 +1716,13 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1227,10 +1780,13 @@
         <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>260</v>
+      </c>
+      <c r="T2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -1289,10 +1845,13 @@
         <v>202</v>
       </c>
       <c r="S3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>261</v>
+      </c>
+      <c r="T3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="2">A3+1</f>
         <v>3</v>
@@ -1351,10 +1910,13 @@
         <v>203</v>
       </c>
       <c r="S4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>262</v>
+      </c>
+      <c r="T4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1413,10 +1975,13 @@
         <v>204</v>
       </c>
       <c r="S5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>263</v>
+      </c>
+      <c r="T5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1475,10 +2040,13 @@
         <v>205</v>
       </c>
       <c r="S6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>264</v>
+      </c>
+      <c r="T6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1537,10 +2105,13 @@
         <v>206</v>
       </c>
       <c r="S7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>265</v>
+      </c>
+      <c r="T7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1599,10 +2170,13 @@
         <v>207</v>
       </c>
       <c r="S8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>266</v>
+      </c>
+      <c r="T8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1661,10 +2235,13 @@
         <v>208</v>
       </c>
       <c r="S9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>267</v>
+      </c>
+      <c r="T9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1723,10 +2300,13 @@
         <v>209</v>
       </c>
       <c r="S10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>268</v>
+      </c>
+      <c r="T10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1785,10 +2365,13 @@
         <v>210</v>
       </c>
       <c r="S11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>269</v>
+      </c>
+      <c r="T11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1847,10 +2430,13 @@
         <v>211</v>
       </c>
       <c r="S12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>270</v>
+      </c>
+      <c r="T12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1909,10 +2495,13 @@
         <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>271</v>
+      </c>
+      <c r="T13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1971,10 +2560,13 @@
         <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>272</v>
+      </c>
+      <c r="T14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2033,10 +2625,13 @@
         <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>273</v>
+      </c>
+      <c r="T15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2095,10 +2690,13 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>274</v>
+      </c>
+      <c r="T16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2157,10 +2755,13 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>275</v>
+      </c>
+      <c r="T17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2219,10 +2820,13 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>276</v>
+      </c>
+      <c r="T18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2281,10 +2885,13 @@
         <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>277</v>
+      </c>
+      <c r="T19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2343,10 +2950,13 @@
         <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>278</v>
+      </c>
+      <c r="T20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2405,10 +3015,13 @@
         <v>45</v>
       </c>
       <c r="S21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>279</v>
+      </c>
+      <c r="T21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2467,10 +3080,13 @@
         <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>280</v>
+      </c>
+      <c r="T22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2529,10 +3145,13 @@
         <v>47</v>
       </c>
       <c r="S23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>281</v>
+      </c>
+      <c r="T23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2591,10 +3210,13 @@
         <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>282</v>
+      </c>
+      <c r="T24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2653,10 +3275,13 @@
         <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>283</v>
+      </c>
+      <c r="T25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2715,10 +3340,13 @@
         <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>284</v>
+      </c>
+      <c r="T26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2777,10 +3405,13 @@
         <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>285</v>
+      </c>
+      <c r="T27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2839,10 +3470,13 @@
         <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>286</v>
+      </c>
+      <c r="T28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2901,10 +3535,13 @@
         <v>54</v>
       </c>
       <c r="S29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>287</v>
+      </c>
+      <c r="T29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2963,10 +3600,13 @@
         <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>288</v>
+      </c>
+      <c r="T30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3025,10 +3665,13 @@
         <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>289</v>
+      </c>
+      <c r="T31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -3087,10 +3730,13 @@
         <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>289</v>
+      </c>
+      <c r="T32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3149,10 +3795,13 @@
         <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>289</v>
+      </c>
+      <c r="T33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -3211,10 +3860,13 @@
         <v>59</v>
       </c>
       <c r="S34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>290</v>
+      </c>
+      <c r="T34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3273,10 +3925,13 @@
         <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>290</v>
+      </c>
+      <c r="T35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3335,10 +3990,13 @@
         <v>61</v>
       </c>
       <c r="S36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>290</v>
+      </c>
+      <c r="T36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -3397,10 +4055,13 @@
         <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>291</v>
+      </c>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -3459,10 +4120,13 @@
         <v>63</v>
       </c>
       <c r="S38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>291</v>
+      </c>
+      <c r="T38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -3521,10 +4185,13 @@
         <v>64</v>
       </c>
       <c r="S39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>291</v>
+      </c>
+      <c r="T39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3583,10 +4250,13 @@
         <v>65</v>
       </c>
       <c r="S40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>292</v>
+      </c>
+      <c r="T40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3645,10 +4315,13 @@
         <v>66</v>
       </c>
       <c r="S41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>292</v>
+      </c>
+      <c r="T41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3707,10 +4380,13 @@
         <v>67</v>
       </c>
       <c r="S42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>292</v>
+      </c>
+      <c r="T42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3769,10 +4445,13 @@
         <v>68</v>
       </c>
       <c r="S43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>293</v>
+      </c>
+      <c r="T43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3831,10 +4510,13 @@
         <v>69</v>
       </c>
       <c r="S44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>293</v>
+      </c>
+      <c r="T44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -3893,10 +4575,13 @@
         <v>70</v>
       </c>
       <c r="S45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>293</v>
+      </c>
+      <c r="T45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3955,10 +4640,13 @@
         <v>71</v>
       </c>
       <c r="S46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>294</v>
+      </c>
+      <c r="T46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4017,10 +4705,13 @@
         <v>72</v>
       </c>
       <c r="S47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>295</v>
+      </c>
+      <c r="T47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4079,10 +4770,13 @@
         <v>73</v>
       </c>
       <c r="S48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>296</v>
+      </c>
+      <c r="T48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4141,10 +4835,13 @@
         <v>74</v>
       </c>
       <c r="S49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>297</v>
+      </c>
+      <c r="T49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4203,10 +4900,13 @@
         <v>75</v>
       </c>
       <c r="S50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>298</v>
+      </c>
+      <c r="T50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -4265,10 +4965,13 @@
         <v>76</v>
       </c>
       <c r="S51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>299</v>
+      </c>
+      <c r="T51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -4327,10 +5030,13 @@
         <v>77</v>
       </c>
       <c r="S52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>300</v>
+      </c>
+      <c r="T52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -4389,10 +5095,13 @@
         <v>78</v>
       </c>
       <c r="S53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>301</v>
+      </c>
+      <c r="T53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="2">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -4451,10 +5160,13 @@
         <v>79</v>
       </c>
       <c r="S54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>302</v>
+      </c>
+      <c r="T54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -4513,10 +5225,13 @@
         <v>80</v>
       </c>
       <c r="S55" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>303</v>
+      </c>
+      <c r="T55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -4575,10 +5290,13 @@
         <v>81</v>
       </c>
       <c r="S56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>304</v>
+      </c>
+      <c r="T56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -4637,10 +5355,13 @@
         <v>82</v>
       </c>
       <c r="S57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>305</v>
+      </c>
+      <c r="T57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -4701,8 +5422,11 @@
       <c r="S58" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -4763,8 +5487,11 @@
       <c r="S59" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -4825,8 +5552,11 @@
       <c r="S60" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -4887,8 +5617,11 @@
       <c r="S61" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -4947,10 +5680,13 @@
         <v>89</v>
       </c>
       <c r="S62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>306</v>
+      </c>
+      <c r="T62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -5009,10 +5745,13 @@
         <v>90</v>
       </c>
       <c r="S63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>307</v>
+      </c>
+      <c r="T63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -5071,10 +5810,13 @@
         <v>91</v>
       </c>
       <c r="S64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>308</v>
+      </c>
+      <c r="T64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -5133,10 +5875,13 @@
         <v>92</v>
       </c>
       <c r="S65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>309</v>
+      </c>
+      <c r="T65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -5195,10 +5940,13 @@
         <v>93</v>
       </c>
       <c r="S66" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>310</v>
+      </c>
+      <c r="T66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -5257,10 +6005,13 @@
         <v>95</v>
       </c>
       <c r="S67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>311</v>
+      </c>
+      <c r="T67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="2">
         <f t="shared" ref="A68:A131" si="5">A67+1</f>
         <v>67</v>
@@ -5319,10 +6070,13 @@
         <v>97</v>
       </c>
       <c r="S68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>312</v>
+      </c>
+      <c r="T68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5381,10 +6135,13 @@
         <v>98</v>
       </c>
       <c r="S69" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>313</v>
+      </c>
+      <c r="T69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="2">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -5443,10 +6200,13 @@
         <v>96</v>
       </c>
       <c r="S70" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>314</v>
+      </c>
+      <c r="T70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="2">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -5505,10 +6265,13 @@
         <v>99</v>
       </c>
       <c r="S71" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>315</v>
+      </c>
+      <c r="T71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="2">
         <f t="shared" si="5"/>
         <v>71</v>
@@ -5567,10 +6330,13 @@
         <v>100</v>
       </c>
       <c r="S72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>316</v>
+      </c>
+      <c r="T72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="2">
         <f t="shared" si="5"/>
         <v>72</v>
@@ -5629,10 +6395,13 @@
         <v>102</v>
       </c>
       <c r="S73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>317</v>
+      </c>
+      <c r="T73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="2">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -5691,10 +6460,13 @@
         <v>103</v>
       </c>
       <c r="S74" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>318</v>
+      </c>
+      <c r="T74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="2">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -5753,10 +6525,13 @@
         <v>105</v>
       </c>
       <c r="S75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="2">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -5815,10 +6590,13 @@
         <v>107</v>
       </c>
       <c r="S76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>320</v>
+      </c>
+      <c r="T76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="2">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -5877,11 +6655,15 @@
         <f>CONCATENATE("%var%_day_MIROC4h_historical_",D77,"_",E77,"0101-",E77,"1231.nc")</f>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19600101-19601231.nc</v>
       </c>
-      <c r="S77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="S77" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E77,"_",F77,"0101-",F77,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1960_10101-11231.nc</v>
+      </c>
+      <c r="T77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="2">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -5937,14 +6719,18 @@
         <v>19</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" ref="R78:R141" si="8">CONCATENATE("%var%_day_MIROC4h_historical_",D78,"_",E78,"0101-",E78,"1231.nc")</f>
+        <f t="shared" ref="R78:S141" si="8">CONCATENATE("%var%_day_MIROC4h_historical_",D78,"_",E78,"0101-",E78,"1231.nc")</f>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19610101-19611231.nc</v>
       </c>
-      <c r="S78" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="S78" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E78,"_",F78,"0101-",F78,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1961_10101-11231.nc</v>
+      </c>
+      <c r="T78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="2">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -6003,11 +6789,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19620101-19621231.nc</v>
       </c>
-      <c r="S79" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="S79" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E79,"_",F79,"0101-",F79,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1962_10101-11231.nc</v>
+      </c>
+      <c r="T79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="2">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -6066,11 +6856,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19630101-19631231.nc</v>
       </c>
-      <c r="S80" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="S80" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E80,"_",F80,"0101-",F80,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1963_10101-11231.nc</v>
+      </c>
+      <c r="T80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="2">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -6129,11 +6923,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19640101-19641231.nc</v>
       </c>
-      <c r="S81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="S81" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E81,"_",F81,"0101-",F81,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1964_10101-11231.nc</v>
+      </c>
+      <c r="T81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="2">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -6192,11 +6990,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19650101-19651231.nc</v>
       </c>
-      <c r="S82" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="S82" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E82,"_",F82,"0101-",F82,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1965_10101-11231.nc</v>
+      </c>
+      <c r="T82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="2">
         <f t="shared" si="5"/>
         <v>82</v>
@@ -6255,11 +7057,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19660101-19661231.nc</v>
       </c>
-      <c r="S83" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="S83" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E83,"_",F83,"0101-",F83,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1966_10101-11231.nc</v>
+      </c>
+      <c r="T83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="2">
         <f t="shared" si="5"/>
         <v>83</v>
@@ -6318,11 +7124,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19670101-19671231.nc</v>
       </c>
-      <c r="S84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="S84" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E84,"_",F84,"0101-",F84,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1967_10101-11231.nc</v>
+      </c>
+      <c r="T84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="2">
         <f t="shared" si="5"/>
         <v>84</v>
@@ -6381,11 +7191,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19680101-19681231.nc</v>
       </c>
-      <c r="S85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="S85" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E85,"_",F85,"0101-",F85,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1968_10101-11231.nc</v>
+      </c>
+      <c r="T85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="2">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -6444,11 +7258,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19690101-19691231.nc</v>
       </c>
-      <c r="S86" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="S86" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E86,"_",F86,"0101-",F86,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1969_10101-11231.nc</v>
+      </c>
+      <c r="T86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="2">
         <f t="shared" si="5"/>
         <v>86</v>
@@ -6507,11 +7325,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19700101-19701231.nc</v>
       </c>
-      <c r="S87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="S87" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E87,"_",F87,"0101-",F87,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1970_10101-11231.nc</v>
+      </c>
+      <c r="T87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="2">
         <f t="shared" si="5"/>
         <v>87</v>
@@ -6570,11 +7392,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19710101-19711231.nc</v>
       </c>
-      <c r="S88" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="S88" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E88,"_",F88,"0101-",F88,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1971_10101-11231.nc</v>
+      </c>
+      <c r="T88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="2">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -6633,11 +7459,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19720101-19721231.nc</v>
       </c>
-      <c r="S89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="S89" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E89,"_",F89,"0101-",F89,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1972_10101-11231.nc</v>
+      </c>
+      <c r="T89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="2">
         <f t="shared" si="5"/>
         <v>89</v>
@@ -6696,11 +7526,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19730101-19731231.nc</v>
       </c>
-      <c r="S90" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="S90" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E90,"_",F90,"0101-",F90,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1973_10101-11231.nc</v>
+      </c>
+      <c r="T90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="2">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -6759,11 +7593,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19740101-19741231.nc</v>
       </c>
-      <c r="S91" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="S91" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E91,"_",F91,"0101-",F91,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1974_10101-11231.nc</v>
+      </c>
+      <c r="T91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="2">
         <f t="shared" si="5"/>
         <v>91</v>
@@ -6822,11 +7660,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19750101-19751231.nc</v>
       </c>
-      <c r="S92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="S92" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E92,"_",F92,"0101-",F92,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1975_10101-11231.nc</v>
+      </c>
+      <c r="T92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="2">
         <f t="shared" si="5"/>
         <v>92</v>
@@ -6885,11 +7727,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19760101-19761231.nc</v>
       </c>
-      <c r="S93" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="S93" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E93,"_",F93,"0101-",F93,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1976_10101-11231.nc</v>
+      </c>
+      <c r="T93" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="2">
         <f t="shared" si="5"/>
         <v>93</v>
@@ -6948,11 +7794,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19770101-19771231.nc</v>
       </c>
-      <c r="S94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="S94" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E94,"_",F94,"0101-",F94,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1977_10101-11231.nc</v>
+      </c>
+      <c r="T94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="2">
         <f t="shared" si="5"/>
         <v>94</v>
@@ -7011,11 +7861,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19780101-19781231.nc</v>
       </c>
-      <c r="S95" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="S95" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E95,"_",F95,"0101-",F95,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1978_10101-11231.nc</v>
+      </c>
+      <c r="T95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="2">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -7074,11 +7928,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19790101-19791231.nc</v>
       </c>
-      <c r="S96" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="S96" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E96,"_",F96,"0101-",F96,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1979_10101-11231.nc</v>
+      </c>
+      <c r="T96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="2">
         <f t="shared" si="5"/>
         <v>96</v>
@@ -7137,11 +7995,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19800101-19801231.nc</v>
       </c>
-      <c r="S97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="S97" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E97,"_",F97,"0101-",F97,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1980_10101-11231.nc</v>
+      </c>
+      <c r="T97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="2">
         <f t="shared" si="5"/>
         <v>97</v>
@@ -7200,11 +8062,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19810101-19811231.nc</v>
       </c>
-      <c r="S98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="S98" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E98,"_",F98,"0101-",F98,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1981_10101-11231.nc</v>
+      </c>
+      <c r="T98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="2">
         <f t="shared" si="5"/>
         <v>98</v>
@@ -7263,11 +8129,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19820101-19821231.nc</v>
       </c>
-      <c r="S99" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="S99" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E99,"_",F99,"0101-",F99,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1982_10101-11231.nc</v>
+      </c>
+      <c r="T99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="2">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -7326,11 +8196,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19830101-19831231.nc</v>
       </c>
-      <c r="S100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="S100" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E100,"_",F100,"0101-",F100,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1983_10101-11231.nc</v>
+      </c>
+      <c r="T100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="2">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -7389,11 +8263,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19840101-19841231.nc</v>
       </c>
-      <c r="S101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="S101" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E101,"_",F101,"0101-",F101,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1984_10101-11231.nc</v>
+      </c>
+      <c r="T101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="2">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -7452,11 +8330,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19850101-19851231.nc</v>
       </c>
-      <c r="S102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="S102" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E102,"_",F102,"0101-",F102,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1985_10101-11231.nc</v>
+      </c>
+      <c r="T102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="2">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -7515,11 +8397,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19860101-19861231.nc</v>
       </c>
-      <c r="S103" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="S103" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E103,"_",F103,"0101-",F103,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1986_10101-11231.nc</v>
+      </c>
+      <c r="T103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="2">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -7578,11 +8464,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19870101-19871231.nc</v>
       </c>
-      <c r="S104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="S104" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E104,"_",F104,"0101-",F104,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1987_10101-11231.nc</v>
+      </c>
+      <c r="T104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="2">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -7641,11 +8531,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19880101-19881231.nc</v>
       </c>
-      <c r="S105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="S105" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E105,"_",F105,"0101-",F105,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1988_10101-11231.nc</v>
+      </c>
+      <c r="T105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="2">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -7704,11 +8598,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19890101-19891231.nc</v>
       </c>
-      <c r="S106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="S106" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E106,"_",F106,"0101-",F106,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1989_10101-11231.nc</v>
+      </c>
+      <c r="T106" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="2">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -7767,11 +8665,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19900101-19901231.nc</v>
       </c>
-      <c r="S107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="S107" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E107,"_",F107,"0101-",F107,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1990_10101-11231.nc</v>
+      </c>
+      <c r="T107" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="2">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -7830,11 +8732,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19910101-19911231.nc</v>
       </c>
-      <c r="S108" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="S108" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E108,"_",F108,"0101-",F108,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1991_10101-11231.nc</v>
+      </c>
+      <c r="T108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="2">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -7893,11 +8799,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19920101-19921231.nc</v>
       </c>
-      <c r="S109" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="S109" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E109,"_",F109,"0101-",F109,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1992_10101-11231.nc</v>
+      </c>
+      <c r="T109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="2">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -7956,11 +8866,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19930101-19931231.nc</v>
       </c>
-      <c r="S110" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="S110" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E110,"_",F110,"0101-",F110,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1993_10101-11231.nc</v>
+      </c>
+      <c r="T110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="2">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -8019,11 +8933,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19940101-19941231.nc</v>
       </c>
-      <c r="S111" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="S111" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E111,"_",F111,"0101-",F111,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1994_10101-11231.nc</v>
+      </c>
+      <c r="T111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="2">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -8082,11 +9000,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19950101-19951231.nc</v>
       </c>
-      <c r="S112" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="S112" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E112,"_",F112,"0101-",F112,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1995_10101-11231.nc</v>
+      </c>
+      <c r="T112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="2">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -8145,11 +9067,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19960101-19961231.nc</v>
       </c>
-      <c r="S113" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="S113" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E113,"_",F113,"0101-",F113,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1996_10101-11231.nc</v>
+      </c>
+      <c r="T113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="2">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -8208,11 +9134,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19970101-19971231.nc</v>
       </c>
-      <c r="S114" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="S114" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E114,"_",F114,"0101-",F114,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1997_10101-11231.nc</v>
+      </c>
+      <c r="T114" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="2">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -8271,11 +9201,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19980101-19981231.nc</v>
       </c>
-      <c r="S115" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="S115" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E115,"_",F115,"0101-",F115,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1998_10101-11231.nc</v>
+      </c>
+      <c r="T115" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" s="2">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -8334,11 +9268,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19990101-19991231.nc</v>
       </c>
-      <c r="S116" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="S116" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E116,"_",F116,"0101-",F116,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_1999_10101-11231.nc</v>
+      </c>
+      <c r="T116" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" s="2">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -8397,11 +9335,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20000101-20001231.nc</v>
       </c>
-      <c r="S117" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="S117" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E117,"_",F117,"0101-",F117,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_2000_10101-11231.nc</v>
+      </c>
+      <c r="T117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="2">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -8460,11 +9402,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20010101-20011231.nc</v>
       </c>
-      <c r="S118" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="S118" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E118,"_",F118,"0101-",F118,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_2001_10101-11231.nc</v>
+      </c>
+      <c r="T118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" s="2">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -8523,11 +9469,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20020101-20021231.nc</v>
       </c>
-      <c r="S119" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="S119" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E119,"_",F119,"0101-",F119,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_2002_10101-11231.nc</v>
+      </c>
+      <c r="T119" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" s="2">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -8586,11 +9536,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20030101-20031231.nc</v>
       </c>
-      <c r="S120" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="S120" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E120,"_",F120,"0101-",F120,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_2003_10101-11231.nc</v>
+      </c>
+      <c r="T120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" s="2">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -8649,11 +9603,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20040101-20041231.nc</v>
       </c>
-      <c r="S121" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="S121" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E121,"_",F121,"0101-",F121,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_2004_10101-11231.nc</v>
+      </c>
+      <c r="T121" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="2">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -8712,11 +9670,15 @@
         <f t="shared" si="8"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20050101-20051231.nc</v>
       </c>
-      <c r="S122" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="S122" t="str">
+        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E122,"_",F122,"0101-",F122,"1231.nc")</f>
+        <v>rsds_day_MIROC4h_historical_2005_10101-11231.nc</v>
+      </c>
+      <c r="T122" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" s="2">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -8776,10 +9738,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19">
+        <v>321</v>
+      </c>
+      <c r="T123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" s="2">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -8839,10 +9804,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S124" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" s="2">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -8902,10 +9870,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S125" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T125" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="2">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -8965,10 +9936,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S126" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T126" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" s="2">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -9028,10 +10002,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S127" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" s="2">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -9091,10 +10068,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S128" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T128" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" s="2">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -9154,10 +10134,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S129" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" s="2">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -9217,10 +10200,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S130" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="2">
         <f t="shared" si="5"/>
         <v>130</v>
@@ -9280,10 +10266,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S131" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T131" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" s="2">
         <f t="shared" ref="A132:A195" si="9">A131+1</f>
         <v>131</v>
@@ -9343,10 +10332,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S132" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T132" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" s="2">
         <f t="shared" si="9"/>
         <v>132</v>
@@ -9406,10 +10398,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S133" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
+        <v>322</v>
+      </c>
+      <c r="T133" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" s="2">
         <f t="shared" si="9"/>
         <v>133</v>
@@ -9469,10 +10464,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S134" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T134" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" s="2">
         <f t="shared" si="9"/>
         <v>134</v>
@@ -9532,10 +10530,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S135" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" s="2">
         <f t="shared" si="9"/>
         <v>135</v>
@@ -9595,10 +10596,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" s="2">
         <f t="shared" si="9"/>
         <v>136</v>
@@ -9658,10 +10662,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S137" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T137" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" s="2">
         <f t="shared" si="9"/>
         <v>137</v>
@@ -9721,10 +10728,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S138" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" s="2">
         <f t="shared" si="9"/>
         <v>138</v>
@@ -9784,10 +10794,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S139" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T139" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" s="2">
         <f t="shared" si="9"/>
         <v>139</v>
@@ -9847,10 +10860,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S140" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T140" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" s="2">
         <f t="shared" si="9"/>
         <v>140</v>
@@ -9910,10 +10926,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S141" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" s="2">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -9973,10 +10992,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S142" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" s="2">
         <f t="shared" si="9"/>
         <v>142</v>
@@ -10036,10 +11058,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S143" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19">
+        <v>323</v>
+      </c>
+      <c r="T143" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" s="2">
         <f t="shared" si="9"/>
         <v>143</v>
@@ -10099,10 +11124,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S144" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" s="2">
         <f t="shared" si="9"/>
         <v>144</v>
@@ -10162,10 +11190,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S145" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T145" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" s="2">
         <f t="shared" si="9"/>
         <v>145</v>
@@ -10225,10 +11256,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" s="2">
         <f t="shared" si="9"/>
         <v>146</v>
@@ -10288,10 +11322,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S147" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="2">
         <f t="shared" si="9"/>
         <v>147</v>
@@ -10351,10 +11388,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S148" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="2">
         <f t="shared" si="9"/>
         <v>148</v>
@@ -10414,10 +11454,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S149" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" s="2">
         <f t="shared" si="9"/>
         <v>149</v>
@@ -10477,10 +11520,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S150" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T150" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" s="2">
         <f t="shared" si="9"/>
         <v>150</v>
@@ -10540,10 +11586,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S151" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T151" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="2">
         <f t="shared" si="9"/>
         <v>151</v>
@@ -10603,10 +11652,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S152" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" s="2">
         <f t="shared" si="9"/>
         <v>152</v>
@@ -10666,10 +11718,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S153" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19">
+        <v>324</v>
+      </c>
+      <c r="T153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" s="2">
         <f t="shared" si="9"/>
         <v>153</v>
@@ -10729,10 +11784,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" s="2">
         <f t="shared" si="9"/>
         <v>154</v>
@@ -10792,10 +11850,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S155" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" s="2">
         <f t="shared" si="9"/>
         <v>155</v>
@@ -10855,10 +11916,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" s="2">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -10918,10 +11982,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S157" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" s="2">
         <f t="shared" si="9"/>
         <v>157</v>
@@ -10981,10 +12048,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S158" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" s="2">
         <f t="shared" si="9"/>
         <v>158</v>
@@ -11044,10 +12114,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S159" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" s="2">
         <f t="shared" si="9"/>
         <v>159</v>
@@ -11107,10 +12180,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S160" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" s="2">
         <f t="shared" si="9"/>
         <v>160</v>
@@ -11170,10 +12246,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S161" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" s="2">
         <f t="shared" si="9"/>
         <v>161</v>
@@ -11233,10 +12312,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" s="2">
         <f t="shared" si="9"/>
         <v>162</v>
@@ -11296,10 +12378,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S163" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19">
+        <v>325</v>
+      </c>
+      <c r="T163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" s="2">
         <f t="shared" si="9"/>
         <v>163</v>
@@ -11359,10 +12444,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S164" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="T164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" s="2">
         <f t="shared" si="9"/>
         <v>164</v>
@@ -11422,10 +12510,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S165" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="T165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" s="2">
         <f t="shared" si="9"/>
         <v>165</v>
@@ -11485,10 +12576,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="T166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" s="2">
         <f t="shared" si="9"/>
         <v>166</v>
@@ -11548,10 +12642,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S167" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="T167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" s="2">
         <f t="shared" si="9"/>
         <v>167</v>
@@ -11611,10 +12708,13 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S168" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="T168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" s="2">
         <f t="shared" si="9"/>
         <v>168</v>
@@ -11674,10 +12774,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S169" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="T169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" s="2">
         <f t="shared" si="9"/>
         <v>169</v>
@@ -11737,10 +12840,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" s="2">
         <f t="shared" si="9"/>
         <v>170</v>
@@ -11800,10 +12906,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S171" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" s="2">
         <f t="shared" si="9"/>
         <v>171</v>
@@ -11863,10 +12972,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" s="2">
         <f t="shared" si="9"/>
         <v>172</v>
@@ -11926,10 +13038,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" s="2">
         <f t="shared" si="9"/>
         <v>173</v>
@@ -11989,10 +13104,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S174" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="2">
         <f t="shared" si="9"/>
         <v>174</v>
@@ -12052,10 +13170,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S175" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T175" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" s="2">
         <f t="shared" si="9"/>
         <v>175</v>
@@ -12115,10 +13236,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S176" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" s="2">
         <f t="shared" si="9"/>
         <v>176</v>
@@ -12178,10 +13302,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T177" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" s="2">
         <f t="shared" si="9"/>
         <v>177</v>
@@ -12241,10 +13368,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S178" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T178" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" s="2">
         <f t="shared" si="9"/>
         <v>178</v>
@@ -12304,10 +13434,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S179" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19">
+        <v>328</v>
+      </c>
+      <c r="T179" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" s="2">
         <f t="shared" si="9"/>
         <v>179</v>
@@ -12367,10 +13500,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="2">
         <f t="shared" si="9"/>
         <v>180</v>
@@ -12430,10 +13566,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T181" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" s="2">
         <f t="shared" si="9"/>
         <v>181</v>
@@ -12493,10 +13632,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S182" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T182" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" s="2">
         <f t="shared" si="9"/>
         <v>182</v>
@@ -12556,10 +13698,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T183" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" s="2">
         <f t="shared" si="9"/>
         <v>183</v>
@@ -12619,10 +13764,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S184" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" s="2">
         <f t="shared" si="9"/>
         <v>184</v>
@@ -12682,10 +13830,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T185" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" s="2">
         <f t="shared" si="9"/>
         <v>185</v>
@@ -12745,10 +13896,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S186" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T186" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" s="2">
         <f t="shared" si="9"/>
         <v>186</v>
@@ -12808,10 +13962,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T187" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" s="2">
         <f t="shared" si="9"/>
         <v>187</v>
@@ -12871,10 +14028,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T188" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" s="2">
         <f t="shared" si="9"/>
         <v>188</v>
@@ -12934,10 +14094,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19">
+        <v>329</v>
+      </c>
+      <c r="T189" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" s="2">
         <f t="shared" si="9"/>
         <v>189</v>
@@ -12997,10 +14160,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S190" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T190" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" s="2">
         <f t="shared" si="9"/>
         <v>190</v>
@@ -13060,10 +14226,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S191" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T191" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" s="2">
         <f t="shared" si="9"/>
         <v>191</v>
@@ -13123,10 +14292,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S192" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T192" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" s="2">
         <f t="shared" si="9"/>
         <v>192</v>
@@ -13186,10 +14358,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S193" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T193" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" s="2">
         <f t="shared" si="9"/>
         <v>193</v>
@@ -13249,10 +14424,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S194" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T194" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" s="2">
         <f t="shared" si="9"/>
         <v>194</v>
@@ -13312,10 +14490,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S195" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" s="2">
         <f t="shared" ref="A196:A259" si="13">A195+1</f>
         <v>195</v>
@@ -13375,10 +14556,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S196" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" s="2">
         <f t="shared" si="13"/>
         <v>196</v>
@@ -13438,10 +14622,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S197" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" s="2">
         <f t="shared" si="13"/>
         <v>197</v>
@@ -13501,10 +14688,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S198" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" s="2">
         <f t="shared" si="13"/>
         <v>198</v>
@@ -13564,10 +14754,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S199" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19">
+        <v>330</v>
+      </c>
+      <c r="T199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" s="2">
         <f t="shared" si="13"/>
         <v>199</v>
@@ -13627,10 +14820,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S200" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" s="2">
         <f t="shared" si="13"/>
         <v>200</v>
@@ -13690,10 +14886,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S201" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" s="2">
         <f t="shared" si="13"/>
         <v>201</v>
@@ -13753,10 +14952,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" s="2">
         <f t="shared" si="13"/>
         <v>202</v>
@@ -13816,10 +15018,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S203" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" s="2">
         <f t="shared" si="13"/>
         <v>203</v>
@@ -13879,10 +15084,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S204" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T204" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" s="2">
         <f t="shared" si="13"/>
         <v>204</v>
@@ -13942,10 +15150,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S205" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T205" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" s="2">
         <f t="shared" si="13"/>
         <v>205</v>
@@ -14005,10 +15216,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S206" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" s="2">
         <f t="shared" si="13"/>
         <v>206</v>
@@ -14068,10 +15282,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S207" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" s="2">
         <f t="shared" si="13"/>
         <v>207</v>
@@ -14131,10 +15348,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S208" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" s="2">
         <f t="shared" si="13"/>
         <v>208</v>
@@ -14194,10 +15414,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S209" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19">
+        <v>331</v>
+      </c>
+      <c r="T209" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" s="2">
         <f t="shared" si="13"/>
         <v>209</v>
@@ -14257,10 +15480,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S210" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19">
+        <v>332</v>
+      </c>
+      <c r="T210" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" s="2">
         <f t="shared" si="13"/>
         <v>210</v>
@@ -14320,10 +15546,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S211" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19">
+        <v>332</v>
+      </c>
+      <c r="T211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" s="2">
         <f t="shared" si="13"/>
         <v>211</v>
@@ -14383,10 +15612,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S212" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19">
+        <v>332</v>
+      </c>
+      <c r="T212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" s="2">
         <f t="shared" si="13"/>
         <v>212</v>
@@ -14446,10 +15678,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S213" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19">
+        <v>332</v>
+      </c>
+      <c r="T213" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" s="2">
         <f t="shared" si="13"/>
         <v>213</v>
@@ -14509,10 +15744,13 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S214" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19">
+        <v>332</v>
+      </c>
+      <c r="T214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" s="2">
         <f t="shared" si="13"/>
         <v>214</v>
@@ -14571,10 +15809,13 @@
         <v>110</v>
       </c>
       <c r="S215" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T215" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" s="2">
         <f t="shared" si="13"/>
         <v>215</v>
@@ -14633,10 +15874,13 @@
         <v>111</v>
       </c>
       <c r="S216" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19">
+        <v>334</v>
+      </c>
+      <c r="T216" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" s="2">
         <f t="shared" si="13"/>
         <v>216</v>
@@ -14695,10 +15939,13 @@
         <v>112</v>
       </c>
       <c r="S217" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19">
+        <v>335</v>
+      </c>
+      <c r="T217" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" s="2">
         <f t="shared" si="13"/>
         <v>217</v>
@@ -14757,10 +16004,13 @@
         <v>113</v>
       </c>
       <c r="S218" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19">
+        <v>336</v>
+      </c>
+      <c r="T218" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" s="2">
         <f t="shared" si="13"/>
         <v>218</v>
@@ -14819,10 +16069,13 @@
         <v>114</v>
       </c>
       <c r="S219" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19">
+        <v>337</v>
+      </c>
+      <c r="T219" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" s="2">
         <f t="shared" si="13"/>
         <v>219</v>
@@ -14881,10 +16134,13 @@
         <v>212</v>
       </c>
       <c r="S220" t="s">
+        <v>338</v>
+      </c>
+      <c r="T220" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:20">
       <c r="A221" s="2">
         <f t="shared" si="13"/>
         <v>220</v>
@@ -14943,10 +16199,13 @@
         <v>213</v>
       </c>
       <c r="S221" t="s">
+        <v>339</v>
+      </c>
+      <c r="T221" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:20">
       <c r="A222" s="2">
         <f t="shared" si="13"/>
         <v>221</v>
@@ -15005,10 +16264,13 @@
         <v>214</v>
       </c>
       <c r="S222" t="s">
+        <v>340</v>
+      </c>
+      <c r="T222" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:20">
       <c r="A223" s="2">
         <f t="shared" si="13"/>
         <v>222</v>
@@ -15067,10 +16329,13 @@
         <v>215</v>
       </c>
       <c r="S223" t="s">
+        <v>341</v>
+      </c>
+      <c r="T223" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:20">
       <c r="A224" s="2">
         <f t="shared" si="13"/>
         <v>223</v>
@@ -15129,10 +16394,13 @@
         <v>216</v>
       </c>
       <c r="S224" t="s">
+        <v>342</v>
+      </c>
+      <c r="T224" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:20">
       <c r="A225" s="2">
         <f t="shared" si="13"/>
         <v>224</v>
@@ -15191,10 +16459,13 @@
         <v>217</v>
       </c>
       <c r="S225" t="s">
+        <v>343</v>
+      </c>
+      <c r="T225" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:20">
       <c r="A226" s="2">
         <f t="shared" si="13"/>
         <v>225</v>
@@ -15253,10 +16524,13 @@
         <v>218</v>
       </c>
       <c r="S226" t="s">
+        <v>344</v>
+      </c>
+      <c r="T226" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:20">
       <c r="A227" s="2">
         <f t="shared" si="13"/>
         <v>226</v>
@@ -15315,10 +16589,13 @@
         <v>219</v>
       </c>
       <c r="S227" t="s">
+        <v>345</v>
+      </c>
+      <c r="T227" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:20">
       <c r="A228" s="2">
         <f t="shared" si="13"/>
         <v>227</v>
@@ -15377,10 +16654,13 @@
         <v>220</v>
       </c>
       <c r="S228" t="s">
+        <v>346</v>
+      </c>
+      <c r="T228" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:20">
       <c r="A229" s="2">
         <f t="shared" si="13"/>
         <v>228</v>
@@ -15439,10 +16719,13 @@
         <v>221</v>
       </c>
       <c r="S229" t="s">
+        <v>347</v>
+      </c>
+      <c r="T229" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:20">
       <c r="A230" s="2">
         <f t="shared" si="13"/>
         <v>229</v>
@@ -15501,10 +16784,13 @@
         <v>222</v>
       </c>
       <c r="S230" t="s">
+        <v>348</v>
+      </c>
+      <c r="T230" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:20">
       <c r="A231" s="2">
         <f t="shared" si="13"/>
         <v>230</v>
@@ -15563,10 +16849,13 @@
         <v>223</v>
       </c>
       <c r="S231" t="s">
+        <v>349</v>
+      </c>
+      <c r="T231" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:20">
       <c r="A232" s="2">
         <f t="shared" si="13"/>
         <v>231</v>
@@ -15625,10 +16914,13 @@
         <v>224</v>
       </c>
       <c r="S232" t="s">
+        <v>350</v>
+      </c>
+      <c r="T232" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:20">
       <c r="A233" s="2">
         <f t="shared" si="13"/>
         <v>232</v>
@@ -15687,10 +16979,13 @@
         <v>225</v>
       </c>
       <c r="S233" t="s">
+        <v>351</v>
+      </c>
+      <c r="T233" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:20">
       <c r="A234" s="2">
         <f t="shared" si="13"/>
         <v>233</v>
@@ -15749,10 +17044,13 @@
         <v>226</v>
       </c>
       <c r="S234" t="s">
+        <v>352</v>
+      </c>
+      <c r="T234" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:20">
       <c r="A235" s="2">
         <f t="shared" si="13"/>
         <v>234</v>
@@ -15811,10 +17109,13 @@
         <v>227</v>
       </c>
       <c r="S235" t="s">
+        <v>353</v>
+      </c>
+      <c r="T235" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:20">
       <c r="A236" s="2">
         <f t="shared" si="13"/>
         <v>235</v>
@@ -15873,10 +17174,13 @@
         <v>228</v>
       </c>
       <c r="S236" t="s">
+        <v>354</v>
+      </c>
+      <c r="T236" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:20">
       <c r="A237" s="2">
         <f t="shared" si="13"/>
         <v>236</v>
@@ -15935,10 +17239,13 @@
         <v>229</v>
       </c>
       <c r="S237" t="s">
+        <v>355</v>
+      </c>
+      <c r="T237" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:20">
       <c r="A238" s="2">
         <f t="shared" si="13"/>
         <v>237</v>
@@ -15997,10 +17304,13 @@
         <v>230</v>
       </c>
       <c r="S238" t="s">
+        <v>356</v>
+      </c>
+      <c r="T238" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:20">
       <c r="A239" s="2">
         <f t="shared" si="13"/>
         <v>238</v>
@@ -16059,10 +17369,13 @@
         <v>231</v>
       </c>
       <c r="S239" t="s">
+        <v>357</v>
+      </c>
+      <c r="T239" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:20">
       <c r="A240" s="2">
         <f t="shared" si="13"/>
         <v>239</v>
@@ -16121,10 +17434,13 @@
         <v>119</v>
       </c>
       <c r="S240" t="s">
+        <v>367</v>
+      </c>
+      <c r="T240" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:20">
       <c r="A241" s="2">
         <f t="shared" si="13"/>
         <v>240</v>
@@ -16183,10 +17499,13 @@
         <v>120</v>
       </c>
       <c r="S241" t="s">
+        <v>358</v>
+      </c>
+      <c r="T241" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:20">
       <c r="A242" s="2">
         <f t="shared" si="13"/>
         <v>241</v>
@@ -16245,10 +17564,13 @@
         <v>121</v>
       </c>
       <c r="S242" t="s">
+        <v>359</v>
+      </c>
+      <c r="T242" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:20">
       <c r="A243" s="2">
         <f t="shared" si="13"/>
         <v>242</v>
@@ -16307,10 +17629,13 @@
         <v>122</v>
       </c>
       <c r="S243" t="s">
+        <v>360</v>
+      </c>
+      <c r="T243" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:20">
       <c r="A244" s="2">
         <f t="shared" si="13"/>
         <v>243</v>
@@ -16369,10 +17694,13 @@
         <v>123</v>
       </c>
       <c r="S244" t="s">
+        <v>361</v>
+      </c>
+      <c r="T244" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:20">
       <c r="A245" s="2">
         <f t="shared" si="13"/>
         <v>244</v>
@@ -16431,10 +17759,13 @@
         <v>124</v>
       </c>
       <c r="S245" t="s">
+        <v>362</v>
+      </c>
+      <c r="T245" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:20">
       <c r="A246" s="2">
         <f t="shared" si="13"/>
         <v>245</v>
@@ -16493,10 +17824,13 @@
         <v>125</v>
       </c>
       <c r="S246" t="s">
+        <v>363</v>
+      </c>
+      <c r="T246" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:20">
       <c r="A247" s="2">
         <f t="shared" si="13"/>
         <v>246</v>
@@ -16555,10 +17889,13 @@
         <v>126</v>
       </c>
       <c r="S247" t="s">
+        <v>364</v>
+      </c>
+      <c r="T247" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:20">
       <c r="A248" s="2">
         <f t="shared" si="13"/>
         <v>247</v>
@@ -16617,10 +17954,13 @@
         <v>127</v>
       </c>
       <c r="S248" t="s">
+        <v>365</v>
+      </c>
+      <c r="T248" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:20">
       <c r="A249" s="2">
         <f t="shared" si="13"/>
         <v>248</v>
@@ -16679,10 +18019,13 @@
         <v>128</v>
       </c>
       <c r="S249" t="s">
+        <v>366</v>
+      </c>
+      <c r="T249" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:20">
       <c r="A250" s="2">
         <f t="shared" si="13"/>
         <v>249</v>
@@ -16741,10 +18084,13 @@
         <v>130</v>
       </c>
       <c r="S250" t="s">
+        <v>368</v>
+      </c>
+      <c r="T250" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:20">
       <c r="A251" s="2">
         <f t="shared" si="13"/>
         <v>250</v>
@@ -16803,10 +18149,13 @@
         <v>131</v>
       </c>
       <c r="S251" t="s">
+        <v>369</v>
+      </c>
+      <c r="T251" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:20">
       <c r="A252" s="2">
         <f t="shared" si="13"/>
         <v>251</v>
@@ -16865,10 +18214,13 @@
         <v>132</v>
       </c>
       <c r="S252" t="s">
+        <v>370</v>
+      </c>
+      <c r="T252" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:20">
       <c r="A253" s="2">
         <f t="shared" si="13"/>
         <v>252</v>
@@ -16927,10 +18279,13 @@
         <v>133</v>
       </c>
       <c r="S253" t="s">
+        <v>371</v>
+      </c>
+      <c r="T253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:20">
       <c r="A254" s="2">
         <f t="shared" si="13"/>
         <v>253</v>
@@ -16989,10 +18344,13 @@
         <v>134</v>
       </c>
       <c r="S254" t="s">
+        <v>372</v>
+      </c>
+      <c r="T254" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" spans="1:20">
       <c r="A255" s="2">
         <f>A254+1</f>
         <v>254</v>
@@ -17051,10 +18409,13 @@
         <v>233</v>
       </c>
       <c r="S255" t="s">
+        <v>373</v>
+      </c>
+      <c r="T255" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:20">
       <c r="A256" s="2">
         <f t="shared" si="13"/>
         <v>255</v>
@@ -17113,10 +18474,13 @@
         <v>234</v>
       </c>
       <c r="S256" t="s">
+        <v>373</v>
+      </c>
+      <c r="T256" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:20">
       <c r="A257" s="2">
         <f t="shared" si="13"/>
         <v>256</v>
@@ -17175,10 +18539,13 @@
         <v>235</v>
       </c>
       <c r="S257" t="s">
+        <v>374</v>
+      </c>
+      <c r="T257" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:20">
       <c r="A258" s="2">
         <f t="shared" si="13"/>
         <v>257</v>
@@ -17237,10 +18604,13 @@
         <v>236</v>
       </c>
       <c r="S258" t="s">
+        <v>374</v>
+      </c>
+      <c r="T258" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:20">
       <c r="A259" s="2">
         <f t="shared" si="13"/>
         <v>258</v>
@@ -17299,10 +18669,13 @@
         <v>237</v>
       </c>
       <c r="S259" t="s">
+        <v>374</v>
+      </c>
+      <c r="T259" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:20">
       <c r="A260" s="2">
         <f>A259+1</f>
         <v>259</v>
@@ -17361,10 +18734,13 @@
         <v>135</v>
       </c>
       <c r="S260" t="s">
+        <v>375</v>
+      </c>
+      <c r="T260" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" spans="1:20">
       <c r="A261" s="2">
         <f t="shared" ref="A261:A318" si="23">A260+1</f>
         <v>260</v>
@@ -17423,10 +18799,13 @@
         <v>136</v>
       </c>
       <c r="S261" t="s">
+        <v>375</v>
+      </c>
+      <c r="T261" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" spans="1:20">
       <c r="A262" s="2">
         <f t="shared" si="23"/>
         <v>261</v>
@@ -17485,10 +18864,13 @@
         <v>137</v>
       </c>
       <c r="S262" t="s">
+        <v>376</v>
+      </c>
+      <c r="T262" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" spans="1:20">
       <c r="A263" s="2">
         <f t="shared" si="23"/>
         <v>262</v>
@@ -17547,10 +18929,13 @@
         <v>138</v>
       </c>
       <c r="S263" t="s">
+        <v>376</v>
+      </c>
+      <c r="T263" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" spans="1:20">
       <c r="A264" s="2">
         <f t="shared" si="23"/>
         <v>263</v>
@@ -17609,10 +18994,13 @@
         <v>139</v>
       </c>
       <c r="S264" t="s">
+        <v>376</v>
+      </c>
+      <c r="T264" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:20">
       <c r="A265" s="2">
         <f t="shared" si="23"/>
         <v>264</v>
@@ -17671,10 +19059,13 @@
         <v>140</v>
       </c>
       <c r="S265" t="s">
+        <v>377</v>
+      </c>
+      <c r="T265" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" spans="1:20">
       <c r="A266" s="2">
         <f t="shared" si="23"/>
         <v>265</v>
@@ -17733,10 +19124,13 @@
         <v>141</v>
       </c>
       <c r="S266" t="s">
+        <v>377</v>
+      </c>
+      <c r="T266" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" spans="1:20">
       <c r="A267" s="2">
         <f t="shared" si="23"/>
         <v>266</v>
@@ -17795,10 +19189,13 @@
         <v>142</v>
       </c>
       <c r="S267" t="s">
+        <v>378</v>
+      </c>
+      <c r="T267" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" spans="1:20">
       <c r="A268" s="2">
         <f t="shared" si="23"/>
         <v>267</v>
@@ -17857,10 +19254,13 @@
         <v>143</v>
       </c>
       <c r="S268" t="s">
+        <v>378</v>
+      </c>
+      <c r="T268" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" spans="1:20">
       <c r="A269" s="2">
         <f t="shared" si="23"/>
         <v>268</v>
@@ -17919,10 +19319,13 @@
         <v>144</v>
       </c>
       <c r="S269" t="s">
+        <v>378</v>
+      </c>
+      <c r="T269" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" spans="1:20">
       <c r="A270" s="2">
         <f t="shared" si="23"/>
         <v>269</v>
@@ -17981,10 +19384,13 @@
         <v>146</v>
       </c>
       <c r="S270" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19">
+        <v>379</v>
+      </c>
+      <c r="T270" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20">
       <c r="A271" s="2">
         <f t="shared" si="23"/>
         <v>270</v>
@@ -18043,10 +19449,13 @@
         <v>147</v>
       </c>
       <c r="S271" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19">
+        <v>380</v>
+      </c>
+      <c r="T271" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" s="2">
         <f t="shared" si="23"/>
         <v>271</v>
@@ -18105,10 +19514,13 @@
         <v>148</v>
       </c>
       <c r="S272" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19">
+        <v>381</v>
+      </c>
+      <c r="T272" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" s="2">
         <f t="shared" si="23"/>
         <v>272</v>
@@ -18167,10 +19579,13 @@
         <v>149</v>
       </c>
       <c r="S273" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19">
+        <v>382</v>
+      </c>
+      <c r="T273" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" s="2">
         <f t="shared" si="23"/>
         <v>273</v>
@@ -18229,10 +19644,13 @@
         <v>150</v>
       </c>
       <c r="S274" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19">
+        <v>383</v>
+      </c>
+      <c r="T274" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" s="2">
         <f t="shared" si="23"/>
         <v>274</v>
@@ -18291,10 +19709,13 @@
         <v>151</v>
       </c>
       <c r="S275" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="276" spans="1:19">
+        <v>384</v>
+      </c>
+      <c r="T275" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" s="2">
         <f t="shared" si="23"/>
         <v>275</v>
@@ -18353,10 +19774,13 @@
         <v>152</v>
       </c>
       <c r="S276" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19">
+        <v>385</v>
+      </c>
+      <c r="T276" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" s="2">
         <f t="shared" si="23"/>
         <v>276</v>
@@ -18415,10 +19839,13 @@
         <v>153</v>
       </c>
       <c r="S277" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19">
+        <v>386</v>
+      </c>
+      <c r="T277" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" s="2">
         <f t="shared" si="23"/>
         <v>277</v>
@@ -18477,10 +19904,13 @@
         <v>154</v>
       </c>
       <c r="S278" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19">
+        <v>387</v>
+      </c>
+      <c r="T278" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" s="2">
         <f t="shared" si="23"/>
         <v>278</v>
@@ -18539,10 +19969,13 @@
         <v>155</v>
       </c>
       <c r="S279" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19">
+        <v>388</v>
+      </c>
+      <c r="T279" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" s="2">
         <f t="shared" si="23"/>
         <v>279</v>
@@ -18601,10 +20034,13 @@
         <v>156</v>
       </c>
       <c r="S280" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19">
+        <v>389</v>
+      </c>
+      <c r="T280" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" s="2">
         <f t="shared" si="23"/>
         <v>280</v>
@@ -18663,10 +20099,13 @@
         <v>157</v>
       </c>
       <c r="S281" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19">
+        <v>390</v>
+      </c>
+      <c r="T281" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" s="2">
         <f t="shared" si="23"/>
         <v>281</v>
@@ -18725,10 +20164,13 @@
         <v>158</v>
       </c>
       <c r="S282" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19">
+        <v>391</v>
+      </c>
+      <c r="T282" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" s="2">
         <f t="shared" si="23"/>
         <v>282</v>
@@ -18787,10 +20229,13 @@
         <v>159</v>
       </c>
       <c r="S283" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19">
+        <v>392</v>
+      </c>
+      <c r="T283" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" s="2">
         <f t="shared" si="23"/>
         <v>283</v>
@@ -18849,10 +20294,13 @@
         <v>160</v>
       </c>
       <c r="S284" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19">
+        <v>393</v>
+      </c>
+      <c r="T284" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" s="2">
         <f t="shared" si="23"/>
         <v>284</v>
@@ -18911,10 +20359,13 @@
         <v>162</v>
       </c>
       <c r="S285" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19">
+        <v>394</v>
+      </c>
+      <c r="T285" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" s="2">
         <f t="shared" si="23"/>
         <v>285</v>
@@ -18973,10 +20424,13 @@
         <v>163</v>
       </c>
       <c r="S286" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19">
+        <v>395</v>
+      </c>
+      <c r="T286" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" s="2">
         <f t="shared" si="23"/>
         <v>286</v>
@@ -19035,10 +20489,13 @@
         <v>164</v>
       </c>
       <c r="S287" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19">
+        <v>396</v>
+      </c>
+      <c r="T287" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" s="2">
         <f t="shared" si="23"/>
         <v>287</v>
@@ -19097,10 +20554,13 @@
         <v>165</v>
       </c>
       <c r="S288" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19">
+        <v>397</v>
+      </c>
+      <c r="T288" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
       <c r="A289" s="2">
         <f t="shared" si="23"/>
         <v>288</v>
@@ -19159,10 +20619,13 @@
         <v>166</v>
       </c>
       <c r="S289" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19">
+        <v>398</v>
+      </c>
+      <c r="T289" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
       <c r="A290" s="2">
         <f t="shared" si="23"/>
         <v>289</v>
@@ -19223,8 +20686,11 @@
       <c r="S290" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="291" spans="1:19">
+      <c r="T290" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
       <c r="A291" s="2">
         <f t="shared" si="23"/>
         <v>290</v>
@@ -19285,8 +20751,11 @@
       <c r="S291" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="292" spans="1:19">
+      <c r="T291" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
       <c r="A292" s="2">
         <f t="shared" si="23"/>
         <v>291</v>
@@ -19347,8 +20816,11 @@
       <c r="S292" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="293" spans="1:19">
+      <c r="T292" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
       <c r="A293" s="2">
         <f t="shared" si="23"/>
         <v>292</v>
@@ -19409,8 +20881,11 @@
       <c r="S293" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="294" spans="1:19">
+      <c r="T293" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
       <c r="A294" s="2">
         <f t="shared" si="23"/>
         <v>293</v>
@@ -19471,8 +20946,11 @@
       <c r="S294" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="295" spans="1:19">
+      <c r="T294" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
       <c r="A295" s="2">
         <f t="shared" si="23"/>
         <v>294</v>
@@ -19531,10 +21009,13 @@
         <v>174</v>
       </c>
       <c r="S295" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19">
+        <v>399</v>
+      </c>
+      <c r="T295" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
       <c r="A296" s="2">
         <f t="shared" si="23"/>
         <v>295</v>
@@ -19593,10 +21074,13 @@
         <v>175</v>
       </c>
       <c r="S296" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="297" spans="1:19">
+        <v>399</v>
+      </c>
+      <c r="T296" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20">
       <c r="A297" s="2">
         <f t="shared" si="23"/>
         <v>296</v>
@@ -19655,10 +21139,13 @@
         <v>176</v>
       </c>
       <c r="S297" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="298" spans="1:19">
+        <v>400</v>
+      </c>
+      <c r="T297" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20">
       <c r="A298" s="2">
         <f t="shared" si="23"/>
         <v>297</v>
@@ -19717,10 +21204,13 @@
         <v>177</v>
       </c>
       <c r="S298" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="299" spans="1:19">
+        <v>400</v>
+      </c>
+      <c r="T298" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
       <c r="A299" s="2">
         <f t="shared" si="23"/>
         <v>298</v>
@@ -19779,10 +21269,13 @@
         <v>179</v>
       </c>
       <c r="S299" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19">
+        <v>401</v>
+      </c>
+      <c r="T299" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20">
       <c r="A300" s="2">
         <f t="shared" si="23"/>
         <v>299</v>
@@ -19841,10 +21334,13 @@
         <v>180</v>
       </c>
       <c r="S300" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="301" spans="1:19">
+        <v>402</v>
+      </c>
+      <c r="T300" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
       <c r="A301" s="2">
         <f t="shared" si="23"/>
         <v>300</v>
@@ -19903,10 +21399,13 @@
         <v>182</v>
       </c>
       <c r="S301" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19">
+        <v>403</v>
+      </c>
+      <c r="T301" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
       <c r="A302" s="2">
         <f t="shared" si="23"/>
         <v>301</v>
@@ -19965,10 +21464,13 @@
         <v>183</v>
       </c>
       <c r="S302" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19">
+        <v>404</v>
+      </c>
+      <c r="T302" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20">
       <c r="A303" s="2">
         <f t="shared" si="23"/>
         <v>302</v>
@@ -20027,10 +21529,13 @@
         <v>184</v>
       </c>
       <c r="S303" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19">
+        <v>405</v>
+      </c>
+      <c r="T303" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20">
       <c r="A304" s="2">
         <f t="shared" si="23"/>
         <v>303</v>
@@ -20066,14 +21571,14 @@
         <v>144</v>
       </c>
       <c r="L304">
-        <f t="shared" ref="L304:L318" si="24">360/K304</f>
+        <f t="shared" ref="L304:L320" si="24">360/K304</f>
         <v>2.5</v>
       </c>
       <c r="M304">
         <v>90</v>
       </c>
       <c r="N304">
-        <f t="shared" ref="N304:N318" si="25">180/M304</f>
+        <f t="shared" ref="N304:N320" si="25">180/M304</f>
         <v>2</v>
       </c>
       <c r="O304" t="s">
@@ -20089,10 +21594,13 @@
         <v>185</v>
       </c>
       <c r="S304" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19">
+        <v>406</v>
+      </c>
+      <c r="T304" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20">
       <c r="A305" s="2">
         <f t="shared" si="23"/>
         <v>304</v>
@@ -20151,10 +21659,13 @@
         <v>186</v>
       </c>
       <c r="S305" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19">
+        <v>407</v>
+      </c>
+      <c r="T305" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20">
       <c r="A306" s="2">
         <f t="shared" si="23"/>
         <v>305</v>
@@ -20213,10 +21724,13 @@
         <v>187</v>
       </c>
       <c r="S306" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19">
+        <v>408</v>
+      </c>
+      <c r="T306" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20">
       <c r="A307" s="2">
         <f t="shared" si="23"/>
         <v>306</v>
@@ -20275,10 +21789,13 @@
         <v>188</v>
       </c>
       <c r="S307" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19">
+        <v>409</v>
+      </c>
+      <c r="T307" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20">
       <c r="A308" s="2">
         <f t="shared" si="23"/>
         <v>307</v>
@@ -20337,10 +21854,13 @@
         <v>189</v>
       </c>
       <c r="S308" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="309" spans="1:19">
+        <v>410</v>
+      </c>
+      <c r="T308" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20">
       <c r="A309" s="2">
         <f t="shared" si="23"/>
         <v>308</v>
@@ -20399,10 +21919,13 @@
         <v>190</v>
       </c>
       <c r="S309" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="310" spans="1:19">
+        <v>411</v>
+      </c>
+      <c r="T309" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20">
       <c r="A310" s="2">
         <f t="shared" si="23"/>
         <v>309</v>
@@ -20461,10 +21984,13 @@
         <v>192</v>
       </c>
       <c r="S310" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="311" spans="1:19">
+        <v>412</v>
+      </c>
+      <c r="T310" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20">
       <c r="A311" s="2">
         <f t="shared" si="23"/>
         <v>310</v>
@@ -20523,10 +22049,13 @@
         <v>193</v>
       </c>
       <c r="S311" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="312" spans="1:19">
+        <v>413</v>
+      </c>
+      <c r="T311" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20">
       <c r="A312" s="2">
         <f t="shared" si="23"/>
         <v>311</v>
@@ -20585,10 +22114,13 @@
         <v>194</v>
       </c>
       <c r="S312" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="313" spans="1:19">
+        <v>414</v>
+      </c>
+      <c r="T312" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20">
       <c r="A313" s="2">
         <f t="shared" si="23"/>
         <v>312</v>
@@ -20647,10 +22179,13 @@
         <v>195</v>
       </c>
       <c r="S313" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="314" spans="1:19">
+        <v>415</v>
+      </c>
+      <c r="T313" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20">
       <c r="A314" s="2">
         <f t="shared" si="23"/>
         <v>313</v>
@@ -20709,10 +22244,13 @@
         <v>196</v>
       </c>
       <c r="S314" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="315" spans="1:19">
+        <v>416</v>
+      </c>
+      <c r="T314" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20">
       <c r="A315" s="2">
         <f t="shared" si="23"/>
         <v>314</v>
@@ -20771,10 +22309,13 @@
         <v>197</v>
       </c>
       <c r="S315" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="316" spans="1:19">
+        <v>417</v>
+      </c>
+      <c r="T315" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20">
       <c r="A316" s="2">
         <f t="shared" si="23"/>
         <v>315</v>
@@ -20833,10 +22374,13 @@
         <v>198</v>
       </c>
       <c r="S316" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="317" spans="1:19">
+        <v>418</v>
+      </c>
+      <c r="T316" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20">
       <c r="A317" s="2">
         <f t="shared" si="23"/>
         <v>316</v>
@@ -20895,10 +22439,13 @@
         <v>199</v>
       </c>
       <c r="S317" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="318" spans="1:19">
+        <v>419</v>
+      </c>
+      <c r="T317" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20">
       <c r="A318" s="2">
         <f t="shared" si="23"/>
         <v>317</v>
@@ -20957,6 +22504,649 @@
         <v>200</v>
       </c>
       <c r="S318" t="s">
+        <v>420</v>
+      </c>
+      <c r="T318" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
+        <v>238</v>
+      </c>
+      <c r="D319" t="s">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <v>1950</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>2005</v>
+      </c>
+      <c r="I319">
+        <v>12</v>
+      </c>
+      <c r="J319">
+        <v>31</v>
+      </c>
+      <c r="K319">
+        <v>128</v>
+      </c>
+      <c r="L319">
+        <f t="shared" si="24"/>
+        <v>2.8125</v>
+      </c>
+      <c r="M319">
+        <v>44</v>
+      </c>
+      <c r="N319">
+        <f t="shared" si="25"/>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="O319" t="s">
+        <v>13</v>
+      </c>
+      <c r="P319" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>19</v>
+      </c>
+      <c r="R319" t="s">
+        <v>239</v>
+      </c>
+      <c r="S319" t="s">
+        <v>241</v>
+      </c>
+      <c r="T319" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
+        <v>242</v>
+      </c>
+      <c r="D320" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>1950</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>1974</v>
+      </c>
+      <c r="I320">
+        <v>12</v>
+      </c>
+      <c r="J320">
+        <v>31</v>
+      </c>
+      <c r="K320">
+        <v>192</v>
+      </c>
+      <c r="L320">
+        <f t="shared" si="24"/>
+        <v>1.875</v>
+      </c>
+      <c r="M320">
+        <v>145</v>
+      </c>
+      <c r="N320">
+        <f t="shared" si="25"/>
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="O320" t="s">
+        <v>41</v>
+      </c>
+      <c r="P320" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>19</v>
+      </c>
+      <c r="R320" t="s">
+        <v>244</v>
+      </c>
+      <c r="S320" t="s">
+        <v>243</v>
+      </c>
+      <c r="T320" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>242</v>
+      </c>
+      <c r="D321" t="s">
+        <v>3</v>
+      </c>
+      <c r="E321">
+        <v>1975</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>1999</v>
+      </c>
+      <c r="I321">
+        <v>12</v>
+      </c>
+      <c r="J321">
+        <v>31</v>
+      </c>
+      <c r="K321">
+        <v>192</v>
+      </c>
+      <c r="L321">
+        <f t="shared" ref="L321:L324" si="26">360/K321</f>
+        <v>1.875</v>
+      </c>
+      <c r="M321">
+        <v>145</v>
+      </c>
+      <c r="N321">
+        <f t="shared" ref="N321:N324" si="27">180/M321</f>
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="O321" t="s">
+        <v>41</v>
+      </c>
+      <c r="P321" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>19</v>
+      </c>
+      <c r="R321" t="s">
+        <v>245</v>
+      </c>
+      <c r="S321" t="s">
+        <v>243</v>
+      </c>
+      <c r="T321" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
+        <v>242</v>
+      </c>
+      <c r="D322" t="s">
+        <v>3</v>
+      </c>
+      <c r="E322">
+        <v>2000</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>2005</v>
+      </c>
+      <c r="I322">
+        <v>12</v>
+      </c>
+      <c r="J322">
+        <v>31</v>
+      </c>
+      <c r="K322">
+        <v>192</v>
+      </c>
+      <c r="L322">
+        <f t="shared" si="26"/>
+        <v>1.875</v>
+      </c>
+      <c r="M322">
+        <v>145</v>
+      </c>
+      <c r="N322">
+        <f t="shared" si="27"/>
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="O322" t="s">
+        <v>41</v>
+      </c>
+      <c r="P322" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>19</v>
+      </c>
+      <c r="R322" t="s">
+        <v>246</v>
+      </c>
+      <c r="S322" t="s">
+        <v>243</v>
+      </c>
+      <c r="T322" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="2">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
+        <v>247</v>
+      </c>
+      <c r="D323" t="s">
+        <v>3</v>
+      </c>
+      <c r="E323">
+        <v>1850</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>2005</v>
+      </c>
+      <c r="I323">
+        <v>12</v>
+      </c>
+      <c r="J323">
+        <v>31</v>
+      </c>
+      <c r="K323">
+        <v>96</v>
+      </c>
+      <c r="L323">
+        <f t="shared" si="26"/>
+        <v>3.75</v>
+      </c>
+      <c r="M323">
+        <v>96</v>
+      </c>
+      <c r="N323">
+        <f t="shared" si="27"/>
+        <v>1.875</v>
+      </c>
+      <c r="O323" t="s">
+        <v>13</v>
+      </c>
+      <c r="P323" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>19</v>
+      </c>
+      <c r="R323" t="s">
+        <v>248</v>
+      </c>
+      <c r="S323" t="s">
+        <v>249</v>
+      </c>
+      <c r="T323" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>145</v>
+      </c>
+      <c r="D324" t="s">
+        <v>3</v>
+      </c>
+      <c r="E324">
+        <v>1960</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>1969</v>
+      </c>
+      <c r="I324">
+        <v>12</v>
+      </c>
+      <c r="J324">
+        <v>31</v>
+      </c>
+      <c r="K324">
+        <v>192</v>
+      </c>
+      <c r="L324">
+        <f t="shared" si="26"/>
+        <v>1.875</v>
+      </c>
+      <c r="M324">
+        <v>96</v>
+      </c>
+      <c r="N324">
+        <f t="shared" si="27"/>
+        <v>1.875</v>
+      </c>
+      <c r="O324" t="s">
+        <v>41</v>
+      </c>
+      <c r="P324" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>19</v>
+      </c>
+      <c r="R324" t="s">
+        <v>250</v>
+      </c>
+      <c r="S324" t="s">
+        <v>255</v>
+      </c>
+      <c r="T324" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
+        <v>145</v>
+      </c>
+      <c r="D325" t="s">
+        <v>3</v>
+      </c>
+      <c r="E325">
+        <v>1970</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>1979</v>
+      </c>
+      <c r="I325">
+        <v>12</v>
+      </c>
+      <c r="J325">
+        <v>31</v>
+      </c>
+      <c r="K325">
+        <v>192</v>
+      </c>
+      <c r="L325">
+        <f t="shared" ref="L325:L328" si="28">360/K325</f>
+        <v>1.875</v>
+      </c>
+      <c r="M325">
+        <v>96</v>
+      </c>
+      <c r="N325">
+        <f t="shared" ref="N325:N328" si="29">180/M325</f>
+        <v>1.875</v>
+      </c>
+      <c r="O325" t="s">
+        <v>41</v>
+      </c>
+      <c r="P325" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>19</v>
+      </c>
+      <c r="R325" t="s">
+        <v>254</v>
+      </c>
+      <c r="S325" t="s">
+        <v>256</v>
+      </c>
+      <c r="T325" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" t="s">
+        <v>145</v>
+      </c>
+      <c r="D326" t="s">
+        <v>3</v>
+      </c>
+      <c r="E326">
+        <v>1980</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>1989</v>
+      </c>
+      <c r="I326">
+        <v>12</v>
+      </c>
+      <c r="J326">
+        <v>31</v>
+      </c>
+      <c r="K326">
+        <v>192</v>
+      </c>
+      <c r="L326">
+        <f t="shared" si="28"/>
+        <v>1.875</v>
+      </c>
+      <c r="M326">
+        <v>96</v>
+      </c>
+      <c r="N326">
+        <f t="shared" si="29"/>
+        <v>1.875</v>
+      </c>
+      <c r="O326" t="s">
+        <v>41</v>
+      </c>
+      <c r="P326" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>19</v>
+      </c>
+      <c r="R326" t="s">
+        <v>253</v>
+      </c>
+      <c r="S326" t="s">
+        <v>257</v>
+      </c>
+      <c r="T326" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>145</v>
+      </c>
+      <c r="D327" t="s">
+        <v>3</v>
+      </c>
+      <c r="E327">
+        <v>1990</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>1999</v>
+      </c>
+      <c r="I327">
+        <v>12</v>
+      </c>
+      <c r="J327">
+        <v>31</v>
+      </c>
+      <c r="K327">
+        <v>192</v>
+      </c>
+      <c r="L327">
+        <f t="shared" si="28"/>
+        <v>1.875</v>
+      </c>
+      <c r="M327">
+        <v>96</v>
+      </c>
+      <c r="N327">
+        <f t="shared" si="29"/>
+        <v>1.875</v>
+      </c>
+      <c r="O327" t="s">
+        <v>41</v>
+      </c>
+      <c r="P327" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>19</v>
+      </c>
+      <c r="R327" t="s">
+        <v>252</v>
+      </c>
+      <c r="S327" t="s">
+        <v>258</v>
+      </c>
+      <c r="T327" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>145</v>
+      </c>
+      <c r="D328" t="s">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <v>2000</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>2005</v>
+      </c>
+      <c r="I328">
+        <v>12</v>
+      </c>
+      <c r="J328">
+        <v>31</v>
+      </c>
+      <c r="K328">
+        <v>192</v>
+      </c>
+      <c r="L328">
+        <f t="shared" si="28"/>
+        <v>1.875</v>
+      </c>
+      <c r="M328">
+        <v>96</v>
+      </c>
+      <c r="N328">
+        <f t="shared" si="29"/>
+        <v>1.875</v>
+      </c>
+      <c r="O328" t="s">
+        <v>41</v>
+      </c>
+      <c r="P328" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>19</v>
+      </c>
+      <c r="R328" t="s">
+        <v>251</v>
+      </c>
+      <c r="S328" t="s">
+        <v>259</v>
+      </c>
+      <c r="T328" t="s">
         <v>201</v>
       </c>
     </row>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="422">
   <si>
     <t>GCM</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>rsds_day_GFDL-ESM2M_historical_r1i1p1_19960101-20001231.nc</t>
+  </si>
+  <si>
+    <t>mpi_m_mpi_esm_mr</t>
   </si>
 </sst>
 </file>
@@ -1631,9 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C324" sqref="C324:C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6656,7 +6659,7 @@
         <v>%var%_day_MIROC4h_historical_r1i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S77" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E77,"_",F77,"0101-",F77,"1231.nc")</f>
+        <f t="shared" ref="S77:S122" si="6">CONCATENATE("rsds_day_MIROC4h_historical_",E77,"_",F77,"0101-",F77,"1231.nc")</f>
         <v>rsds_day_MIROC4h_historical_1960_10101-11231.nc</v>
       </c>
       <c r="T77" t="s">
@@ -6699,14 +6702,14 @@
         <v>640</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L141" si="6">360/K78</f>
+        <f t="shared" ref="L78:L141" si="7">360/K78</f>
         <v>0.5625</v>
       </c>
       <c r="M78">
         <v>320</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N78:N141" si="7">180/M78</f>
+        <f t="shared" ref="N78:N141" si="8">180/M78</f>
         <v>0.5625</v>
       </c>
       <c r="O78" t="s">
@@ -6719,11 +6722,11 @@
         <v>19</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" ref="R78:S141" si="8">CONCATENATE("%var%_day_MIROC4h_historical_",D78,"_",E78,"0101-",E78,"1231.nc")</f>
+        <f t="shared" ref="R78:R141" si="9">CONCATENATE("%var%_day_MIROC4h_historical_",D78,"_",E78,"0101-",E78,"1231.nc")</f>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S78" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E78,"_",F78,"0101-",F78,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1961_10101-11231.nc</v>
       </c>
       <c r="T78" t="s">
@@ -6766,14 +6769,14 @@
         <v>640</v>
       </c>
       <c r="L79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M79">
         <v>320</v>
       </c>
       <c r="N79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O79" t="s">
@@ -6786,11 +6789,11 @@
         <v>19</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S79" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E79,"_",F79,"0101-",F79,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1962_10101-11231.nc</v>
       </c>
       <c r="T79" t="s">
@@ -6833,14 +6836,14 @@
         <v>640</v>
       </c>
       <c r="L80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M80">
         <v>320</v>
       </c>
       <c r="N80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O80" t="s">
@@ -6853,11 +6856,11 @@
         <v>19</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S80" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E80,"_",F80,"0101-",F80,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1963_10101-11231.nc</v>
       </c>
       <c r="T80" t="s">
@@ -6900,14 +6903,14 @@
         <v>640</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M81">
         <v>320</v>
       </c>
       <c r="N81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O81" t="s">
@@ -6920,11 +6923,11 @@
         <v>19</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S81" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E81,"_",F81,"0101-",F81,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1964_10101-11231.nc</v>
       </c>
       <c r="T81" t="s">
@@ -6967,14 +6970,14 @@
         <v>640</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M82">
         <v>320</v>
       </c>
       <c r="N82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O82" t="s">
@@ -6987,11 +6990,11 @@
         <v>19</v>
       </c>
       <c r="R82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S82" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E82,"_",F82,"0101-",F82,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1965_10101-11231.nc</v>
       </c>
       <c r="T82" t="s">
@@ -7034,14 +7037,14 @@
         <v>640</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M83">
         <v>320</v>
       </c>
       <c r="N83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O83" t="s">
@@ -7054,11 +7057,11 @@
         <v>19</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S83" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E83,"_",F83,"0101-",F83,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1966_10101-11231.nc</v>
       </c>
       <c r="T83" t="s">
@@ -7101,14 +7104,14 @@
         <v>640</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M84">
         <v>320</v>
       </c>
       <c r="N84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O84" t="s">
@@ -7121,11 +7124,11 @@
         <v>19</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S84" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E84,"_",F84,"0101-",F84,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1967_10101-11231.nc</v>
       </c>
       <c r="T84" t="s">
@@ -7168,14 +7171,14 @@
         <v>640</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M85">
         <v>320</v>
       </c>
       <c r="N85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O85" t="s">
@@ -7188,11 +7191,11 @@
         <v>19</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S85" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E85,"_",F85,"0101-",F85,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1968_10101-11231.nc</v>
       </c>
       <c r="T85" t="s">
@@ -7235,14 +7238,14 @@
         <v>640</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M86">
         <v>320</v>
       </c>
       <c r="N86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O86" t="s">
@@ -7255,11 +7258,11 @@
         <v>19</v>
       </c>
       <c r="R86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S86" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E86,"_",F86,"0101-",F86,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1969_10101-11231.nc</v>
       </c>
       <c r="T86" t="s">
@@ -7302,14 +7305,14 @@
         <v>640</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M87">
         <v>320</v>
       </c>
       <c r="N87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O87" t="s">
@@ -7322,11 +7325,11 @@
         <v>19</v>
       </c>
       <c r="R87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S87" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E87,"_",F87,"0101-",F87,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1970_10101-11231.nc</v>
       </c>
       <c r="T87" t="s">
@@ -7369,14 +7372,14 @@
         <v>640</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M88">
         <v>320</v>
       </c>
       <c r="N88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O88" t="s">
@@ -7389,11 +7392,11 @@
         <v>19</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S88" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E88,"_",F88,"0101-",F88,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1971_10101-11231.nc</v>
       </c>
       <c r="T88" t="s">
@@ -7436,14 +7439,14 @@
         <v>640</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M89">
         <v>320</v>
       </c>
       <c r="N89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O89" t="s">
@@ -7456,11 +7459,11 @@
         <v>19</v>
       </c>
       <c r="R89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S89" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E89,"_",F89,"0101-",F89,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1972_10101-11231.nc</v>
       </c>
       <c r="T89" t="s">
@@ -7503,14 +7506,14 @@
         <v>640</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M90">
         <v>320</v>
       </c>
       <c r="N90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O90" t="s">
@@ -7523,11 +7526,11 @@
         <v>19</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S90" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E90,"_",F90,"0101-",F90,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1973_10101-11231.nc</v>
       </c>
       <c r="T90" t="s">
@@ -7570,14 +7573,14 @@
         <v>640</v>
       </c>
       <c r="L91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M91">
         <v>320</v>
       </c>
       <c r="N91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O91" t="s">
@@ -7590,11 +7593,11 @@
         <v>19</v>
       </c>
       <c r="R91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S91" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E91,"_",F91,"0101-",F91,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1974_10101-11231.nc</v>
       </c>
       <c r="T91" t="s">
@@ -7637,14 +7640,14 @@
         <v>640</v>
       </c>
       <c r="L92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M92">
         <v>320</v>
       </c>
       <c r="N92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O92" t="s">
@@ -7657,11 +7660,11 @@
         <v>19</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S92" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E92,"_",F92,"0101-",F92,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1975_10101-11231.nc</v>
       </c>
       <c r="T92" t="s">
@@ -7704,14 +7707,14 @@
         <v>640</v>
       </c>
       <c r="L93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M93">
         <v>320</v>
       </c>
       <c r="N93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O93" t="s">
@@ -7724,11 +7727,11 @@
         <v>19</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S93" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E93,"_",F93,"0101-",F93,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1976_10101-11231.nc</v>
       </c>
       <c r="T93" t="s">
@@ -7771,14 +7774,14 @@
         <v>640</v>
       </c>
       <c r="L94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M94">
         <v>320</v>
       </c>
       <c r="N94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O94" t="s">
@@ -7791,11 +7794,11 @@
         <v>19</v>
       </c>
       <c r="R94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S94" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E94,"_",F94,"0101-",F94,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1977_10101-11231.nc</v>
       </c>
       <c r="T94" t="s">
@@ -7838,14 +7841,14 @@
         <v>640</v>
       </c>
       <c r="L95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M95">
         <v>320</v>
       </c>
       <c r="N95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O95" t="s">
@@ -7858,11 +7861,11 @@
         <v>19</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S95" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E95,"_",F95,"0101-",F95,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1978_10101-11231.nc</v>
       </c>
       <c r="T95" t="s">
@@ -7905,14 +7908,14 @@
         <v>640</v>
       </c>
       <c r="L96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M96">
         <v>320</v>
       </c>
       <c r="N96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O96" t="s">
@@ -7925,11 +7928,11 @@
         <v>19</v>
       </c>
       <c r="R96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S96" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E96,"_",F96,"0101-",F96,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1979_10101-11231.nc</v>
       </c>
       <c r="T96" t="s">
@@ -7972,14 +7975,14 @@
         <v>640</v>
       </c>
       <c r="L97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M97">
         <v>320</v>
       </c>
       <c r="N97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O97" t="s">
@@ -7992,11 +7995,11 @@
         <v>19</v>
       </c>
       <c r="R97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S97" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E97,"_",F97,"0101-",F97,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1980_10101-11231.nc</v>
       </c>
       <c r="T97" t="s">
@@ -8039,14 +8042,14 @@
         <v>640</v>
       </c>
       <c r="L98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M98">
         <v>320</v>
       </c>
       <c r="N98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O98" t="s">
@@ -8059,11 +8062,11 @@
         <v>19</v>
       </c>
       <c r="R98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S98" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E98,"_",F98,"0101-",F98,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1981_10101-11231.nc</v>
       </c>
       <c r="T98" t="s">
@@ -8106,14 +8109,14 @@
         <v>640</v>
       </c>
       <c r="L99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M99">
         <v>320</v>
       </c>
       <c r="N99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O99" t="s">
@@ -8126,11 +8129,11 @@
         <v>19</v>
       </c>
       <c r="R99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S99" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E99,"_",F99,"0101-",F99,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1982_10101-11231.nc</v>
       </c>
       <c r="T99" t="s">
@@ -8173,14 +8176,14 @@
         <v>640</v>
       </c>
       <c r="L100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M100">
         <v>320</v>
       </c>
       <c r="N100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O100" t="s">
@@ -8193,11 +8196,11 @@
         <v>19</v>
       </c>
       <c r="R100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S100" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E100,"_",F100,"0101-",F100,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1983_10101-11231.nc</v>
       </c>
       <c r="T100" t="s">
@@ -8240,14 +8243,14 @@
         <v>640</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M101">
         <v>320</v>
       </c>
       <c r="N101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O101" t="s">
@@ -8260,11 +8263,11 @@
         <v>19</v>
       </c>
       <c r="R101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S101" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E101,"_",F101,"0101-",F101,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1984_10101-11231.nc</v>
       </c>
       <c r="T101" t="s">
@@ -8307,14 +8310,14 @@
         <v>640</v>
       </c>
       <c r="L102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M102">
         <v>320</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O102" t="s">
@@ -8327,11 +8330,11 @@
         <v>19</v>
       </c>
       <c r="R102" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S102" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E102,"_",F102,"0101-",F102,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1985_10101-11231.nc</v>
       </c>
       <c r="T102" t="s">
@@ -8374,14 +8377,14 @@
         <v>640</v>
       </c>
       <c r="L103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M103">
         <v>320</v>
       </c>
       <c r="N103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O103" t="s">
@@ -8394,11 +8397,11 @@
         <v>19</v>
       </c>
       <c r="R103" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S103" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E103,"_",F103,"0101-",F103,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1986_10101-11231.nc</v>
       </c>
       <c r="T103" t="s">
@@ -8441,14 +8444,14 @@
         <v>640</v>
       </c>
       <c r="L104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M104">
         <v>320</v>
       </c>
       <c r="N104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O104" t="s">
@@ -8461,11 +8464,11 @@
         <v>19</v>
       </c>
       <c r="R104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S104" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E104,"_",F104,"0101-",F104,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1987_10101-11231.nc</v>
       </c>
       <c r="T104" t="s">
@@ -8508,14 +8511,14 @@
         <v>640</v>
       </c>
       <c r="L105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M105">
         <v>320</v>
       </c>
       <c r="N105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O105" t="s">
@@ -8528,11 +8531,11 @@
         <v>19</v>
       </c>
       <c r="R105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S105" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E105,"_",F105,"0101-",F105,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1988_10101-11231.nc</v>
       </c>
       <c r="T105" t="s">
@@ -8575,14 +8578,14 @@
         <v>640</v>
       </c>
       <c r="L106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M106">
         <v>320</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O106" t="s">
@@ -8595,11 +8598,11 @@
         <v>19</v>
       </c>
       <c r="R106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S106" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E106,"_",F106,"0101-",F106,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1989_10101-11231.nc</v>
       </c>
       <c r="T106" t="s">
@@ -8642,14 +8645,14 @@
         <v>640</v>
       </c>
       <c r="L107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M107">
         <v>320</v>
       </c>
       <c r="N107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O107" t="s">
@@ -8662,11 +8665,11 @@
         <v>19</v>
       </c>
       <c r="R107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S107" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E107,"_",F107,"0101-",F107,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1990_10101-11231.nc</v>
       </c>
       <c r="T107" t="s">
@@ -8709,14 +8712,14 @@
         <v>640</v>
       </c>
       <c r="L108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M108">
         <v>320</v>
       </c>
       <c r="N108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O108" t="s">
@@ -8729,11 +8732,11 @@
         <v>19</v>
       </c>
       <c r="R108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S108" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E108,"_",F108,"0101-",F108,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1991_10101-11231.nc</v>
       </c>
       <c r="T108" t="s">
@@ -8776,14 +8779,14 @@
         <v>640</v>
       </c>
       <c r="L109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M109">
         <v>320</v>
       </c>
       <c r="N109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O109" t="s">
@@ -8796,11 +8799,11 @@
         <v>19</v>
       </c>
       <c r="R109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S109" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E109,"_",F109,"0101-",F109,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1992_10101-11231.nc</v>
       </c>
       <c r="T109" t="s">
@@ -8843,14 +8846,14 @@
         <v>640</v>
       </c>
       <c r="L110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M110">
         <v>320</v>
       </c>
       <c r="N110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O110" t="s">
@@ -8863,11 +8866,11 @@
         <v>19</v>
       </c>
       <c r="R110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S110" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E110,"_",F110,"0101-",F110,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1993_10101-11231.nc</v>
       </c>
       <c r="T110" t="s">
@@ -8910,14 +8913,14 @@
         <v>640</v>
       </c>
       <c r="L111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M111">
         <v>320</v>
       </c>
       <c r="N111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O111" t="s">
@@ -8930,11 +8933,11 @@
         <v>19</v>
       </c>
       <c r="R111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S111" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E111,"_",F111,"0101-",F111,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1994_10101-11231.nc</v>
       </c>
       <c r="T111" t="s">
@@ -8977,14 +8980,14 @@
         <v>640</v>
       </c>
       <c r="L112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M112">
         <v>320</v>
       </c>
       <c r="N112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O112" t="s">
@@ -8997,11 +9000,11 @@
         <v>19</v>
       </c>
       <c r="R112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S112" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E112,"_",F112,"0101-",F112,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1995_10101-11231.nc</v>
       </c>
       <c r="T112" t="s">
@@ -9044,14 +9047,14 @@
         <v>640</v>
       </c>
       <c r="L113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M113">
         <v>320</v>
       </c>
       <c r="N113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O113" t="s">
@@ -9064,11 +9067,11 @@
         <v>19</v>
       </c>
       <c r="R113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S113" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E113,"_",F113,"0101-",F113,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1996_10101-11231.nc</v>
       </c>
       <c r="T113" t="s">
@@ -9111,14 +9114,14 @@
         <v>640</v>
       </c>
       <c r="L114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M114">
         <v>320</v>
       </c>
       <c r="N114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O114" t="s">
@@ -9131,11 +9134,11 @@
         <v>19</v>
       </c>
       <c r="R114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S114" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E114,"_",F114,"0101-",F114,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1997_10101-11231.nc</v>
       </c>
       <c r="T114" t="s">
@@ -9178,14 +9181,14 @@
         <v>640</v>
       </c>
       <c r="L115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M115">
         <v>320</v>
       </c>
       <c r="N115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O115" t="s">
@@ -9198,11 +9201,11 @@
         <v>19</v>
       </c>
       <c r="R115" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S115" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E115,"_",F115,"0101-",F115,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1998_10101-11231.nc</v>
       </c>
       <c r="T115" t="s">
@@ -9245,14 +9248,14 @@
         <v>640</v>
       </c>
       <c r="L116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M116">
         <v>320</v>
       </c>
       <c r="N116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O116" t="s">
@@ -9265,11 +9268,11 @@
         <v>19</v>
       </c>
       <c r="R116" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S116" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E116,"_",F116,"0101-",F116,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_1999_10101-11231.nc</v>
       </c>
       <c r="T116" t="s">
@@ -9312,14 +9315,14 @@
         <v>640</v>
       </c>
       <c r="L117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M117">
         <v>320</v>
       </c>
       <c r="N117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O117" t="s">
@@ -9332,11 +9335,11 @@
         <v>19</v>
       </c>
       <c r="R117" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S117" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E117,"_",F117,"0101-",F117,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_2000_10101-11231.nc</v>
       </c>
       <c r="T117" t="s">
@@ -9379,14 +9382,14 @@
         <v>640</v>
       </c>
       <c r="L118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M118">
         <v>320</v>
       </c>
       <c r="N118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O118" t="s">
@@ -9399,11 +9402,11 @@
         <v>19</v>
       </c>
       <c r="R118" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S118" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E118,"_",F118,"0101-",F118,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_2001_10101-11231.nc</v>
       </c>
       <c r="T118" t="s">
@@ -9446,14 +9449,14 @@
         <v>640</v>
       </c>
       <c r="L119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M119">
         <v>320</v>
       </c>
       <c r="N119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O119" t="s">
@@ -9466,11 +9469,11 @@
         <v>19</v>
       </c>
       <c r="R119" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S119" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E119,"_",F119,"0101-",F119,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_2002_10101-11231.nc</v>
       </c>
       <c r="T119" t="s">
@@ -9513,14 +9516,14 @@
         <v>640</v>
       </c>
       <c r="L120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M120">
         <v>320</v>
       </c>
       <c r="N120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O120" t="s">
@@ -9533,11 +9536,11 @@
         <v>19</v>
       </c>
       <c r="R120" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S120" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E120,"_",F120,"0101-",F120,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_2003_10101-11231.nc</v>
       </c>
       <c r="T120" t="s">
@@ -9580,14 +9583,14 @@
         <v>640</v>
       </c>
       <c r="L121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M121">
         <v>320</v>
       </c>
       <c r="N121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O121" t="s">
@@ -9600,11 +9603,11 @@
         <v>19</v>
       </c>
       <c r="R121" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S121" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E121,"_",F121,"0101-",F121,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_2004_10101-11231.nc</v>
       </c>
       <c r="T121" t="s">
@@ -9647,14 +9650,14 @@
         <v>640</v>
       </c>
       <c r="L122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M122">
         <v>320</v>
       </c>
       <c r="N122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O122" t="s">
@@ -9667,11 +9670,11 @@
         <v>19</v>
       </c>
       <c r="R122" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r1i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S122" t="str">
-        <f>CONCATENATE("rsds_day_MIROC4h_historical_",E122,"_",F122,"0101-",F122,"1231.nc")</f>
+        <f t="shared" si="6"/>
         <v>rsds_day_MIROC4h_historical_2005_10101-11231.nc</v>
       </c>
       <c r="T122" t="s">
@@ -9714,14 +9717,14 @@
         <v>640</v>
       </c>
       <c r="L123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M123">
         <v>320</v>
       </c>
       <c r="N123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O123" t="s">
@@ -9734,7 +9737,7 @@
         <v>19</v>
       </c>
       <c r="R123" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S123" t="s">
@@ -9780,14 +9783,14 @@
         <v>640</v>
       </c>
       <c r="L124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M124">
         <v>320</v>
       </c>
       <c r="N124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O124" t="s">
@@ -9800,7 +9803,7 @@
         <v>19</v>
       </c>
       <c r="R124" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S124" t="s">
@@ -9846,14 +9849,14 @@
         <v>640</v>
       </c>
       <c r="L125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M125">
         <v>320</v>
       </c>
       <c r="N125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O125" t="s">
@@ -9866,7 +9869,7 @@
         <v>19</v>
       </c>
       <c r="R125" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S125" t="s">
@@ -9912,14 +9915,14 @@
         <v>640</v>
       </c>
       <c r="L126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M126">
         <v>320</v>
       </c>
       <c r="N126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O126" t="s">
@@ -9932,7 +9935,7 @@
         <v>19</v>
       </c>
       <c r="R126" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S126" t="s">
@@ -9978,14 +9981,14 @@
         <v>640</v>
       </c>
       <c r="L127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M127">
         <v>320</v>
       </c>
       <c r="N127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O127" t="s">
@@ -9998,7 +10001,7 @@
         <v>19</v>
       </c>
       <c r="R127" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S127" t="s">
@@ -10044,14 +10047,14 @@
         <v>640</v>
       </c>
       <c r="L128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M128">
         <v>320</v>
       </c>
       <c r="N128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O128" t="s">
@@ -10064,7 +10067,7 @@
         <v>19</v>
       </c>
       <c r="R128" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S128" t="s">
@@ -10110,14 +10113,14 @@
         <v>640</v>
       </c>
       <c r="L129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M129">
         <v>320</v>
       </c>
       <c r="N129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O129" t="s">
@@ -10130,7 +10133,7 @@
         <v>19</v>
       </c>
       <c r="R129" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S129" t="s">
@@ -10176,14 +10179,14 @@
         <v>640</v>
       </c>
       <c r="L130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M130">
         <v>320</v>
       </c>
       <c r="N130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O130" t="s">
@@ -10196,7 +10199,7 @@
         <v>19</v>
       </c>
       <c r="R130" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S130" t="s">
@@ -10242,14 +10245,14 @@
         <v>640</v>
       </c>
       <c r="L131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M131">
         <v>320</v>
       </c>
       <c r="N131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O131" t="s">
@@ -10262,7 +10265,7 @@
         <v>19</v>
       </c>
       <c r="R131" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S131" t="s">
@@ -10274,7 +10277,7 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" s="2">
-        <f t="shared" ref="A132:A195" si="9">A131+1</f>
+        <f t="shared" ref="A132:A195" si="10">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="2">
@@ -10308,14 +10311,14 @@
         <v>640</v>
       </c>
       <c r="L132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M132">
         <v>320</v>
       </c>
       <c r="N132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O132" t="s">
@@ -10328,7 +10331,7 @@
         <v>19</v>
       </c>
       <c r="R132" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S132" t="s">
@@ -10340,7 +10343,7 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
       <c r="B133" s="2">
@@ -10374,14 +10377,14 @@
         <v>640</v>
       </c>
       <c r="L133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M133">
         <v>320</v>
       </c>
       <c r="N133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O133" t="s">
@@ -10394,7 +10397,7 @@
         <v>19</v>
       </c>
       <c r="R133" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S133" t="s">
@@ -10406,7 +10409,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
       <c r="B134" s="2">
@@ -10440,14 +10443,14 @@
         <v>640</v>
       </c>
       <c r="L134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M134">
         <v>320</v>
       </c>
       <c r="N134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O134" t="s">
@@ -10460,7 +10463,7 @@
         <v>19</v>
       </c>
       <c r="R134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S134" t="s">
@@ -10472,7 +10475,7 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="B135" s="2">
@@ -10506,14 +10509,14 @@
         <v>640</v>
       </c>
       <c r="L135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M135">
         <v>320</v>
       </c>
       <c r="N135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O135" t="s">
@@ -10526,7 +10529,7 @@
         <v>19</v>
       </c>
       <c r="R135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S135" t="s">
@@ -10538,7 +10541,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="B136" s="2">
@@ -10572,14 +10575,14 @@
         <v>640</v>
       </c>
       <c r="L136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M136">
         <v>320</v>
       </c>
       <c r="N136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O136" t="s">
@@ -10592,7 +10595,7 @@
         <v>19</v>
       </c>
       <c r="R136" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S136" t="s">
@@ -10604,7 +10607,7 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="B137" s="2">
@@ -10638,14 +10641,14 @@
         <v>640</v>
       </c>
       <c r="L137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M137">
         <v>320</v>
       </c>
       <c r="N137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O137" t="s">
@@ -10658,7 +10661,7 @@
         <v>19</v>
       </c>
       <c r="R137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S137" t="s">
@@ -10670,7 +10673,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="B138" s="2">
@@ -10704,14 +10707,14 @@
         <v>640</v>
       </c>
       <c r="L138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M138">
         <v>320</v>
       </c>
       <c r="N138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O138" t="s">
@@ -10724,7 +10727,7 @@
         <v>19</v>
       </c>
       <c r="R138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S138" t="s">
@@ -10736,7 +10739,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="B139" s="2">
@@ -10770,14 +10773,14 @@
         <v>640</v>
       </c>
       <c r="L139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M139">
         <v>320</v>
       </c>
       <c r="N139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O139" t="s">
@@ -10790,7 +10793,7 @@
         <v>19</v>
       </c>
       <c r="R139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S139" t="s">
@@ -10802,7 +10805,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="B140" s="2">
@@ -10836,14 +10839,14 @@
         <v>640</v>
       </c>
       <c r="L140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M140">
         <v>320</v>
       </c>
       <c r="N140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O140" t="s">
@@ -10856,7 +10859,7 @@
         <v>19</v>
       </c>
       <c r="R140" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S140" t="s">
@@ -10868,7 +10871,7 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="B141" s="2">
@@ -10902,14 +10905,14 @@
         <v>640</v>
       </c>
       <c r="L141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5625</v>
       </c>
       <c r="M141">
         <v>320</v>
       </c>
       <c r="N141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="O141" t="s">
@@ -10922,7 +10925,7 @@
         <v>19</v>
       </c>
       <c r="R141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S141" t="s">
@@ -10934,7 +10937,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="B142" s="2">
@@ -10968,14 +10971,14 @@
         <v>640</v>
       </c>
       <c r="L142">
-        <f t="shared" ref="L142:L205" si="10">360/K142</f>
+        <f t="shared" ref="L142:L205" si="11">360/K142</f>
         <v>0.5625</v>
       </c>
       <c r="M142">
         <v>320</v>
       </c>
       <c r="N142">
-        <f t="shared" ref="N142:N205" si="11">180/M142</f>
+        <f t="shared" ref="N142:N205" si="12">180/M142</f>
         <v>0.5625</v>
       </c>
       <c r="O142" t="s">
@@ -10988,7 +10991,7 @@
         <v>19</v>
       </c>
       <c r="R142" t="str">
-        <f t="shared" ref="R142:R205" si="12">CONCATENATE("%var%_day_MIROC4h_historical_",D142,"_",E142,"0101-",E142,"1231.nc")</f>
+        <f t="shared" ref="R142:R205" si="13">CONCATENATE("%var%_day_MIROC4h_historical_",D142,"_",E142,"0101-",E142,"1231.nc")</f>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S142" t="s">
@@ -11000,7 +11003,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="B143" s="2">
@@ -11034,14 +11037,14 @@
         <v>640</v>
       </c>
       <c r="L143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M143">
         <v>320</v>
       </c>
       <c r="N143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O143" t="s">
@@ -11054,7 +11057,7 @@
         <v>19</v>
       </c>
       <c r="R143" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S143" t="s">
@@ -11066,7 +11069,7 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
       <c r="B144" s="2">
@@ -11100,14 +11103,14 @@
         <v>640</v>
       </c>
       <c r="L144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M144">
         <v>320</v>
       </c>
       <c r="N144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O144" t="s">
@@ -11120,7 +11123,7 @@
         <v>19</v>
       </c>
       <c r="R144" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S144" t="s">
@@ -11132,7 +11135,7 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="B145" s="2">
@@ -11166,14 +11169,14 @@
         <v>640</v>
       </c>
       <c r="L145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M145">
         <v>320</v>
       </c>
       <c r="N145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O145" t="s">
@@ -11186,7 +11189,7 @@
         <v>19</v>
       </c>
       <c r="R145" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S145" t="s">
@@ -11198,7 +11201,7 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="B146" s="2">
@@ -11232,14 +11235,14 @@
         <v>640</v>
       </c>
       <c r="L146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M146">
         <v>320</v>
       </c>
       <c r="N146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O146" t="s">
@@ -11252,7 +11255,7 @@
         <v>19</v>
       </c>
       <c r="R146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S146" t="s">
@@ -11264,7 +11267,7 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
       <c r="B147" s="2">
@@ -11298,14 +11301,14 @@
         <v>640</v>
       </c>
       <c r="L147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M147">
         <v>320</v>
       </c>
       <c r="N147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O147" t="s">
@@ -11318,7 +11321,7 @@
         <v>19</v>
       </c>
       <c r="R147" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S147" t="s">
@@ -11330,7 +11333,7 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="B148" s="2">
@@ -11364,14 +11367,14 @@
         <v>640</v>
       </c>
       <c r="L148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M148">
         <v>320</v>
       </c>
       <c r="N148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O148" t="s">
@@ -11384,7 +11387,7 @@
         <v>19</v>
       </c>
       <c r="R148" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S148" t="s">
@@ -11396,7 +11399,7 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="B149" s="2">
@@ -11430,14 +11433,14 @@
         <v>640</v>
       </c>
       <c r="L149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M149">
         <v>320</v>
       </c>
       <c r="N149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O149" t="s">
@@ -11450,7 +11453,7 @@
         <v>19</v>
       </c>
       <c r="R149" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S149" t="s">
@@ -11462,7 +11465,7 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
       <c r="B150" s="2">
@@ -11496,14 +11499,14 @@
         <v>640</v>
       </c>
       <c r="L150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M150">
         <v>320</v>
       </c>
       <c r="N150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O150" t="s">
@@ -11516,7 +11519,7 @@
         <v>19</v>
       </c>
       <c r="R150" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S150" t="s">
@@ -11528,7 +11531,7 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="B151" s="2">
@@ -11562,14 +11565,14 @@
         <v>640</v>
       </c>
       <c r="L151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M151">
         <v>320</v>
       </c>
       <c r="N151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O151" t="s">
@@ -11582,7 +11585,7 @@
         <v>19</v>
       </c>
       <c r="R151" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S151" t="s">
@@ -11594,7 +11597,7 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="B152" s="2">
@@ -11628,14 +11631,14 @@
         <v>640</v>
       </c>
       <c r="L152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M152">
         <v>320</v>
       </c>
       <c r="N152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O152" t="s">
@@ -11648,7 +11651,7 @@
         <v>19</v>
       </c>
       <c r="R152" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S152" t="s">
@@ -11660,7 +11663,7 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="B153" s="2">
@@ -11694,14 +11697,14 @@
         <v>640</v>
       </c>
       <c r="L153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M153">
         <v>320</v>
       </c>
       <c r="N153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O153" t="s">
@@ -11714,7 +11717,7 @@
         <v>19</v>
       </c>
       <c r="R153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S153" t="s">
@@ -11726,7 +11729,7 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="B154" s="2">
@@ -11760,14 +11763,14 @@
         <v>640</v>
       </c>
       <c r="L154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M154">
         <v>320</v>
       </c>
       <c r="N154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O154" t="s">
@@ -11780,7 +11783,7 @@
         <v>19</v>
       </c>
       <c r="R154" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S154" t="s">
@@ -11792,7 +11795,7 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="B155" s="2">
@@ -11826,14 +11829,14 @@
         <v>640</v>
       </c>
       <c r="L155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M155">
         <v>320</v>
       </c>
       <c r="N155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O155" t="s">
@@ -11846,7 +11849,7 @@
         <v>19</v>
       </c>
       <c r="R155" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S155" t="s">
@@ -11858,7 +11861,7 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="B156" s="2">
@@ -11892,14 +11895,14 @@
         <v>640</v>
       </c>
       <c r="L156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M156">
         <v>320</v>
       </c>
       <c r="N156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O156" t="s">
@@ -11912,7 +11915,7 @@
         <v>19</v>
       </c>
       <c r="R156" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S156" t="s">
@@ -11924,7 +11927,7 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="B157" s="2">
@@ -11958,14 +11961,14 @@
         <v>640</v>
       </c>
       <c r="L157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M157">
         <v>320</v>
       </c>
       <c r="N157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O157" t="s">
@@ -11978,7 +11981,7 @@
         <v>19</v>
       </c>
       <c r="R157" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S157" t="s">
@@ -11990,7 +11993,7 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="B158" s="2">
@@ -12024,14 +12027,14 @@
         <v>640</v>
       </c>
       <c r="L158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M158">
         <v>320</v>
       </c>
       <c r="N158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O158" t="s">
@@ -12044,7 +12047,7 @@
         <v>19</v>
       </c>
       <c r="R158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S158" t="s">
@@ -12056,7 +12059,7 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="B159" s="2">
@@ -12090,14 +12093,14 @@
         <v>640</v>
       </c>
       <c r="L159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M159">
         <v>320</v>
       </c>
       <c r="N159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O159" t="s">
@@ -12110,7 +12113,7 @@
         <v>19</v>
       </c>
       <c r="R159" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S159" t="s">
@@ -12122,7 +12125,7 @@
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="B160" s="2">
@@ -12156,14 +12159,14 @@
         <v>640</v>
       </c>
       <c r="L160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M160">
         <v>320</v>
       </c>
       <c r="N160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O160" t="s">
@@ -12176,7 +12179,7 @@
         <v>19</v>
       </c>
       <c r="R160" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S160" t="s">
@@ -12188,7 +12191,7 @@
     </row>
     <row r="161" spans="1:20">
       <c r="A161" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="B161" s="2">
@@ -12222,14 +12225,14 @@
         <v>640</v>
       </c>
       <c r="L161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M161">
         <v>320</v>
       </c>
       <c r="N161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O161" t="s">
@@ -12242,7 +12245,7 @@
         <v>19</v>
       </c>
       <c r="R161" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S161" t="s">
@@ -12254,7 +12257,7 @@
     </row>
     <row r="162" spans="1:20">
       <c r="A162" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
       <c r="B162" s="2">
@@ -12288,14 +12291,14 @@
         <v>640</v>
       </c>
       <c r="L162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M162">
         <v>320</v>
       </c>
       <c r="N162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O162" t="s">
@@ -12308,7 +12311,7 @@
         <v>19</v>
       </c>
       <c r="R162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S162" t="s">
@@ -12320,7 +12323,7 @@
     </row>
     <row r="163" spans="1:20">
       <c r="A163" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="B163" s="2">
@@ -12354,14 +12357,14 @@
         <v>640</v>
       </c>
       <c r="L163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M163">
         <v>320</v>
       </c>
       <c r="N163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O163" t="s">
@@ -12374,7 +12377,7 @@
         <v>19</v>
       </c>
       <c r="R163" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S163" t="s">
@@ -12386,7 +12389,7 @@
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="B164" s="2">
@@ -12420,14 +12423,14 @@
         <v>640</v>
       </c>
       <c r="L164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M164">
         <v>320</v>
       </c>
       <c r="N164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O164" t="s">
@@ -12440,7 +12443,7 @@
         <v>19</v>
       </c>
       <c r="R164" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S164" t="s">
@@ -12452,7 +12455,7 @@
     </row>
     <row r="165" spans="1:20">
       <c r="A165" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="B165" s="2">
@@ -12486,14 +12489,14 @@
         <v>640</v>
       </c>
       <c r="L165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M165">
         <v>320</v>
       </c>
       <c r="N165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O165" t="s">
@@ -12506,7 +12509,7 @@
         <v>19</v>
       </c>
       <c r="R165" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S165" t="s">
@@ -12518,7 +12521,7 @@
     </row>
     <row r="166" spans="1:20">
       <c r="A166" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
       <c r="B166" s="2">
@@ -12552,14 +12555,14 @@
         <v>640</v>
       </c>
       <c r="L166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M166">
         <v>320</v>
       </c>
       <c r="N166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O166" t="s">
@@ -12572,7 +12575,7 @@
         <v>19</v>
       </c>
       <c r="R166" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S166" t="s">
@@ -12584,7 +12587,7 @@
     </row>
     <row r="167" spans="1:20">
       <c r="A167" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="B167" s="2">
@@ -12618,14 +12621,14 @@
         <v>640</v>
       </c>
       <c r="L167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M167">
         <v>320</v>
       </c>
       <c r="N167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O167" t="s">
@@ -12638,7 +12641,7 @@
         <v>19</v>
       </c>
       <c r="R167" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S167" t="s">
@@ -12650,7 +12653,7 @@
     </row>
     <row r="168" spans="1:20">
       <c r="A168" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
       <c r="B168" s="2">
@@ -12684,14 +12687,14 @@
         <v>640</v>
       </c>
       <c r="L168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M168">
         <v>320</v>
       </c>
       <c r="N168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O168" t="s">
@@ -12704,7 +12707,7 @@
         <v>19</v>
       </c>
       <c r="R168" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r2i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S168" t="s">
@@ -12716,7 +12719,7 @@
     </row>
     <row r="169" spans="1:20">
       <c r="A169" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="B169" s="2">
@@ -12750,14 +12753,14 @@
         <v>640</v>
       </c>
       <c r="L169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M169">
         <v>320</v>
       </c>
       <c r="N169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O169" t="s">
@@ -12770,7 +12773,7 @@
         <v>19</v>
       </c>
       <c r="R169" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S169" t="s">
@@ -12782,7 +12785,7 @@
     </row>
     <row r="170" spans="1:20">
       <c r="A170" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
       <c r="B170" s="2">
@@ -12816,14 +12819,14 @@
         <v>640</v>
       </c>
       <c r="L170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M170">
         <v>320</v>
       </c>
       <c r="N170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O170" t="s">
@@ -12836,7 +12839,7 @@
         <v>19</v>
       </c>
       <c r="R170" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S170" t="s">
@@ -12848,7 +12851,7 @@
     </row>
     <row r="171" spans="1:20">
       <c r="A171" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="B171" s="2">
@@ -12882,14 +12885,14 @@
         <v>640</v>
       </c>
       <c r="L171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M171">
         <v>320</v>
       </c>
       <c r="N171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O171" t="s">
@@ -12902,7 +12905,7 @@
         <v>19</v>
       </c>
       <c r="R171" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S171" t="s">
@@ -12914,7 +12917,7 @@
     </row>
     <row r="172" spans="1:20">
       <c r="A172" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="B172" s="2">
@@ -12948,14 +12951,14 @@
         <v>640</v>
       </c>
       <c r="L172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M172">
         <v>320</v>
       </c>
       <c r="N172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O172" t="s">
@@ -12968,7 +12971,7 @@
         <v>19</v>
       </c>
       <c r="R172" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S172" t="s">
@@ -12980,7 +12983,7 @@
     </row>
     <row r="173" spans="1:20">
       <c r="A173" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
       <c r="B173" s="2">
@@ -13014,14 +13017,14 @@
         <v>640</v>
       </c>
       <c r="L173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M173">
         <v>320</v>
       </c>
       <c r="N173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O173" t="s">
@@ -13034,7 +13037,7 @@
         <v>19</v>
       </c>
       <c r="R173" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S173" t="s">
@@ -13046,7 +13049,7 @@
     </row>
     <row r="174" spans="1:20">
       <c r="A174" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
       <c r="B174" s="2">
@@ -13080,14 +13083,14 @@
         <v>640</v>
       </c>
       <c r="L174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M174">
         <v>320</v>
       </c>
       <c r="N174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O174" t="s">
@@ -13100,7 +13103,7 @@
         <v>19</v>
       </c>
       <c r="R174" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S174" t="s">
@@ -13112,7 +13115,7 @@
     </row>
     <row r="175" spans="1:20">
       <c r="A175" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="B175" s="2">
@@ -13146,14 +13149,14 @@
         <v>640</v>
       </c>
       <c r="L175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M175">
         <v>320</v>
       </c>
       <c r="N175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O175" t="s">
@@ -13166,7 +13169,7 @@
         <v>19</v>
       </c>
       <c r="R175" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S175" t="s">
@@ -13178,7 +13181,7 @@
     </row>
     <row r="176" spans="1:20">
       <c r="A176" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
       <c r="B176" s="2">
@@ -13212,14 +13215,14 @@
         <v>640</v>
       </c>
       <c r="L176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M176">
         <v>320</v>
       </c>
       <c r="N176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O176" t="s">
@@ -13232,7 +13235,7 @@
         <v>19</v>
       </c>
       <c r="R176" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S176" t="s">
@@ -13244,7 +13247,7 @@
     </row>
     <row r="177" spans="1:20">
       <c r="A177" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="B177" s="2">
@@ -13278,14 +13281,14 @@
         <v>640</v>
       </c>
       <c r="L177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M177">
         <v>320</v>
       </c>
       <c r="N177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O177" t="s">
@@ -13298,7 +13301,7 @@
         <v>19</v>
       </c>
       <c r="R177" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S177" t="s">
@@ -13310,7 +13313,7 @@
     </row>
     <row r="178" spans="1:20">
       <c r="A178" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="B178" s="2">
@@ -13344,14 +13347,14 @@
         <v>640</v>
       </c>
       <c r="L178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M178">
         <v>320</v>
       </c>
       <c r="N178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O178" t="s">
@@ -13364,7 +13367,7 @@
         <v>19</v>
       </c>
       <c r="R178" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S178" t="s">
@@ -13376,7 +13379,7 @@
     </row>
     <row r="179" spans="1:20">
       <c r="A179" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="B179" s="2">
@@ -13410,14 +13413,14 @@
         <v>640</v>
       </c>
       <c r="L179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M179">
         <v>320</v>
       </c>
       <c r="N179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O179" t="s">
@@ -13430,7 +13433,7 @@
         <v>19</v>
       </c>
       <c r="R179" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S179" t="s">
@@ -13442,7 +13445,7 @@
     </row>
     <row r="180" spans="1:20">
       <c r="A180" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
       <c r="B180" s="2">
@@ -13476,14 +13479,14 @@
         <v>640</v>
       </c>
       <c r="L180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M180">
         <v>320</v>
       </c>
       <c r="N180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O180" t="s">
@@ -13496,7 +13499,7 @@
         <v>19</v>
       </c>
       <c r="R180" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S180" t="s">
@@ -13508,7 +13511,7 @@
     </row>
     <row r="181" spans="1:20">
       <c r="A181" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="B181" s="2">
@@ -13542,14 +13545,14 @@
         <v>640</v>
       </c>
       <c r="L181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M181">
         <v>320</v>
       </c>
       <c r="N181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O181" t="s">
@@ -13562,7 +13565,7 @@
         <v>19</v>
       </c>
       <c r="R181" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S181" t="s">
@@ -13574,7 +13577,7 @@
     </row>
     <row r="182" spans="1:20">
       <c r="A182" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="B182" s="2">
@@ -13608,14 +13611,14 @@
         <v>640</v>
       </c>
       <c r="L182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M182">
         <v>320</v>
       </c>
       <c r="N182">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O182" t="s">
@@ -13628,7 +13631,7 @@
         <v>19</v>
       </c>
       <c r="R182" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S182" t="s">
@@ -13640,7 +13643,7 @@
     </row>
     <row r="183" spans="1:20">
       <c r="A183" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="B183" s="2">
@@ -13674,14 +13677,14 @@
         <v>640</v>
       </c>
       <c r="L183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M183">
         <v>320</v>
       </c>
       <c r="N183">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O183" t="s">
@@ -13694,7 +13697,7 @@
         <v>19</v>
       </c>
       <c r="R183" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S183" t="s">
@@ -13706,7 +13709,7 @@
     </row>
     <row r="184" spans="1:20">
       <c r="A184" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="B184" s="2">
@@ -13740,14 +13743,14 @@
         <v>640</v>
       </c>
       <c r="L184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M184">
         <v>320</v>
       </c>
       <c r="N184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O184" t="s">
@@ -13760,7 +13763,7 @@
         <v>19</v>
       </c>
       <c r="R184" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S184" t="s">
@@ -13772,7 +13775,7 @@
     </row>
     <row r="185" spans="1:20">
       <c r="A185" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
       <c r="B185" s="2">
@@ -13806,14 +13809,14 @@
         <v>640</v>
       </c>
       <c r="L185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M185">
         <v>320</v>
       </c>
       <c r="N185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O185" t="s">
@@ -13826,7 +13829,7 @@
         <v>19</v>
       </c>
       <c r="R185" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S185" t="s">
@@ -13838,7 +13841,7 @@
     </row>
     <row r="186" spans="1:20">
       <c r="A186" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
       <c r="B186" s="2">
@@ -13872,14 +13875,14 @@
         <v>640</v>
       </c>
       <c r="L186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M186">
         <v>320</v>
       </c>
       <c r="N186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O186" t="s">
@@ -13892,7 +13895,7 @@
         <v>19</v>
       </c>
       <c r="R186" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S186" t="s">
@@ -13904,7 +13907,7 @@
     </row>
     <row r="187" spans="1:20">
       <c r="A187" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="B187" s="2">
@@ -13938,14 +13941,14 @@
         <v>640</v>
       </c>
       <c r="L187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M187">
         <v>320</v>
       </c>
       <c r="N187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O187" t="s">
@@ -13958,7 +13961,7 @@
         <v>19</v>
       </c>
       <c r="R187" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S187" t="s">
@@ -13970,7 +13973,7 @@
     </row>
     <row r="188" spans="1:20">
       <c r="A188" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
       <c r="B188" s="2">
@@ -14004,14 +14007,14 @@
         <v>640</v>
       </c>
       <c r="L188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M188">
         <v>320</v>
       </c>
       <c r="N188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O188" t="s">
@@ -14024,7 +14027,7 @@
         <v>19</v>
       </c>
       <c r="R188" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S188" t="s">
@@ -14036,7 +14039,7 @@
     </row>
     <row r="189" spans="1:20">
       <c r="A189" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>188</v>
       </c>
       <c r="B189" s="2">
@@ -14070,14 +14073,14 @@
         <v>640</v>
       </c>
       <c r="L189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M189">
         <v>320</v>
       </c>
       <c r="N189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O189" t="s">
@@ -14090,7 +14093,7 @@
         <v>19</v>
       </c>
       <c r="R189" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S189" t="s">
@@ -14102,7 +14105,7 @@
     </row>
     <row r="190" spans="1:20">
       <c r="A190" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
       <c r="B190" s="2">
@@ -14136,14 +14139,14 @@
         <v>640</v>
       </c>
       <c r="L190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M190">
         <v>320</v>
       </c>
       <c r="N190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O190" t="s">
@@ -14156,7 +14159,7 @@
         <v>19</v>
       </c>
       <c r="R190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S190" t="s">
@@ -14168,7 +14171,7 @@
     </row>
     <row r="191" spans="1:20">
       <c r="A191" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
       <c r="B191" s="2">
@@ -14202,14 +14205,14 @@
         <v>640</v>
       </c>
       <c r="L191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M191">
         <v>320</v>
       </c>
       <c r="N191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O191" t="s">
@@ -14222,7 +14225,7 @@
         <v>19</v>
       </c>
       <c r="R191" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S191" t="s">
@@ -14234,7 +14237,7 @@
     </row>
     <row r="192" spans="1:20">
       <c r="A192" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
       <c r="B192" s="2">
@@ -14268,14 +14271,14 @@
         <v>640</v>
       </c>
       <c r="L192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M192">
         <v>320</v>
       </c>
       <c r="N192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O192" t="s">
@@ -14288,7 +14291,7 @@
         <v>19</v>
       </c>
       <c r="R192" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S192" t="s">
@@ -14300,7 +14303,7 @@
     </row>
     <row r="193" spans="1:20">
       <c r="A193" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="B193" s="2">
@@ -14334,14 +14337,14 @@
         <v>640</v>
       </c>
       <c r="L193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M193">
         <v>320</v>
       </c>
       <c r="N193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O193" t="s">
@@ -14354,7 +14357,7 @@
         <v>19</v>
       </c>
       <c r="R193" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S193" t="s">
@@ -14366,7 +14369,7 @@
     </row>
     <row r="194" spans="1:20">
       <c r="A194" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="B194" s="2">
@@ -14400,14 +14403,14 @@
         <v>640</v>
       </c>
       <c r="L194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M194">
         <v>320</v>
       </c>
       <c r="N194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O194" t="s">
@@ -14420,7 +14423,7 @@
         <v>19</v>
       </c>
       <c r="R194" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S194" t="s">
@@ -14432,7 +14435,7 @@
     </row>
     <row r="195" spans="1:20">
       <c r="A195" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>194</v>
       </c>
       <c r="B195" s="2">
@@ -14466,14 +14469,14 @@
         <v>640</v>
       </c>
       <c r="L195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M195">
         <v>320</v>
       </c>
       <c r="N195">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O195" t="s">
@@ -14486,7 +14489,7 @@
         <v>19</v>
       </c>
       <c r="R195" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S195" t="s">
@@ -14498,7 +14501,7 @@
     </row>
     <row r="196" spans="1:20">
       <c r="A196" s="2">
-        <f t="shared" ref="A196:A259" si="13">A195+1</f>
+        <f t="shared" ref="A196:A259" si="14">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="2">
@@ -14532,14 +14535,14 @@
         <v>640</v>
       </c>
       <c r="L196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M196">
         <v>320</v>
       </c>
       <c r="N196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O196" t="s">
@@ -14552,7 +14555,7 @@
         <v>19</v>
       </c>
       <c r="R196" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S196" t="s">
@@ -14564,7 +14567,7 @@
     </row>
     <row r="197" spans="1:20">
       <c r="A197" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>196</v>
       </c>
       <c r="B197" s="2">
@@ -14598,14 +14601,14 @@
         <v>640</v>
       </c>
       <c r="L197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M197">
         <v>320</v>
       </c>
       <c r="N197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O197" t="s">
@@ -14618,7 +14621,7 @@
         <v>19</v>
       </c>
       <c r="R197" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S197" t="s">
@@ -14630,7 +14633,7 @@
     </row>
     <row r="198" spans="1:20">
       <c r="A198" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>197</v>
       </c>
       <c r="B198" s="2">
@@ -14664,14 +14667,14 @@
         <v>640</v>
       </c>
       <c r="L198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M198">
         <v>320</v>
       </c>
       <c r="N198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O198" t="s">
@@ -14684,7 +14687,7 @@
         <v>19</v>
       </c>
       <c r="R198" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S198" t="s">
@@ -14696,7 +14699,7 @@
     </row>
     <row r="199" spans="1:20">
       <c r="A199" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>198</v>
       </c>
       <c r="B199" s="2">
@@ -14730,14 +14733,14 @@
         <v>640</v>
       </c>
       <c r="L199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M199">
         <v>320</v>
       </c>
       <c r="N199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O199" t="s">
@@ -14750,7 +14753,7 @@
         <v>19</v>
       </c>
       <c r="R199" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S199" t="s">
@@ -14762,7 +14765,7 @@
     </row>
     <row r="200" spans="1:20">
       <c r="A200" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>199</v>
       </c>
       <c r="B200" s="2">
@@ -14796,14 +14799,14 @@
         <v>640</v>
       </c>
       <c r="L200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M200">
         <v>320</v>
       </c>
       <c r="N200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O200" t="s">
@@ -14816,7 +14819,7 @@
         <v>19</v>
       </c>
       <c r="R200" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S200" t="s">
@@ -14828,7 +14831,7 @@
     </row>
     <row r="201" spans="1:20">
       <c r="A201" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="B201" s="2">
@@ -14862,14 +14865,14 @@
         <v>640</v>
       </c>
       <c r="L201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M201">
         <v>320</v>
       </c>
       <c r="N201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O201" t="s">
@@ -14882,7 +14885,7 @@
         <v>19</v>
       </c>
       <c r="R201" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S201" t="s">
@@ -14894,7 +14897,7 @@
     </row>
     <row r="202" spans="1:20">
       <c r="A202" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>201</v>
       </c>
       <c r="B202" s="2">
@@ -14928,14 +14931,14 @@
         <v>640</v>
       </c>
       <c r="L202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M202">
         <v>320</v>
       </c>
       <c r="N202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O202" t="s">
@@ -14948,7 +14951,7 @@
         <v>19</v>
       </c>
       <c r="R202" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S202" t="s">
@@ -14960,7 +14963,7 @@
     </row>
     <row r="203" spans="1:20">
       <c r="A203" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>202</v>
       </c>
       <c r="B203" s="2">
@@ -14994,14 +14997,14 @@
         <v>640</v>
       </c>
       <c r="L203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M203">
         <v>320</v>
       </c>
       <c r="N203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O203" t="s">
@@ -15014,7 +15017,7 @@
         <v>19</v>
       </c>
       <c r="R203" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S203" t="s">
@@ -15026,7 +15029,7 @@
     </row>
     <row r="204" spans="1:20">
       <c r="A204" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>203</v>
       </c>
       <c r="B204" s="2">
@@ -15060,14 +15063,14 @@
         <v>640</v>
       </c>
       <c r="L204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M204">
         <v>320</v>
       </c>
       <c r="N204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O204" t="s">
@@ -15080,7 +15083,7 @@
         <v>19</v>
       </c>
       <c r="R204" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S204" t="s">
@@ -15092,7 +15095,7 @@
     </row>
     <row r="205" spans="1:20">
       <c r="A205" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>204</v>
       </c>
       <c r="B205" s="2">
@@ -15126,14 +15129,14 @@
         <v>640</v>
       </c>
       <c r="L205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5625</v>
       </c>
       <c r="M205">
         <v>320</v>
       </c>
       <c r="N205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5625</v>
       </c>
       <c r="O205" t="s">
@@ -15146,7 +15149,7 @@
         <v>19</v>
       </c>
       <c r="R205" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S205" t="s">
@@ -15158,7 +15161,7 @@
     </row>
     <row r="206" spans="1:20">
       <c r="A206" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>205</v>
       </c>
       <c r="B206" s="2">
@@ -15192,14 +15195,14 @@
         <v>640</v>
       </c>
       <c r="L206">
-        <f t="shared" ref="L206:L214" si="14">360/K206</f>
+        <f t="shared" ref="L206:L214" si="15">360/K206</f>
         <v>0.5625</v>
       </c>
       <c r="M206">
         <v>320</v>
       </c>
       <c r="N206">
-        <f t="shared" ref="N206:N214" si="15">180/M206</f>
+        <f t="shared" ref="N206:N214" si="16">180/M206</f>
         <v>0.5625</v>
       </c>
       <c r="O206" t="s">
@@ -15212,7 +15215,7 @@
         <v>19</v>
       </c>
       <c r="R206" t="str">
-        <f t="shared" ref="R206:R214" si="16">CONCATENATE("%var%_day_MIROC4h_historical_",D206,"_",E206,"0101-",E206,"1231.nc")</f>
+        <f t="shared" ref="R206:R214" si="17">CONCATENATE("%var%_day_MIROC4h_historical_",D206,"_",E206,"0101-",E206,"1231.nc")</f>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S206" t="s">
@@ -15224,7 +15227,7 @@
     </row>
     <row r="207" spans="1:20">
       <c r="A207" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>206</v>
       </c>
       <c r="B207" s="2">
@@ -15258,14 +15261,14 @@
         <v>640</v>
       </c>
       <c r="L207">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M207">
         <v>320</v>
       </c>
       <c r="N207">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O207" t="s">
@@ -15278,7 +15281,7 @@
         <v>19</v>
       </c>
       <c r="R207" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S207" t="s">
@@ -15290,7 +15293,7 @@
     </row>
     <row r="208" spans="1:20">
       <c r="A208" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>207</v>
       </c>
       <c r="B208" s="2">
@@ -15324,14 +15327,14 @@
         <v>640</v>
       </c>
       <c r="L208">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M208">
         <v>320</v>
       </c>
       <c r="N208">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O208" t="s">
@@ -15344,7 +15347,7 @@
         <v>19</v>
       </c>
       <c r="R208" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S208" t="s">
@@ -15356,7 +15359,7 @@
     </row>
     <row r="209" spans="1:20">
       <c r="A209" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>208</v>
       </c>
       <c r="B209" s="2">
@@ -15390,14 +15393,14 @@
         <v>640</v>
       </c>
       <c r="L209">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M209">
         <v>320</v>
       </c>
       <c r="N209">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O209" t="s">
@@ -15410,7 +15413,7 @@
         <v>19</v>
       </c>
       <c r="R209" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S209" t="s">
@@ -15422,7 +15425,7 @@
     </row>
     <row r="210" spans="1:20">
       <c r="A210" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>209</v>
       </c>
       <c r="B210" s="2">
@@ -15456,14 +15459,14 @@
         <v>640</v>
       </c>
       <c r="L210">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M210">
         <v>320</v>
       </c>
       <c r="N210">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O210" t="s">
@@ -15476,7 +15479,7 @@
         <v>19</v>
       </c>
       <c r="R210" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S210" t="s">
@@ -15488,7 +15491,7 @@
     </row>
     <row r="211" spans="1:20">
       <c r="A211" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>210</v>
       </c>
       <c r="B211" s="2">
@@ -15522,14 +15525,14 @@
         <v>640</v>
       </c>
       <c r="L211">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M211">
         <v>320</v>
       </c>
       <c r="N211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O211" t="s">
@@ -15542,7 +15545,7 @@
         <v>19</v>
       </c>
       <c r="R211" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S211" t="s">
@@ -15554,7 +15557,7 @@
     </row>
     <row r="212" spans="1:20">
       <c r="A212" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>211</v>
       </c>
       <c r="B212" s="2">
@@ -15588,14 +15591,14 @@
         <v>640</v>
       </c>
       <c r="L212">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M212">
         <v>320</v>
       </c>
       <c r="N212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O212" t="s">
@@ -15608,7 +15611,7 @@
         <v>19</v>
       </c>
       <c r="R212" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S212" t="s">
@@ -15620,7 +15623,7 @@
     </row>
     <row r="213" spans="1:20">
       <c r="A213" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>212</v>
       </c>
       <c r="B213" s="2">
@@ -15654,14 +15657,14 @@
         <v>640</v>
       </c>
       <c r="L213">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M213">
         <v>320</v>
       </c>
       <c r="N213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O213" t="s">
@@ -15674,7 +15677,7 @@
         <v>19</v>
       </c>
       <c r="R213" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S213" t="s">
@@ -15686,7 +15689,7 @@
     </row>
     <row r="214" spans="1:20">
       <c r="A214" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>213</v>
       </c>
       <c r="B214" s="2">
@@ -15720,14 +15723,14 @@
         <v>640</v>
       </c>
       <c r="L214">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5625</v>
       </c>
       <c r="M214">
         <v>320</v>
       </c>
       <c r="N214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5625</v>
       </c>
       <c r="O214" t="s">
@@ -15740,7 +15743,7 @@
         <v>19</v>
       </c>
       <c r="R214" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>%var%_day_MIROC4h_historical_r3i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S214" t="s">
@@ -15752,7 +15755,7 @@
     </row>
     <row r="215" spans="1:20">
       <c r="A215" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>214</v>
       </c>
       <c r="B215" s="2">
@@ -15786,14 +15789,14 @@
         <v>256</v>
       </c>
       <c r="L215">
-        <f t="shared" ref="L215:L220" si="17">360/K215</f>
+        <f t="shared" ref="L215:L220" si="18">360/K215</f>
         <v>1.40625</v>
       </c>
       <c r="M215">
         <v>128</v>
       </c>
       <c r="N215">
-        <f t="shared" ref="N215:N220" si="18">180/M215</f>
+        <f t="shared" ref="N215:N220" si="19">180/M215</f>
         <v>1.40625</v>
       </c>
       <c r="O215" t="s">
@@ -15817,7 +15820,7 @@
     </row>
     <row r="216" spans="1:20">
       <c r="A216" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>215</v>
       </c>
       <c r="B216" s="2">
@@ -15851,209 +15854,209 @@
         <v>256</v>
       </c>
       <c r="L216">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.40625</v>
       </c>
       <c r="M216">
         <v>128</v>
       </c>
       <c r="N216">
+        <f t="shared" si="19"/>
+        <v>1.40625</v>
+      </c>
+      <c r="O216" t="s">
+        <v>13</v>
+      </c>
+      <c r="P216" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>19</v>
+      </c>
+      <c r="R216" t="s">
+        <v>111</v>
+      </c>
+      <c r="S216" t="s">
+        <v>334</v>
+      </c>
+      <c r="T216" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="2">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>109</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217">
+        <v>1980</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1989</v>
+      </c>
+      <c r="I217">
+        <v>12</v>
+      </c>
+      <c r="J217">
+        <v>31</v>
+      </c>
+      <c r="K217">
+        <v>256</v>
+      </c>
+      <c r="L217">
         <f t="shared" si="18"/>
         <v>1.40625</v>
       </c>
-      <c r="O216" t="s">
-        <v>13</v>
-      </c>
-      <c r="P216" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>19</v>
-      </c>
-      <c r="R216" t="s">
-        <v>111</v>
-      </c>
-      <c r="S216" t="s">
-        <v>334</v>
-      </c>
-      <c r="T216" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20">
-      <c r="A217" s="2">
-        <f t="shared" si="13"/>
-        <v>216</v>
-      </c>
-      <c r="B217" s="2">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>109</v>
-      </c>
-      <c r="D217" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217">
-        <v>1980</v>
-      </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217">
-        <v>1989</v>
-      </c>
-      <c r="I217">
-        <v>12</v>
-      </c>
-      <c r="J217">
-        <v>31</v>
-      </c>
-      <c r="K217">
-        <v>256</v>
-      </c>
-      <c r="L217">
-        <f t="shared" si="17"/>
-        <v>1.40625</v>
-      </c>
       <c r="M217">
         <v>128</v>
       </c>
       <c r="N217">
+        <f t="shared" si="19"/>
+        <v>1.40625</v>
+      </c>
+      <c r="O217" t="s">
+        <v>13</v>
+      </c>
+      <c r="P217" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>19</v>
+      </c>
+      <c r="R217" t="s">
+        <v>112</v>
+      </c>
+      <c r="S217" t="s">
+        <v>335</v>
+      </c>
+      <c r="T217" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="2">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>109</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>1990</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1999</v>
+      </c>
+      <c r="I218">
+        <v>12</v>
+      </c>
+      <c r="J218">
+        <v>31</v>
+      </c>
+      <c r="K218">
+        <v>256</v>
+      </c>
+      <c r="L218">
         <f t="shared" si="18"/>
         <v>1.40625</v>
       </c>
-      <c r="O217" t="s">
-        <v>13</v>
-      </c>
-      <c r="P217" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>19</v>
-      </c>
-      <c r="R217" t="s">
-        <v>112</v>
-      </c>
-      <c r="S217" t="s">
-        <v>335</v>
-      </c>
-      <c r="T217" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20">
-      <c r="A218" s="2">
-        <f t="shared" si="13"/>
-        <v>217</v>
-      </c>
-      <c r="B218" s="2">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>109</v>
-      </c>
-      <c r="D218" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218">
-        <v>1990</v>
-      </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>1999</v>
-      </c>
-      <c r="I218">
-        <v>12</v>
-      </c>
-      <c r="J218">
-        <v>31</v>
-      </c>
-      <c r="K218">
-        <v>256</v>
-      </c>
-      <c r="L218">
-        <f t="shared" si="17"/>
-        <v>1.40625</v>
-      </c>
       <c r="M218">
         <v>128</v>
       </c>
       <c r="N218">
+        <f t="shared" si="19"/>
+        <v>1.40625</v>
+      </c>
+      <c r="O218" t="s">
+        <v>13</v>
+      </c>
+      <c r="P218" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>19</v>
+      </c>
+      <c r="R218" t="s">
+        <v>113</v>
+      </c>
+      <c r="S218" t="s">
+        <v>336</v>
+      </c>
+      <c r="T218" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="2">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="2">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>109</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>2000</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>2009</v>
+      </c>
+      <c r="I219">
+        <v>12</v>
+      </c>
+      <c r="J219">
+        <v>31</v>
+      </c>
+      <c r="K219">
+        <v>256</v>
+      </c>
+      <c r="L219">
         <f t="shared" si="18"/>
         <v>1.40625</v>
       </c>
-      <c r="O218" t="s">
-        <v>13</v>
-      </c>
-      <c r="P218" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>19</v>
-      </c>
-      <c r="R218" t="s">
-        <v>113</v>
-      </c>
-      <c r="S218" t="s">
-        <v>336</v>
-      </c>
-      <c r="T218" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20">
-      <c r="A219" s="2">
-        <f t="shared" si="13"/>
-        <v>218</v>
-      </c>
-      <c r="B219" s="2">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>109</v>
-      </c>
-      <c r="D219" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219">
-        <v>2000</v>
-      </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219">
-        <v>2009</v>
-      </c>
-      <c r="I219">
-        <v>12</v>
-      </c>
-      <c r="J219">
-        <v>31</v>
-      </c>
-      <c r="K219">
-        <v>256</v>
-      </c>
-      <c r="L219">
-        <f t="shared" si="17"/>
-        <v>1.40625</v>
-      </c>
       <c r="M219">
         <v>128</v>
       </c>
       <c r="N219">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.40625</v>
       </c>
       <c r="O219" t="s">
@@ -16077,7 +16080,7 @@
     </row>
     <row r="220" spans="1:20">
       <c r="A220" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>219</v>
       </c>
       <c r="B220" s="2">
@@ -16111,14 +16114,14 @@
         <v>96</v>
       </c>
       <c r="L220">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.75</v>
       </c>
       <c r="M220">
         <v>73</v>
       </c>
       <c r="N220">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O220" t="s">
@@ -16142,7 +16145,7 @@
     </row>
     <row r="221" spans="1:20">
       <c r="A221" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="B221" s="2">
@@ -16176,14 +16179,14 @@
         <v>96</v>
       </c>
       <c r="L221">
-        <f t="shared" ref="L221:L239" si="19">360/K221</f>
+        <f t="shared" ref="L221:L239" si="20">360/K221</f>
         <v>3.75</v>
       </c>
       <c r="M221">
         <v>73</v>
       </c>
       <c r="N221">
-        <f t="shared" ref="N221:N239" si="20">180/M221</f>
+        <f t="shared" ref="N221:N239" si="21">180/M221</f>
         <v>2.4657534246575343</v>
       </c>
       <c r="O221" t="s">
@@ -16207,7 +16210,7 @@
     </row>
     <row r="222" spans="1:20">
       <c r="A222" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>221</v>
       </c>
       <c r="B222" s="2">
@@ -16241,14 +16244,14 @@
         <v>96</v>
       </c>
       <c r="L222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M222">
         <v>73</v>
       </c>
       <c r="N222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O222" t="s">
@@ -16272,7 +16275,7 @@
     </row>
     <row r="223" spans="1:20">
       <c r="A223" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>222</v>
       </c>
       <c r="B223" s="2">
@@ -16306,14 +16309,14 @@
         <v>96</v>
       </c>
       <c r="L223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M223">
         <v>73</v>
       </c>
       <c r="N223">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O223" t="s">
@@ -16337,7 +16340,7 @@
     </row>
     <row r="224" spans="1:20">
       <c r="A224" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>223</v>
       </c>
       <c r="B224" s="2">
@@ -16371,14 +16374,14 @@
         <v>96</v>
       </c>
       <c r="L224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M224">
         <v>73</v>
       </c>
       <c r="N224">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O224" t="s">
@@ -16402,7 +16405,7 @@
     </row>
     <row r="225" spans="1:20">
       <c r="A225" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="B225" s="2">
@@ -16436,14 +16439,14 @@
         <v>96</v>
       </c>
       <c r="L225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M225">
         <v>73</v>
       </c>
       <c r="N225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O225" t="s">
@@ -16467,7 +16470,7 @@
     </row>
     <row r="226" spans="1:20">
       <c r="A226" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>225</v>
       </c>
       <c r="B226" s="2">
@@ -16501,14 +16504,14 @@
         <v>96</v>
       </c>
       <c r="L226">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M226">
         <v>73</v>
       </c>
       <c r="N226">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O226" t="s">
@@ -16532,7 +16535,7 @@
     </row>
     <row r="227" spans="1:20">
       <c r="A227" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>226</v>
       </c>
       <c r="B227" s="2">
@@ -16566,14 +16569,14 @@
         <v>96</v>
       </c>
       <c r="L227">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M227">
         <v>73</v>
       </c>
       <c r="N227">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O227" t="s">
@@ -16597,7 +16600,7 @@
     </row>
     <row r="228" spans="1:20">
       <c r="A228" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>227</v>
       </c>
       <c r="B228" s="2">
@@ -16631,14 +16634,14 @@
         <v>96</v>
       </c>
       <c r="L228">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M228">
         <v>73</v>
       </c>
       <c r="N228">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O228" t="s">
@@ -16662,7 +16665,7 @@
     </row>
     <row r="229" spans="1:20">
       <c r="A229" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>228</v>
       </c>
       <c r="B229" s="2">
@@ -16696,14 +16699,14 @@
         <v>96</v>
       </c>
       <c r="L229">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M229">
         <v>73</v>
       </c>
       <c r="N229">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O229" t="s">
@@ -16727,7 +16730,7 @@
     </row>
     <row r="230" spans="1:20">
       <c r="A230" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>229</v>
       </c>
       <c r="B230" s="2">
@@ -16761,14 +16764,14 @@
         <v>96</v>
       </c>
       <c r="L230">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M230">
         <v>73</v>
       </c>
       <c r="N230">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O230" t="s">
@@ -16792,7 +16795,7 @@
     </row>
     <row r="231" spans="1:20">
       <c r="A231" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>230</v>
       </c>
       <c r="B231" s="2">
@@ -16826,14 +16829,14 @@
         <v>96</v>
       </c>
       <c r="L231">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M231">
         <v>73</v>
       </c>
       <c r="N231">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O231" t="s">
@@ -16857,7 +16860,7 @@
     </row>
     <row r="232" spans="1:20">
       <c r="A232" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>231</v>
       </c>
       <c r="B232" s="2">
@@ -16891,14 +16894,14 @@
         <v>96</v>
       </c>
       <c r="L232">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M232">
         <v>73</v>
       </c>
       <c r="N232">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O232" t="s">
@@ -16922,7 +16925,7 @@
     </row>
     <row r="233" spans="1:20">
       <c r="A233" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>232</v>
       </c>
       <c r="B233" s="2">
@@ -16956,14 +16959,14 @@
         <v>96</v>
       </c>
       <c r="L233">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M233">
         <v>73</v>
       </c>
       <c r="N233">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O233" t="s">
@@ -16987,7 +16990,7 @@
     </row>
     <row r="234" spans="1:20">
       <c r="A234" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>233</v>
       </c>
       <c r="B234" s="2">
@@ -17021,14 +17024,14 @@
         <v>96</v>
       </c>
       <c r="L234">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M234">
         <v>73</v>
       </c>
       <c r="N234">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O234" t="s">
@@ -17052,7 +17055,7 @@
     </row>
     <row r="235" spans="1:20">
       <c r="A235" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>234</v>
       </c>
       <c r="B235" s="2">
@@ -17086,14 +17089,14 @@
         <v>96</v>
       </c>
       <c r="L235">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M235">
         <v>73</v>
       </c>
       <c r="N235">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O235" t="s">
@@ -17117,7 +17120,7 @@
     </row>
     <row r="236" spans="1:20">
       <c r="A236" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
       <c r="B236" s="2">
@@ -17151,14 +17154,14 @@
         <v>96</v>
       </c>
       <c r="L236">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M236">
         <v>73</v>
       </c>
       <c r="N236">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O236" t="s">
@@ -17182,7 +17185,7 @@
     </row>
     <row r="237" spans="1:20">
       <c r="A237" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>236</v>
       </c>
       <c r="B237" s="2">
@@ -17216,14 +17219,14 @@
         <v>96</v>
       </c>
       <c r="L237">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M237">
         <v>73</v>
       </c>
       <c r="N237">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O237" t="s">
@@ -17247,7 +17250,7 @@
     </row>
     <row r="238" spans="1:20">
       <c r="A238" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>237</v>
       </c>
       <c r="B238" s="2">
@@ -17281,14 +17284,14 @@
         <v>96</v>
       </c>
       <c r="L238">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M238">
         <v>73</v>
       </c>
       <c r="N238">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O238" t="s">
@@ -17312,7 +17315,7 @@
     </row>
     <row r="239" spans="1:20">
       <c r="A239" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>238</v>
       </c>
       <c r="B239" s="2">
@@ -17346,14 +17349,14 @@
         <v>96</v>
       </c>
       <c r="L239">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.75</v>
       </c>
       <c r="M239">
         <v>73</v>
       </c>
       <c r="N239">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4657534246575343</v>
       </c>
       <c r="O239" t="s">
@@ -17377,7 +17380,7 @@
     </row>
     <row r="240" spans="1:20">
       <c r="A240" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>239</v>
       </c>
       <c r="B240" s="2">
@@ -17411,14 +17414,14 @@
         <v>192</v>
       </c>
       <c r="L240">
-        <f t="shared" ref="L240:L303" si="21">360/K240</f>
+        <f t="shared" ref="L240:L303" si="22">360/K240</f>
         <v>1.875</v>
       </c>
       <c r="M240">
         <v>145</v>
       </c>
       <c r="N240">
-        <f t="shared" ref="N240:N303" si="22">180/M240</f>
+        <f t="shared" ref="N240:N303" si="23">180/M240</f>
         <v>1.2413793103448276</v>
       </c>
       <c r="O240" t="s">
@@ -17442,7 +17445,7 @@
     </row>
     <row r="241" spans="1:20">
       <c r="A241" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="B241" s="2">
@@ -17476,14 +17479,14 @@
         <v>192</v>
       </c>
       <c r="L241">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M241">
         <v>145</v>
       </c>
       <c r="N241">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O241" t="s">
@@ -17507,7 +17510,7 @@
     </row>
     <row r="242" spans="1:20">
       <c r="A242" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>241</v>
       </c>
       <c r="B242" s="2">
@@ -17541,14 +17544,14 @@
         <v>192</v>
       </c>
       <c r="L242">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M242">
         <v>145</v>
       </c>
       <c r="N242">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O242" t="s">
@@ -17572,7 +17575,7 @@
     </row>
     <row r="243" spans="1:20">
       <c r="A243" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>242</v>
       </c>
       <c r="B243" s="2">
@@ -17606,14 +17609,14 @@
         <v>192</v>
       </c>
       <c r="L243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M243">
         <v>145</v>
       </c>
       <c r="N243">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O243" t="s">
@@ -17637,7 +17640,7 @@
     </row>
     <row r="244" spans="1:20">
       <c r="A244" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>243</v>
       </c>
       <c r="B244" s="2">
@@ -17671,14 +17674,14 @@
         <v>192</v>
       </c>
       <c r="L244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M244">
         <v>145</v>
       </c>
       <c r="N244">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O244" t="s">
@@ -17702,7 +17705,7 @@
     </row>
     <row r="245" spans="1:20">
       <c r="A245" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>244</v>
       </c>
       <c r="B245" s="2">
@@ -17736,14 +17739,14 @@
         <v>192</v>
       </c>
       <c r="L245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M245">
         <v>145</v>
       </c>
       <c r="N245">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O245" t="s">
@@ -17767,7 +17770,7 @@
     </row>
     <row r="246" spans="1:20">
       <c r="A246" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>245</v>
       </c>
       <c r="B246" s="2">
@@ -17801,14 +17804,14 @@
         <v>192</v>
       </c>
       <c r="L246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M246">
         <v>145</v>
       </c>
       <c r="N246">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O246" t="s">
@@ -17832,7 +17835,7 @@
     </row>
     <row r="247" spans="1:20">
       <c r="A247" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>246</v>
       </c>
       <c r="B247" s="2">
@@ -17866,14 +17869,14 @@
         <v>192</v>
       </c>
       <c r="L247">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M247">
         <v>145</v>
       </c>
       <c r="N247">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O247" t="s">
@@ -17897,7 +17900,7 @@
     </row>
     <row r="248" spans="1:20">
       <c r="A248" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>247</v>
       </c>
       <c r="B248" s="2">
@@ -17931,14 +17934,14 @@
         <v>192</v>
       </c>
       <c r="L248">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M248">
         <v>145</v>
       </c>
       <c r="N248">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O248" t="s">
@@ -17962,7 +17965,7 @@
     </row>
     <row r="249" spans="1:20">
       <c r="A249" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>248</v>
       </c>
       <c r="B249" s="2">
@@ -17996,14 +17999,14 @@
         <v>192</v>
       </c>
       <c r="L249">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M249">
         <v>145</v>
       </c>
       <c r="N249">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O249" t="s">
@@ -18027,7 +18030,7 @@
     </row>
     <row r="250" spans="1:20">
       <c r="A250" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>249</v>
       </c>
       <c r="B250" s="2">
@@ -18061,14 +18064,14 @@
         <v>192</v>
       </c>
       <c r="L250">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M250">
         <v>145</v>
       </c>
       <c r="N250">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O250" t="s">
@@ -18092,7 +18095,7 @@
     </row>
     <row r="251" spans="1:20">
       <c r="A251" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="B251" s="2">
@@ -18126,14 +18129,14 @@
         <v>192</v>
       </c>
       <c r="L251">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M251">
         <v>145</v>
       </c>
       <c r="N251">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O251" t="s">
@@ -18157,7 +18160,7 @@
     </row>
     <row r="252" spans="1:20">
       <c r="A252" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>251</v>
       </c>
       <c r="B252" s="2">
@@ -18191,14 +18194,14 @@
         <v>192</v>
       </c>
       <c r="L252">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M252">
         <v>145</v>
       </c>
       <c r="N252">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O252" t="s">
@@ -18222,7 +18225,7 @@
     </row>
     <row r="253" spans="1:20">
       <c r="A253" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>252</v>
       </c>
       <c r="B253" s="2">
@@ -18256,14 +18259,14 @@
         <v>192</v>
       </c>
       <c r="L253">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M253">
         <v>145</v>
       </c>
       <c r="N253">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O253" t="s">
@@ -18287,7 +18290,7 @@
     </row>
     <row r="254" spans="1:20">
       <c r="A254" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>253</v>
       </c>
       <c r="B254" s="2">
@@ -18321,14 +18324,14 @@
         <v>192</v>
       </c>
       <c r="L254">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M254">
         <v>145</v>
       </c>
       <c r="N254">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O254" t="s">
@@ -18386,14 +18389,14 @@
         <v>192</v>
       </c>
       <c r="L255">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M255">
         <v>145</v>
       </c>
       <c r="N255">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O255" t="s">
@@ -18417,7 +18420,7 @@
     </row>
     <row r="256" spans="1:20">
       <c r="A256" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>255</v>
       </c>
       <c r="B256" s="2">
@@ -18451,14 +18454,14 @@
         <v>192</v>
       </c>
       <c r="L256">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M256">
         <v>145</v>
       </c>
       <c r="N256">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O256" t="s">
@@ -18482,7 +18485,7 @@
     </row>
     <row r="257" spans="1:20">
       <c r="A257" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="B257" s="2">
@@ -18516,14 +18519,14 @@
         <v>192</v>
       </c>
       <c r="L257">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M257">
         <v>145</v>
       </c>
       <c r="N257">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O257" t="s">
@@ -18547,7 +18550,7 @@
     </row>
     <row r="258" spans="1:20">
       <c r="A258" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>257</v>
       </c>
       <c r="B258" s="2">
@@ -18581,14 +18584,14 @@
         <v>192</v>
       </c>
       <c r="L258">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M258">
         <v>145</v>
       </c>
       <c r="N258">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O258" t="s">
@@ -18612,7 +18615,7 @@
     </row>
     <row r="259" spans="1:20">
       <c r="A259" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>258</v>
       </c>
       <c r="B259" s="2">
@@ -18646,14 +18649,14 @@
         <v>192</v>
       </c>
       <c r="L259">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M259">
         <v>145</v>
       </c>
       <c r="N259">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O259" t="s">
@@ -18711,14 +18714,14 @@
         <v>192</v>
       </c>
       <c r="L260">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M260">
         <v>145</v>
       </c>
       <c r="N260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O260" t="s">
@@ -18742,7 +18745,7 @@
     </row>
     <row r="261" spans="1:20">
       <c r="A261" s="2">
-        <f t="shared" ref="A261:A318" si="23">A260+1</f>
+        <f t="shared" ref="A261:A318" si="24">A260+1</f>
         <v>260</v>
       </c>
       <c r="B261" s="2">
@@ -18776,14 +18779,14 @@
         <v>192</v>
       </c>
       <c r="L261">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M261">
         <v>145</v>
       </c>
       <c r="N261">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O261" t="s">
@@ -18807,7 +18810,7 @@
     </row>
     <row r="262" spans="1:20">
       <c r="A262" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>261</v>
       </c>
       <c r="B262" s="2">
@@ -18841,14 +18844,14 @@
         <v>192</v>
       </c>
       <c r="L262">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M262">
         <v>145</v>
       </c>
       <c r="N262">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O262" t="s">
@@ -18872,7 +18875,7 @@
     </row>
     <row r="263" spans="1:20">
       <c r="A263" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>262</v>
       </c>
       <c r="B263" s="2">
@@ -18906,14 +18909,14 @@
         <v>192</v>
       </c>
       <c r="L263">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M263">
         <v>145</v>
       </c>
       <c r="N263">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O263" t="s">
@@ -18937,7 +18940,7 @@
     </row>
     <row r="264" spans="1:20">
       <c r="A264" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>263</v>
       </c>
       <c r="B264" s="2">
@@ -18971,14 +18974,14 @@
         <v>192</v>
       </c>
       <c r="L264">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M264">
         <v>145</v>
       </c>
       <c r="N264">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O264" t="s">
@@ -19002,7 +19005,7 @@
     </row>
     <row r="265" spans="1:20">
       <c r="A265" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>264</v>
       </c>
       <c r="B265" s="2">
@@ -19036,14 +19039,14 @@
         <v>192</v>
       </c>
       <c r="L265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M265">
         <v>145</v>
       </c>
       <c r="N265">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O265" t="s">
@@ -19067,7 +19070,7 @@
     </row>
     <row r="266" spans="1:20">
       <c r="A266" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>265</v>
       </c>
       <c r="B266" s="2">
@@ -19101,14 +19104,14 @@
         <v>192</v>
       </c>
       <c r="L266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M266">
         <v>145</v>
       </c>
       <c r="N266">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O266" t="s">
@@ -19132,7 +19135,7 @@
     </row>
     <row r="267" spans="1:20">
       <c r="A267" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>266</v>
       </c>
       <c r="B267" s="2">
@@ -19166,14 +19169,14 @@
         <v>192</v>
       </c>
       <c r="L267">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M267">
         <v>145</v>
       </c>
       <c r="N267">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O267" t="s">
@@ -19197,7 +19200,7 @@
     </row>
     <row r="268" spans="1:20">
       <c r="A268" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>267</v>
       </c>
       <c r="B268" s="2">
@@ -19231,14 +19234,14 @@
         <v>192</v>
       </c>
       <c r="L268">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M268">
         <v>145</v>
       </c>
       <c r="N268">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O268" t="s">
@@ -19262,7 +19265,7 @@
     </row>
     <row r="269" spans="1:20">
       <c r="A269" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>268</v>
       </c>
       <c r="B269" s="2">
@@ -19296,14 +19299,14 @@
         <v>192</v>
       </c>
       <c r="L269">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M269">
         <v>145</v>
       </c>
       <c r="N269">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O269" t="s">
@@ -19327,7 +19330,7 @@
     </row>
     <row r="270" spans="1:20">
       <c r="A270" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>269</v>
       </c>
       <c r="B270" s="2">
@@ -19361,924 +19364,924 @@
         <v>192</v>
       </c>
       <c r="L270">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
       <c r="M270">
         <v>96</v>
       </c>
       <c r="N270">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O270" t="s">
+        <v>41</v>
+      </c>
+      <c r="P270" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>19</v>
+      </c>
+      <c r="R270" t="s">
+        <v>146</v>
+      </c>
+      <c r="S270" t="s">
+        <v>379</v>
+      </c>
+      <c r="T270" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20">
+      <c r="A271" s="2">
+        <f t="shared" si="24"/>
+        <v>270</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>145</v>
+      </c>
+      <c r="D271" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271">
+        <v>1970</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>1979</v>
+      </c>
+      <c r="I271">
+        <v>12</v>
+      </c>
+      <c r="J271">
+        <v>31</v>
+      </c>
+      <c r="K271">
+        <v>192</v>
+      </c>
+      <c r="L271">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O270" t="s">
-        <v>41</v>
-      </c>
-      <c r="P270" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>19</v>
-      </c>
-      <c r="R270" t="s">
-        <v>146</v>
-      </c>
-      <c r="S270" t="s">
-        <v>379</v>
-      </c>
-      <c r="T270" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20">
-      <c r="A271" s="2">
-        <f t="shared" si="23"/>
-        <v>270</v>
-      </c>
-      <c r="B271" s="2">
-        <v>1</v>
-      </c>
-      <c r="C271" t="s">
-        <v>145</v>
-      </c>
-      <c r="D271" t="s">
-        <v>3</v>
-      </c>
-      <c r="E271">
-        <v>1970</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="G271">
-        <v>1</v>
-      </c>
-      <c r="H271">
-        <v>1979</v>
-      </c>
-      <c r="I271">
-        <v>12</v>
-      </c>
-      <c r="J271">
-        <v>31</v>
-      </c>
-      <c r="K271">
-        <v>192</v>
-      </c>
-      <c r="L271">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M271">
         <v>96</v>
       </c>
       <c r="N271">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O271" t="s">
+        <v>41</v>
+      </c>
+      <c r="P271" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>19</v>
+      </c>
+      <c r="R271" t="s">
+        <v>147</v>
+      </c>
+      <c r="S271" t="s">
+        <v>380</v>
+      </c>
+      <c r="T271" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
+      <c r="A272" s="2">
+        <f t="shared" si="24"/>
+        <v>271</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>145</v>
+      </c>
+      <c r="D272" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>1980</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>1989</v>
+      </c>
+      <c r="I272">
+        <v>12</v>
+      </c>
+      <c r="J272">
+        <v>31</v>
+      </c>
+      <c r="K272">
+        <v>192</v>
+      </c>
+      <c r="L272">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O271" t="s">
-        <v>41</v>
-      </c>
-      <c r="P271" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q271" t="s">
-        <v>19</v>
-      </c>
-      <c r="R271" t="s">
-        <v>147</v>
-      </c>
-      <c r="S271" t="s">
-        <v>380</v>
-      </c>
-      <c r="T271" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20">
-      <c r="A272" s="2">
-        <f t="shared" si="23"/>
-        <v>271</v>
-      </c>
-      <c r="B272" s="2">
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
-        <v>145</v>
-      </c>
-      <c r="D272" t="s">
-        <v>3</v>
-      </c>
-      <c r="E272">
-        <v>1980</v>
-      </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="G272">
-        <v>1</v>
-      </c>
-      <c r="H272">
-        <v>1989</v>
-      </c>
-      <c r="I272">
-        <v>12</v>
-      </c>
-      <c r="J272">
-        <v>31</v>
-      </c>
-      <c r="K272">
-        <v>192</v>
-      </c>
-      <c r="L272">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M272">
         <v>96</v>
       </c>
       <c r="N272">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O272" t="s">
+        <v>41</v>
+      </c>
+      <c r="P272" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>19</v>
+      </c>
+      <c r="R272" t="s">
+        <v>148</v>
+      </c>
+      <c r="S272" t="s">
+        <v>381</v>
+      </c>
+      <c r="T272" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
+      <c r="A273" s="2">
+        <f t="shared" si="24"/>
+        <v>272</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>145</v>
+      </c>
+      <c r="D273" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273">
+        <v>1990</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>1999</v>
+      </c>
+      <c r="I273">
+        <v>12</v>
+      </c>
+      <c r="J273">
+        <v>31</v>
+      </c>
+      <c r="K273">
+        <v>192</v>
+      </c>
+      <c r="L273">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O272" t="s">
-        <v>41</v>
-      </c>
-      <c r="P272" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q272" t="s">
-        <v>19</v>
-      </c>
-      <c r="R272" t="s">
-        <v>148</v>
-      </c>
-      <c r="S272" t="s">
-        <v>381</v>
-      </c>
-      <c r="T272" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="273" spans="1:20">
-      <c r="A273" s="2">
-        <f t="shared" si="23"/>
-        <v>272</v>
-      </c>
-      <c r="B273" s="2">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
-        <v>145</v>
-      </c>
-      <c r="D273" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273">
-        <v>1990</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>1999</v>
-      </c>
-      <c r="I273">
-        <v>12</v>
-      </c>
-      <c r="J273">
-        <v>31</v>
-      </c>
-      <c r="K273">
-        <v>192</v>
-      </c>
-      <c r="L273">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M273">
         <v>96</v>
       </c>
       <c r="N273">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O273" t="s">
+        <v>41</v>
+      </c>
+      <c r="P273" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>19</v>
+      </c>
+      <c r="R273" t="s">
+        <v>149</v>
+      </c>
+      <c r="S273" t="s">
+        <v>382</v>
+      </c>
+      <c r="T273" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
+      <c r="A274" s="2">
+        <f t="shared" si="24"/>
+        <v>273</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>145</v>
+      </c>
+      <c r="D274" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274">
+        <v>2000</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>2005</v>
+      </c>
+      <c r="I274">
+        <v>12</v>
+      </c>
+      <c r="J274">
+        <v>31</v>
+      </c>
+      <c r="K274">
+        <v>192</v>
+      </c>
+      <c r="L274">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O273" t="s">
-        <v>41</v>
-      </c>
-      <c r="P273" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q273" t="s">
-        <v>19</v>
-      </c>
-      <c r="R273" t="s">
-        <v>149</v>
-      </c>
-      <c r="S273" t="s">
-        <v>382</v>
-      </c>
-      <c r="T273" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20">
-      <c r="A274" s="2">
-        <f t="shared" si="23"/>
-        <v>273</v>
-      </c>
-      <c r="B274" s="2">
-        <v>1</v>
-      </c>
-      <c r="C274" t="s">
-        <v>145</v>
-      </c>
-      <c r="D274" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274">
-        <v>2000</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>2005</v>
-      </c>
-      <c r="I274">
-        <v>12</v>
-      </c>
-      <c r="J274">
-        <v>31</v>
-      </c>
-      <c r="K274">
-        <v>192</v>
-      </c>
-      <c r="L274">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M274">
         <v>96</v>
       </c>
       <c r="N274">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O274" t="s">
+        <v>41</v>
+      </c>
+      <c r="P274" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>19</v>
+      </c>
+      <c r="R274" t="s">
+        <v>150</v>
+      </c>
+      <c r="S274" t="s">
+        <v>383</v>
+      </c>
+      <c r="T274" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
+      <c r="A275" s="2">
+        <f t="shared" si="24"/>
+        <v>274</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2</v>
+      </c>
+      <c r="C275" t="s">
+        <v>145</v>
+      </c>
+      <c r="D275" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275">
+        <v>1960</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1969</v>
+      </c>
+      <c r="I275">
+        <v>12</v>
+      </c>
+      <c r="J275">
+        <v>31</v>
+      </c>
+      <c r="K275">
+        <v>192</v>
+      </c>
+      <c r="L275">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O274" t="s">
-        <v>41</v>
-      </c>
-      <c r="P274" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q274" t="s">
-        <v>19</v>
-      </c>
-      <c r="R274" t="s">
-        <v>150</v>
-      </c>
-      <c r="S274" t="s">
-        <v>383</v>
-      </c>
-      <c r="T274" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20">
-      <c r="A275" s="2">
-        <f t="shared" si="23"/>
-        <v>274</v>
-      </c>
-      <c r="B275" s="2">
-        <v>2</v>
-      </c>
-      <c r="C275" t="s">
-        <v>145</v>
-      </c>
-      <c r="D275" t="s">
-        <v>23</v>
-      </c>
-      <c r="E275">
-        <v>1960</v>
-      </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="G275">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>1969</v>
-      </c>
-      <c r="I275">
-        <v>12</v>
-      </c>
-      <c r="J275">
-        <v>31</v>
-      </c>
-      <c r="K275">
-        <v>192</v>
-      </c>
-      <c r="L275">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M275">
         <v>96</v>
       </c>
       <c r="N275">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O275" t="s">
+        <v>41</v>
+      </c>
+      <c r="P275" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>19</v>
+      </c>
+      <c r="R275" t="s">
+        <v>151</v>
+      </c>
+      <c r="S275" t="s">
+        <v>384</v>
+      </c>
+      <c r="T275" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
+      <c r="A276" s="2">
+        <f t="shared" si="24"/>
+        <v>275</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>145</v>
+      </c>
+      <c r="D276" t="s">
+        <v>23</v>
+      </c>
+      <c r="E276">
+        <v>1970</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>1979</v>
+      </c>
+      <c r="I276">
+        <v>12</v>
+      </c>
+      <c r="J276">
+        <v>31</v>
+      </c>
+      <c r="K276">
+        <v>192</v>
+      </c>
+      <c r="L276">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O275" t="s">
-        <v>41</v>
-      </c>
-      <c r="P275" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q275" t="s">
-        <v>19</v>
-      </c>
-      <c r="R275" t="s">
-        <v>151</v>
-      </c>
-      <c r="S275" t="s">
-        <v>384</v>
-      </c>
-      <c r="T275" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20">
-      <c r="A276" s="2">
-        <f t="shared" si="23"/>
-        <v>275</v>
-      </c>
-      <c r="B276" s="2">
-        <v>2</v>
-      </c>
-      <c r="C276" t="s">
-        <v>145</v>
-      </c>
-      <c r="D276" t="s">
-        <v>23</v>
-      </c>
-      <c r="E276">
-        <v>1970</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="H276">
-        <v>1979</v>
-      </c>
-      <c r="I276">
-        <v>12</v>
-      </c>
-      <c r="J276">
-        <v>31</v>
-      </c>
-      <c r="K276">
-        <v>192</v>
-      </c>
-      <c r="L276">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M276">
         <v>96</v>
       </c>
       <c r="N276">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O276" t="s">
+        <v>41</v>
+      </c>
+      <c r="P276" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>19</v>
+      </c>
+      <c r="R276" t="s">
+        <v>152</v>
+      </c>
+      <c r="S276" t="s">
+        <v>385</v>
+      </c>
+      <c r="T276" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
+      <c r="A277" s="2">
+        <f t="shared" si="24"/>
+        <v>276</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>145</v>
+      </c>
+      <c r="D277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277">
+        <v>1980</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>1989</v>
+      </c>
+      <c r="I277">
+        <v>12</v>
+      </c>
+      <c r="J277">
+        <v>31</v>
+      </c>
+      <c r="K277">
+        <v>192</v>
+      </c>
+      <c r="L277">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O276" t="s">
-        <v>41</v>
-      </c>
-      <c r="P276" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q276" t="s">
-        <v>19</v>
-      </c>
-      <c r="R276" t="s">
-        <v>152</v>
-      </c>
-      <c r="S276" t="s">
-        <v>385</v>
-      </c>
-      <c r="T276" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="277" spans="1:20">
-      <c r="A277" s="2">
-        <f t="shared" si="23"/>
-        <v>276</v>
-      </c>
-      <c r="B277" s="2">
-        <v>2</v>
-      </c>
-      <c r="C277" t="s">
-        <v>145</v>
-      </c>
-      <c r="D277" t="s">
-        <v>23</v>
-      </c>
-      <c r="E277">
-        <v>1980</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="H277">
-        <v>1989</v>
-      </c>
-      <c r="I277">
-        <v>12</v>
-      </c>
-      <c r="J277">
-        <v>31</v>
-      </c>
-      <c r="K277">
-        <v>192</v>
-      </c>
-      <c r="L277">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M277">
         <v>96</v>
       </c>
       <c r="N277">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O277" t="s">
+        <v>41</v>
+      </c>
+      <c r="P277" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>19</v>
+      </c>
+      <c r="R277" t="s">
+        <v>153</v>
+      </c>
+      <c r="S277" t="s">
+        <v>386</v>
+      </c>
+      <c r="T277" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
+      <c r="A278" s="2">
+        <f t="shared" si="24"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>145</v>
+      </c>
+      <c r="D278" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278">
+        <v>1990</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>1999</v>
+      </c>
+      <c r="I278">
+        <v>12</v>
+      </c>
+      <c r="J278">
+        <v>31</v>
+      </c>
+      <c r="K278">
+        <v>192</v>
+      </c>
+      <c r="L278">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O277" t="s">
-        <v>41</v>
-      </c>
-      <c r="P277" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q277" t="s">
-        <v>19</v>
-      </c>
-      <c r="R277" t="s">
-        <v>153</v>
-      </c>
-      <c r="S277" t="s">
-        <v>386</v>
-      </c>
-      <c r="T277" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="278" spans="1:20">
-      <c r="A278" s="2">
-        <f t="shared" si="23"/>
-        <v>277</v>
-      </c>
-      <c r="B278" s="2">
-        <v>2</v>
-      </c>
-      <c r="C278" t="s">
-        <v>145</v>
-      </c>
-      <c r="D278" t="s">
-        <v>23</v>
-      </c>
-      <c r="E278">
-        <v>1990</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="H278">
-        <v>1999</v>
-      </c>
-      <c r="I278">
-        <v>12</v>
-      </c>
-      <c r="J278">
-        <v>31</v>
-      </c>
-      <c r="K278">
-        <v>192</v>
-      </c>
-      <c r="L278">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M278">
         <v>96</v>
       </c>
       <c r="N278">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O278" t="s">
+        <v>41</v>
+      </c>
+      <c r="P278" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>19</v>
+      </c>
+      <c r="R278" t="s">
+        <v>154</v>
+      </c>
+      <c r="S278" t="s">
+        <v>387</v>
+      </c>
+      <c r="T278" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
+      <c r="A279" s="2">
+        <f t="shared" si="24"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>145</v>
+      </c>
+      <c r="D279" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279">
+        <v>2000</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>2005</v>
+      </c>
+      <c r="I279">
+        <v>12</v>
+      </c>
+      <c r="J279">
+        <v>31</v>
+      </c>
+      <c r="K279">
+        <v>192</v>
+      </c>
+      <c r="L279">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O278" t="s">
-        <v>41</v>
-      </c>
-      <c r="P278" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q278" t="s">
-        <v>19</v>
-      </c>
-      <c r="R278" t="s">
-        <v>154</v>
-      </c>
-      <c r="S278" t="s">
-        <v>387</v>
-      </c>
-      <c r="T278" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20">
-      <c r="A279" s="2">
-        <f t="shared" si="23"/>
-        <v>278</v>
-      </c>
-      <c r="B279" s="2">
-        <v>2</v>
-      </c>
-      <c r="C279" t="s">
-        <v>145</v>
-      </c>
-      <c r="D279" t="s">
-        <v>23</v>
-      </c>
-      <c r="E279">
-        <v>2000</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="H279">
-        <v>2005</v>
-      </c>
-      <c r="I279">
-        <v>12</v>
-      </c>
-      <c r="J279">
-        <v>31</v>
-      </c>
-      <c r="K279">
-        <v>192</v>
-      </c>
-      <c r="L279">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M279">
         <v>96</v>
       </c>
       <c r="N279">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O279" t="s">
+        <v>41</v>
+      </c>
+      <c r="P279" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>19</v>
+      </c>
+      <c r="R279" t="s">
+        <v>155</v>
+      </c>
+      <c r="S279" t="s">
+        <v>388</v>
+      </c>
+      <c r="T279" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
+      <c r="A280" s="2">
+        <f t="shared" si="24"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="2">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>145</v>
+      </c>
+      <c r="D280" t="s">
+        <v>24</v>
+      </c>
+      <c r="E280">
+        <v>1960</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1969</v>
+      </c>
+      <c r="I280">
+        <v>12</v>
+      </c>
+      <c r="J280">
+        <v>31</v>
+      </c>
+      <c r="K280">
+        <v>192</v>
+      </c>
+      <c r="L280">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O279" t="s">
-        <v>41</v>
-      </c>
-      <c r="P279" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q279" t="s">
-        <v>19</v>
-      </c>
-      <c r="R279" t="s">
-        <v>155</v>
-      </c>
-      <c r="S279" t="s">
-        <v>388</v>
-      </c>
-      <c r="T279" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="280" spans="1:20">
-      <c r="A280" s="2">
-        <f t="shared" si="23"/>
-        <v>279</v>
-      </c>
-      <c r="B280" s="2">
-        <v>3</v>
-      </c>
-      <c r="C280" t="s">
-        <v>145</v>
-      </c>
-      <c r="D280" t="s">
-        <v>24</v>
-      </c>
-      <c r="E280">
-        <v>1960</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280">
-        <v>1</v>
-      </c>
-      <c r="H280">
-        <v>1969</v>
-      </c>
-      <c r="I280">
-        <v>12</v>
-      </c>
-      <c r="J280">
-        <v>31</v>
-      </c>
-      <c r="K280">
-        <v>192</v>
-      </c>
-      <c r="L280">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M280">
         <v>96</v>
       </c>
       <c r="N280">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O280" t="s">
+        <v>41</v>
+      </c>
+      <c r="P280" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>19</v>
+      </c>
+      <c r="R280" t="s">
+        <v>156</v>
+      </c>
+      <c r="S280" t="s">
+        <v>389</v>
+      </c>
+      <c r="T280" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
+      <c r="A281" s="2">
+        <f t="shared" si="24"/>
+        <v>280</v>
+      </c>
+      <c r="B281" s="2">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>145</v>
+      </c>
+      <c r="D281" t="s">
+        <v>24</v>
+      </c>
+      <c r="E281">
+        <v>1970</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1979</v>
+      </c>
+      <c r="I281">
+        <v>12</v>
+      </c>
+      <c r="J281">
+        <v>31</v>
+      </c>
+      <c r="K281">
+        <v>192</v>
+      </c>
+      <c r="L281">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O280" t="s">
-        <v>41</v>
-      </c>
-      <c r="P280" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>19</v>
-      </c>
-      <c r="R280" t="s">
-        <v>156</v>
-      </c>
-      <c r="S280" t="s">
-        <v>389</v>
-      </c>
-      <c r="T280" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="281" spans="1:20">
-      <c r="A281" s="2">
-        <f t="shared" si="23"/>
-        <v>280</v>
-      </c>
-      <c r="B281" s="2">
-        <v>3</v>
-      </c>
-      <c r="C281" t="s">
-        <v>145</v>
-      </c>
-      <c r="D281" t="s">
-        <v>24</v>
-      </c>
-      <c r="E281">
-        <v>1970</v>
-      </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-      <c r="G281">
-        <v>1</v>
-      </c>
-      <c r="H281">
-        <v>1979</v>
-      </c>
-      <c r="I281">
-        <v>12</v>
-      </c>
-      <c r="J281">
-        <v>31</v>
-      </c>
-      <c r="K281">
-        <v>192</v>
-      </c>
-      <c r="L281">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M281">
         <v>96</v>
       </c>
       <c r="N281">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O281" t="s">
+        <v>41</v>
+      </c>
+      <c r="P281" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>19</v>
+      </c>
+      <c r="R281" t="s">
+        <v>157</v>
+      </c>
+      <c r="S281" t="s">
+        <v>390</v>
+      </c>
+      <c r="T281" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
+      <c r="A282" s="2">
+        <f t="shared" si="24"/>
+        <v>281</v>
+      </c>
+      <c r="B282" s="2">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>145</v>
+      </c>
+      <c r="D282" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282">
+        <v>1980</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1989</v>
+      </c>
+      <c r="I282">
+        <v>12</v>
+      </c>
+      <c r="J282">
+        <v>31</v>
+      </c>
+      <c r="K282">
+        <v>192</v>
+      </c>
+      <c r="L282">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O281" t="s">
-        <v>41</v>
-      </c>
-      <c r="P281" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q281" t="s">
-        <v>19</v>
-      </c>
-      <c r="R281" t="s">
-        <v>157</v>
-      </c>
-      <c r="S281" t="s">
-        <v>390</v>
-      </c>
-      <c r="T281" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="282" spans="1:20">
-      <c r="A282" s="2">
-        <f t="shared" si="23"/>
-        <v>281</v>
-      </c>
-      <c r="B282" s="2">
-        <v>3</v>
-      </c>
-      <c r="C282" t="s">
-        <v>145</v>
-      </c>
-      <c r="D282" t="s">
-        <v>24</v>
-      </c>
-      <c r="E282">
-        <v>1980</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="H282">
-        <v>1989</v>
-      </c>
-      <c r="I282">
-        <v>12</v>
-      </c>
-      <c r="J282">
-        <v>31</v>
-      </c>
-      <c r="K282">
-        <v>192</v>
-      </c>
-      <c r="L282">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M282">
         <v>96</v>
       </c>
       <c r="N282">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O282" t="s">
+        <v>41</v>
+      </c>
+      <c r="P282" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>19</v>
+      </c>
+      <c r="R282" t="s">
+        <v>158</v>
+      </c>
+      <c r="S282" t="s">
+        <v>391</v>
+      </c>
+      <c r="T282" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
+      <c r="A283" s="2">
+        <f t="shared" si="24"/>
+        <v>282</v>
+      </c>
+      <c r="B283" s="2">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>145</v>
+      </c>
+      <c r="D283" t="s">
+        <v>24</v>
+      </c>
+      <c r="E283">
+        <v>1990</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>1999</v>
+      </c>
+      <c r="I283">
+        <v>12</v>
+      </c>
+      <c r="J283">
+        <v>31</v>
+      </c>
+      <c r="K283">
+        <v>192</v>
+      </c>
+      <c r="L283">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O282" t="s">
-        <v>41</v>
-      </c>
-      <c r="P282" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q282" t="s">
-        <v>19</v>
-      </c>
-      <c r="R282" t="s">
-        <v>158</v>
-      </c>
-      <c r="S282" t="s">
-        <v>391</v>
-      </c>
-      <c r="T282" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="283" spans="1:20">
-      <c r="A283" s="2">
-        <f t="shared" si="23"/>
-        <v>282</v>
-      </c>
-      <c r="B283" s="2">
-        <v>3</v>
-      </c>
-      <c r="C283" t="s">
-        <v>145</v>
-      </c>
-      <c r="D283" t="s">
-        <v>24</v>
-      </c>
-      <c r="E283">
-        <v>1990</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>1999</v>
-      </c>
-      <c r="I283">
-        <v>12</v>
-      </c>
-      <c r="J283">
-        <v>31</v>
-      </c>
-      <c r="K283">
-        <v>192</v>
-      </c>
-      <c r="L283">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M283">
         <v>96</v>
       </c>
       <c r="N283">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="O283" t="s">
+        <v>41</v>
+      </c>
+      <c r="P283" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>19</v>
+      </c>
+      <c r="R283" t="s">
+        <v>159</v>
+      </c>
+      <c r="S283" t="s">
+        <v>392</v>
+      </c>
+      <c r="T283" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
+      <c r="A284" s="2">
+        <f t="shared" si="24"/>
+        <v>283</v>
+      </c>
+      <c r="B284" s="2">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>145</v>
+      </c>
+      <c r="D284" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284">
+        <v>2000</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>2005</v>
+      </c>
+      <c r="I284">
+        <v>12</v>
+      </c>
+      <c r="J284">
+        <v>31</v>
+      </c>
+      <c r="K284">
+        <v>192</v>
+      </c>
+      <c r="L284">
         <f t="shared" si="22"/>
         <v>1.875</v>
       </c>
-      <c r="O283" t="s">
-        <v>41</v>
-      </c>
-      <c r="P283" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q283" t="s">
-        <v>19</v>
-      </c>
-      <c r="R283" t="s">
-        <v>159</v>
-      </c>
-      <c r="S283" t="s">
-        <v>392</v>
-      </c>
-      <c r="T283" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="284" spans="1:20">
-      <c r="A284" s="2">
-        <f t="shared" si="23"/>
-        <v>283</v>
-      </c>
-      <c r="B284" s="2">
-        <v>3</v>
-      </c>
-      <c r="C284" t="s">
-        <v>145</v>
-      </c>
-      <c r="D284" t="s">
-        <v>24</v>
-      </c>
-      <c r="E284">
-        <v>2000</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="H284">
-        <v>2005</v>
-      </c>
-      <c r="I284">
-        <v>12</v>
-      </c>
-      <c r="J284">
-        <v>31</v>
-      </c>
-      <c r="K284">
-        <v>192</v>
-      </c>
-      <c r="L284">
-        <f t="shared" si="21"/>
-        <v>1.875</v>
-      </c>
       <c r="M284">
         <v>96</v>
       </c>
       <c r="N284">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.875</v>
       </c>
       <c r="O284" t="s">
@@ -20302,7 +20305,7 @@
     </row>
     <row r="285" spans="1:20">
       <c r="A285" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>284</v>
       </c>
       <c r="B285" s="2">
@@ -20336,599 +20339,599 @@
         <v>320</v>
       </c>
       <c r="L285">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
       <c r="M285">
         <v>160</v>
       </c>
       <c r="N285">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O285" t="s">
+        <v>41</v>
+      </c>
+      <c r="P285" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>19</v>
+      </c>
+      <c r="R285" t="s">
+        <v>162</v>
+      </c>
+      <c r="S285" t="s">
+        <v>394</v>
+      </c>
+      <c r="T285" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" s="2">
+        <f t="shared" si="24"/>
+        <v>285</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>161</v>
+      </c>
+      <c r="D286" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286">
+        <v>1970</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1979</v>
+      </c>
+      <c r="I286">
+        <v>12</v>
+      </c>
+      <c r="J286">
+        <v>31</v>
+      </c>
+      <c r="K286">
+        <v>320</v>
+      </c>
+      <c r="L286">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O285" t="s">
-        <v>41</v>
-      </c>
-      <c r="P285" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>19</v>
-      </c>
-      <c r="R285" t="s">
-        <v>162</v>
-      </c>
-      <c r="S285" t="s">
-        <v>394</v>
-      </c>
-      <c r="T285" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20">
-      <c r="A286" s="2">
-        <f t="shared" si="23"/>
-        <v>285</v>
-      </c>
-      <c r="B286" s="2">
-        <v>1</v>
-      </c>
-      <c r="C286" t="s">
-        <v>161</v>
-      </c>
-      <c r="D286" t="s">
-        <v>3</v>
-      </c>
-      <c r="E286">
-        <v>1970</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="H286">
-        <v>1979</v>
-      </c>
-      <c r="I286">
-        <v>12</v>
-      </c>
-      <c r="J286">
-        <v>31</v>
-      </c>
-      <c r="K286">
-        <v>320</v>
-      </c>
-      <c r="L286">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M286">
         <v>160</v>
       </c>
       <c r="N286">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O286" t="s">
+        <v>41</v>
+      </c>
+      <c r="P286" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>19</v>
+      </c>
+      <c r="R286" t="s">
+        <v>163</v>
+      </c>
+      <c r="S286" t="s">
+        <v>395</v>
+      </c>
+      <c r="T286" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="A287" s="2">
+        <f t="shared" si="24"/>
+        <v>286</v>
+      </c>
+      <c r="B287" s="2">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>161</v>
+      </c>
+      <c r="D287" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>1980</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>1989</v>
+      </c>
+      <c r="I287">
+        <v>12</v>
+      </c>
+      <c r="J287">
+        <v>31</v>
+      </c>
+      <c r="K287">
+        <v>320</v>
+      </c>
+      <c r="L287">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O286" t="s">
-        <v>41</v>
-      </c>
-      <c r="P286" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q286" t="s">
-        <v>19</v>
-      </c>
-      <c r="R286" t="s">
-        <v>163</v>
-      </c>
-      <c r="S286" t="s">
-        <v>395</v>
-      </c>
-      <c r="T286" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20">
-      <c r="A287" s="2">
-        <f t="shared" si="23"/>
-        <v>286</v>
-      </c>
-      <c r="B287" s="2">
-        <v>1</v>
-      </c>
-      <c r="C287" t="s">
-        <v>161</v>
-      </c>
-      <c r="D287" t="s">
-        <v>3</v>
-      </c>
-      <c r="E287">
-        <v>1980</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>1989</v>
-      </c>
-      <c r="I287">
-        <v>12</v>
-      </c>
-      <c r="J287">
-        <v>31</v>
-      </c>
-      <c r="K287">
-        <v>320</v>
-      </c>
-      <c r="L287">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M287">
         <v>160</v>
       </c>
       <c r="N287">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O287" t="s">
+        <v>41</v>
+      </c>
+      <c r="P287" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>19</v>
+      </c>
+      <c r="R287" t="s">
+        <v>164</v>
+      </c>
+      <c r="S287" t="s">
+        <v>396</v>
+      </c>
+      <c r="T287" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
+      <c r="A288" s="2">
+        <f t="shared" si="24"/>
+        <v>287</v>
+      </c>
+      <c r="B288" s="2">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>161</v>
+      </c>
+      <c r="D288" t="s">
+        <v>3</v>
+      </c>
+      <c r="E288">
+        <v>1990</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>1999</v>
+      </c>
+      <c r="I288">
+        <v>12</v>
+      </c>
+      <c r="J288">
+        <v>31</v>
+      </c>
+      <c r="K288">
+        <v>320</v>
+      </c>
+      <c r="L288">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O287" t="s">
-        <v>41</v>
-      </c>
-      <c r="P287" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q287" t="s">
-        <v>19</v>
-      </c>
-      <c r="R287" t="s">
-        <v>164</v>
-      </c>
-      <c r="S287" t="s">
-        <v>396</v>
-      </c>
-      <c r="T287" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20">
-      <c r="A288" s="2">
-        <f t="shared" si="23"/>
-        <v>287</v>
-      </c>
-      <c r="B288" s="2">
-        <v>1</v>
-      </c>
-      <c r="C288" t="s">
-        <v>161</v>
-      </c>
-      <c r="D288" t="s">
-        <v>3</v>
-      </c>
-      <c r="E288">
-        <v>1990</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>1999</v>
-      </c>
-      <c r="I288">
-        <v>12</v>
-      </c>
-      <c r="J288">
-        <v>31</v>
-      </c>
-      <c r="K288">
-        <v>320</v>
-      </c>
-      <c r="L288">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M288">
         <v>160</v>
       </c>
       <c r="N288">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O288" t="s">
+        <v>41</v>
+      </c>
+      <c r="P288" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>19</v>
+      </c>
+      <c r="R288" t="s">
+        <v>165</v>
+      </c>
+      <c r="S288" t="s">
+        <v>397</v>
+      </c>
+      <c r="T288" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" s="2">
+        <f t="shared" si="24"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="2">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>161</v>
+      </c>
+      <c r="D289" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>2000</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>2005</v>
+      </c>
+      <c r="I289">
+        <v>12</v>
+      </c>
+      <c r="J289">
+        <v>31</v>
+      </c>
+      <c r="K289">
+        <v>320</v>
+      </c>
+      <c r="L289">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O288" t="s">
-        <v>41</v>
-      </c>
-      <c r="P288" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q288" t="s">
-        <v>19</v>
-      </c>
-      <c r="R288" t="s">
-        <v>165</v>
-      </c>
-      <c r="S288" t="s">
-        <v>397</v>
-      </c>
-      <c r="T288" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="289" spans="1:20">
-      <c r="A289" s="2">
-        <f t="shared" si="23"/>
-        <v>288</v>
-      </c>
-      <c r="B289" s="2">
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>161</v>
-      </c>
-      <c r="D289" t="s">
-        <v>3</v>
-      </c>
-      <c r="E289">
-        <v>2000</v>
-      </c>
-      <c r="F289">
-        <v>1</v>
-      </c>
-      <c r="G289">
-        <v>1</v>
-      </c>
-      <c r="H289">
-        <v>2005</v>
-      </c>
-      <c r="I289">
-        <v>12</v>
-      </c>
-      <c r="J289">
-        <v>31</v>
-      </c>
-      <c r="K289">
-        <v>320</v>
-      </c>
-      <c r="L289">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M289">
         <v>160</v>
       </c>
       <c r="N289">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O289" t="s">
+        <v>41</v>
+      </c>
+      <c r="P289" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>19</v>
+      </c>
+      <c r="R289" t="s">
+        <v>166</v>
+      </c>
+      <c r="S289" t="s">
+        <v>398</v>
+      </c>
+      <c r="T289" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" s="2">
+        <f t="shared" si="24"/>
+        <v>289</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
+      <c r="C290" t="s">
+        <v>161</v>
+      </c>
+      <c r="D290" t="s">
+        <v>167</v>
+      </c>
+      <c r="E290">
+        <v>1960</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>1969</v>
+      </c>
+      <c r="I290">
+        <v>12</v>
+      </c>
+      <c r="J290">
+        <v>31</v>
+      </c>
+      <c r="K290">
+        <v>320</v>
+      </c>
+      <c r="L290">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O289" t="s">
-        <v>41</v>
-      </c>
-      <c r="P289" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q289" t="s">
-        <v>19</v>
-      </c>
-      <c r="R289" t="s">
-        <v>166</v>
-      </c>
-      <c r="S289" t="s">
-        <v>398</v>
-      </c>
-      <c r="T289" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20">
-      <c r="A290" s="2">
-        <f t="shared" si="23"/>
-        <v>289</v>
-      </c>
-      <c r="B290" s="2">
-        <v>2</v>
-      </c>
-      <c r="C290" t="s">
-        <v>161</v>
-      </c>
-      <c r="D290" t="s">
-        <v>167</v>
-      </c>
-      <c r="E290">
-        <v>1960</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="H290">
-        <v>1969</v>
-      </c>
-      <c r="I290">
-        <v>12</v>
-      </c>
-      <c r="J290">
-        <v>31</v>
-      </c>
-      <c r="K290">
-        <v>320</v>
-      </c>
-      <c r="L290">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M290">
         <v>160</v>
       </c>
       <c r="N290">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O290" t="s">
+        <v>41</v>
+      </c>
+      <c r="P290" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>19</v>
+      </c>
+      <c r="R290" t="s">
+        <v>168</v>
+      </c>
+      <c r="S290" t="s">
+        <v>201</v>
+      </c>
+      <c r="T290" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="A291" s="2">
+        <f t="shared" si="24"/>
+        <v>290</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s">
+        <v>161</v>
+      </c>
+      <c r="D291" t="s">
+        <v>167</v>
+      </c>
+      <c r="E291">
+        <v>1970</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>1979</v>
+      </c>
+      <c r="I291">
+        <v>12</v>
+      </c>
+      <c r="J291">
+        <v>31</v>
+      </c>
+      <c r="K291">
+        <v>320</v>
+      </c>
+      <c r="L291">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O290" t="s">
-        <v>41</v>
-      </c>
-      <c r="P290" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q290" t="s">
-        <v>19</v>
-      </c>
-      <c r="R290" t="s">
-        <v>168</v>
-      </c>
-      <c r="S290" t="s">
-        <v>201</v>
-      </c>
-      <c r="T290" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="291" spans="1:20">
-      <c r="A291" s="2">
-        <f t="shared" si="23"/>
-        <v>290</v>
-      </c>
-      <c r="B291" s="2">
-        <v>2</v>
-      </c>
-      <c r="C291" t="s">
-        <v>161</v>
-      </c>
-      <c r="D291" t="s">
-        <v>167</v>
-      </c>
-      <c r="E291">
-        <v>1970</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="H291">
-        <v>1979</v>
-      </c>
-      <c r="I291">
-        <v>12</v>
-      </c>
-      <c r="J291">
-        <v>31</v>
-      </c>
-      <c r="K291">
-        <v>320</v>
-      </c>
-      <c r="L291">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M291">
         <v>160</v>
       </c>
       <c r="N291">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O291" t="s">
+        <v>41</v>
+      </c>
+      <c r="P291" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>19</v>
+      </c>
+      <c r="R291" t="s">
+        <v>169</v>
+      </c>
+      <c r="S291" t="s">
+        <v>201</v>
+      </c>
+      <c r="T291" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
+      <c r="A292" s="2">
+        <f t="shared" si="24"/>
+        <v>291</v>
+      </c>
+      <c r="B292" s="2">
+        <v>2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>161</v>
+      </c>
+      <c r="D292" t="s">
+        <v>167</v>
+      </c>
+      <c r="E292">
+        <v>1980</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>1989</v>
+      </c>
+      <c r="I292">
+        <v>12</v>
+      </c>
+      <c r="J292">
+        <v>31</v>
+      </c>
+      <c r="K292">
+        <v>320</v>
+      </c>
+      <c r="L292">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O291" t="s">
-        <v>41</v>
-      </c>
-      <c r="P291" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q291" t="s">
-        <v>19</v>
-      </c>
-      <c r="R291" t="s">
-        <v>169</v>
-      </c>
-      <c r="S291" t="s">
-        <v>201</v>
-      </c>
-      <c r="T291" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="292" spans="1:20">
-      <c r="A292" s="2">
-        <f t="shared" si="23"/>
-        <v>291</v>
-      </c>
-      <c r="B292" s="2">
-        <v>2</v>
-      </c>
-      <c r="C292" t="s">
-        <v>161</v>
-      </c>
-      <c r="D292" t="s">
-        <v>167</v>
-      </c>
-      <c r="E292">
-        <v>1980</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="H292">
-        <v>1989</v>
-      </c>
-      <c r="I292">
-        <v>12</v>
-      </c>
-      <c r="J292">
-        <v>31</v>
-      </c>
-      <c r="K292">
-        <v>320</v>
-      </c>
-      <c r="L292">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M292">
         <v>160</v>
       </c>
       <c r="N292">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O292" t="s">
+        <v>41</v>
+      </c>
+      <c r="P292" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>19</v>
+      </c>
+      <c r="R292" t="s">
+        <v>170</v>
+      </c>
+      <c r="S292" t="s">
+        <v>201</v>
+      </c>
+      <c r="T292" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="A293" s="2">
+        <f t="shared" si="24"/>
+        <v>292</v>
+      </c>
+      <c r="B293" s="2">
+        <v>2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>161</v>
+      </c>
+      <c r="D293" t="s">
+        <v>167</v>
+      </c>
+      <c r="E293">
+        <v>1990</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>1999</v>
+      </c>
+      <c r="I293">
+        <v>12</v>
+      </c>
+      <c r="J293">
+        <v>31</v>
+      </c>
+      <c r="K293">
+        <v>320</v>
+      </c>
+      <c r="L293">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O292" t="s">
-        <v>41</v>
-      </c>
-      <c r="P292" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q292" t="s">
-        <v>19</v>
-      </c>
-      <c r="R292" t="s">
-        <v>170</v>
-      </c>
-      <c r="S292" t="s">
-        <v>201</v>
-      </c>
-      <c r="T292" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="293" spans="1:20">
-      <c r="A293" s="2">
-        <f t="shared" si="23"/>
-        <v>292</v>
-      </c>
-      <c r="B293" s="2">
-        <v>2</v>
-      </c>
-      <c r="C293" t="s">
-        <v>161</v>
-      </c>
-      <c r="D293" t="s">
-        <v>167</v>
-      </c>
-      <c r="E293">
-        <v>1990</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="H293">
-        <v>1999</v>
-      </c>
-      <c r="I293">
-        <v>12</v>
-      </c>
-      <c r="J293">
-        <v>31</v>
-      </c>
-      <c r="K293">
-        <v>320</v>
-      </c>
-      <c r="L293">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M293">
         <v>160</v>
       </c>
       <c r="N293">
+        <f t="shared" si="23"/>
+        <v>1.125</v>
+      </c>
+      <c r="O293" t="s">
+        <v>41</v>
+      </c>
+      <c r="P293" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>19</v>
+      </c>
+      <c r="R293" t="s">
+        <v>171</v>
+      </c>
+      <c r="S293" t="s">
+        <v>201</v>
+      </c>
+      <c r="T293" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
+      <c r="A294" s="2">
+        <f t="shared" si="24"/>
+        <v>293</v>
+      </c>
+      <c r="B294" s="2">
+        <v>2</v>
+      </c>
+      <c r="C294" t="s">
+        <v>161</v>
+      </c>
+      <c r="D294" t="s">
+        <v>167</v>
+      </c>
+      <c r="E294">
+        <v>2000</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>2005</v>
+      </c>
+      <c r="I294">
+        <v>12</v>
+      </c>
+      <c r="J294">
+        <v>31</v>
+      </c>
+      <c r="K294">
+        <v>320</v>
+      </c>
+      <c r="L294">
         <f t="shared" si="22"/>
         <v>1.125</v>
       </c>
-      <c r="O293" t="s">
-        <v>41</v>
-      </c>
-      <c r="P293" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q293" t="s">
-        <v>19</v>
-      </c>
-      <c r="R293" t="s">
-        <v>171</v>
-      </c>
-      <c r="S293" t="s">
-        <v>201</v>
-      </c>
-      <c r="T293" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20">
-      <c r="A294" s="2">
-        <f t="shared" si="23"/>
-        <v>293</v>
-      </c>
-      <c r="B294" s="2">
-        <v>2</v>
-      </c>
-      <c r="C294" t="s">
-        <v>161</v>
-      </c>
-      <c r="D294" t="s">
-        <v>167</v>
-      </c>
-      <c r="E294">
-        <v>2000</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="H294">
-        <v>2005</v>
-      </c>
-      <c r="I294">
-        <v>12</v>
-      </c>
-      <c r="J294">
-        <v>31</v>
-      </c>
-      <c r="K294">
-        <v>320</v>
-      </c>
-      <c r="L294">
-        <f t="shared" si="21"/>
-        <v>1.125</v>
-      </c>
       <c r="M294">
         <v>160</v>
       </c>
       <c r="N294">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.125</v>
       </c>
       <c r="O294" t="s">
@@ -20952,7 +20955,7 @@
     </row>
     <row r="295" spans="1:20">
       <c r="A295" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>294</v>
       </c>
       <c r="B295" s="2">
@@ -20986,14 +20989,14 @@
         <v>288</v>
       </c>
       <c r="L295">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
       <c r="M295">
         <v>192</v>
       </c>
       <c r="N295">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9375</v>
       </c>
       <c r="O295" t="s">
@@ -21017,7 +21020,7 @@
     </row>
     <row r="296" spans="1:20">
       <c r="A296" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>295</v>
       </c>
       <c r="B296" s="2">
@@ -21051,14 +21054,14 @@
         <v>288</v>
       </c>
       <c r="L296">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
       <c r="M296">
         <v>192</v>
       </c>
       <c r="N296">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9375</v>
       </c>
       <c r="O296" t="s">
@@ -21082,7 +21085,7 @@
     </row>
     <row r="297" spans="1:20">
       <c r="A297" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>296</v>
       </c>
       <c r="B297" s="2">
@@ -21116,14 +21119,14 @@
         <v>288</v>
       </c>
       <c r="L297">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
       <c r="M297">
         <v>192</v>
       </c>
       <c r="N297">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9375</v>
       </c>
       <c r="O297" t="s">
@@ -21147,7 +21150,7 @@
     </row>
     <row r="298" spans="1:20">
       <c r="A298" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>297</v>
       </c>
       <c r="B298" s="2">
@@ -21181,14 +21184,14 @@
         <v>288</v>
       </c>
       <c r="L298">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
       <c r="M298">
         <v>192</v>
       </c>
       <c r="N298">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9375</v>
       </c>
       <c r="O298" t="s">
@@ -21212,7 +21215,7 @@
     </row>
     <row r="299" spans="1:20">
       <c r="A299" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>298</v>
       </c>
       <c r="B299" s="2">
@@ -21246,14 +21249,14 @@
         <v>144</v>
       </c>
       <c r="L299">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="M299">
         <v>96</v>
       </c>
       <c r="N299">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.875</v>
       </c>
       <c r="O299" t="s">
@@ -21277,7 +21280,7 @@
     </row>
     <row r="300" spans="1:20">
       <c r="A300" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>299</v>
       </c>
       <c r="B300" s="2">
@@ -21311,14 +21314,14 @@
         <v>144</v>
       </c>
       <c r="L300">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="M300">
         <v>96</v>
       </c>
       <c r="N300">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.875</v>
       </c>
       <c r="O300" t="s">
@@ -21342,7 +21345,7 @@
     </row>
     <row r="301" spans="1:20">
       <c r="A301" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="B301" s="2">
@@ -21376,14 +21379,14 @@
         <v>144</v>
       </c>
       <c r="L301">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="M301">
         <v>90</v>
       </c>
       <c r="N301">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="O301" t="s">
@@ -21407,7 +21410,7 @@
     </row>
     <row r="302" spans="1:20">
       <c r="A302" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>301</v>
       </c>
       <c r="B302" s="2">
@@ -21441,14 +21444,14 @@
         <v>144</v>
       </c>
       <c r="L302">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="M302">
         <v>90</v>
       </c>
       <c r="N302">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="O302" t="s">
@@ -21472,7 +21475,7 @@
     </row>
     <row r="303" spans="1:20">
       <c r="A303" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>302</v>
       </c>
       <c r="B303" s="2">
@@ -21506,14 +21509,14 @@
         <v>144</v>
       </c>
       <c r="L303">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="M303">
         <v>90</v>
       </c>
       <c r="N303">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="O303" t="s">
@@ -21537,7 +21540,7 @@
     </row>
     <row r="304" spans="1:20">
       <c r="A304" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>303</v>
       </c>
       <c r="B304" s="2">
@@ -21571,14 +21574,14 @@
         <v>144</v>
       </c>
       <c r="L304">
-        <f t="shared" ref="L304:L320" si="24">360/K304</f>
+        <f t="shared" ref="L304:L320" si="25">360/K304</f>
         <v>2.5</v>
       </c>
       <c r="M304">
         <v>90</v>
       </c>
       <c r="N304">
-        <f t="shared" ref="N304:N320" si="25">180/M304</f>
+        <f t="shared" ref="N304:N320" si="26">180/M304</f>
         <v>2</v>
       </c>
       <c r="O304" t="s">
@@ -21602,7 +21605,7 @@
     </row>
     <row r="305" spans="1:20">
       <c r="A305" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>304</v>
       </c>
       <c r="B305" s="2">
@@ -21636,14 +21639,14 @@
         <v>144</v>
       </c>
       <c r="L305">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M305">
         <v>90</v>
       </c>
       <c r="N305">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O305" t="s">
@@ -21667,7 +21670,7 @@
     </row>
     <row r="306" spans="1:20">
       <c r="A306" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>305</v>
       </c>
       <c r="B306" s="2">
@@ -21701,14 +21704,14 @@
         <v>144</v>
       </c>
       <c r="L306">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M306">
         <v>90</v>
       </c>
       <c r="N306">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O306" t="s">
@@ -21732,7 +21735,7 @@
     </row>
     <row r="307" spans="1:20">
       <c r="A307" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>306</v>
       </c>
       <c r="B307" s="2">
@@ -21766,14 +21769,14 @@
         <v>144</v>
       </c>
       <c r="L307">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M307">
         <v>90</v>
       </c>
       <c r="N307">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O307" t="s">
@@ -21797,7 +21800,7 @@
     </row>
     <row r="308" spans="1:20">
       <c r="A308" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>307</v>
       </c>
       <c r="B308" s="2">
@@ -21831,14 +21834,14 @@
         <v>144</v>
       </c>
       <c r="L308">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M308">
         <v>90</v>
       </c>
       <c r="N308">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O308" t="s">
@@ -21862,7 +21865,7 @@
     </row>
     <row r="309" spans="1:20">
       <c r="A309" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>308</v>
       </c>
       <c r="B309" s="2">
@@ -21896,14 +21899,14 @@
         <v>144</v>
       </c>
       <c r="L309">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M309">
         <v>90</v>
       </c>
       <c r="N309">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O309" t="s">
@@ -21927,7 +21930,7 @@
     </row>
     <row r="310" spans="1:20">
       <c r="A310" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>309</v>
       </c>
       <c r="B310" s="2">
@@ -21961,14 +21964,14 @@
         <v>144</v>
       </c>
       <c r="L310">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M310">
         <v>90</v>
       </c>
       <c r="N310">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O310" t="s">
@@ -21992,7 +21995,7 @@
     </row>
     <row r="311" spans="1:20">
       <c r="A311" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>310</v>
       </c>
       <c r="B311" s="2">
@@ -22026,14 +22029,14 @@
         <v>144</v>
       </c>
       <c r="L311">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M311">
         <v>90</v>
       </c>
       <c r="N311">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O311" t="s">
@@ -22057,7 +22060,7 @@
     </row>
     <row r="312" spans="1:20">
       <c r="A312" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>311</v>
       </c>
       <c r="B312" s="2">
@@ -22091,14 +22094,14 @@
         <v>144</v>
       </c>
       <c r="L312">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M312">
         <v>90</v>
       </c>
       <c r="N312">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O312" t="s">
@@ -22122,7 +22125,7 @@
     </row>
     <row r="313" spans="1:20">
       <c r="A313" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>312</v>
       </c>
       <c r="B313" s="2">
@@ -22156,14 +22159,14 @@
         <v>144</v>
       </c>
       <c r="L313">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M313">
         <v>90</v>
       </c>
       <c r="N313">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O313" t="s">
@@ -22187,7 +22190,7 @@
     </row>
     <row r="314" spans="1:20">
       <c r="A314" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>313</v>
       </c>
       <c r="B314" s="2">
@@ -22221,14 +22224,14 @@
         <v>144</v>
       </c>
       <c r="L314">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M314">
         <v>90</v>
       </c>
       <c r="N314">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O314" t="s">
@@ -22252,7 +22255,7 @@
     </row>
     <row r="315" spans="1:20">
       <c r="A315" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>314</v>
       </c>
       <c r="B315" s="2">
@@ -22286,14 +22289,14 @@
         <v>144</v>
       </c>
       <c r="L315">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M315">
         <v>90</v>
       </c>
       <c r="N315">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O315" t="s">
@@ -22317,7 +22320,7 @@
     </row>
     <row r="316" spans="1:20">
       <c r="A316" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>315</v>
       </c>
       <c r="B316" s="2">
@@ -22351,14 +22354,14 @@
         <v>144</v>
       </c>
       <c r="L316">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M316">
         <v>90</v>
       </c>
       <c r="N316">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O316" t="s">
@@ -22382,7 +22385,7 @@
     </row>
     <row r="317" spans="1:20">
       <c r="A317" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>316</v>
       </c>
       <c r="B317" s="2">
@@ -22416,14 +22419,14 @@
         <v>144</v>
       </c>
       <c r="L317">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M317">
         <v>90</v>
       </c>
       <c r="N317">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O317" t="s">
@@ -22447,7 +22450,7 @@
     </row>
     <row r="318" spans="1:20">
       <c r="A318" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>317</v>
       </c>
       <c r="B318" s="2">
@@ -22481,14 +22484,14 @@
         <v>144</v>
       </c>
       <c r="L318">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="M318">
         <v>90</v>
       </c>
       <c r="N318">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O318" t="s">
@@ -22545,14 +22548,14 @@
         <v>128</v>
       </c>
       <c r="L319">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.8125</v>
       </c>
       <c r="M319">
         <v>44</v>
       </c>
       <c r="N319">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.0909090909090908</v>
       </c>
       <c r="O319" t="s">
@@ -22609,14 +22612,14 @@
         <v>192</v>
       </c>
       <c r="L320">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.875</v>
       </c>
       <c r="M320">
         <v>145</v>
       </c>
       <c r="N320">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O320" t="s">
@@ -22673,14 +22676,14 @@
         <v>192</v>
       </c>
       <c r="L321">
-        <f t="shared" ref="L321:L324" si="26">360/K321</f>
+        <f t="shared" ref="L321:L324" si="27">360/K321</f>
         <v>1.875</v>
       </c>
       <c r="M321">
         <v>145</v>
       </c>
       <c r="N321">
-        <f t="shared" ref="N321:N324" si="27">180/M321</f>
+        <f t="shared" ref="N321:N324" si="28">180/M321</f>
         <v>1.2413793103448276</v>
       </c>
       <c r="O321" t="s">
@@ -22737,14 +22740,14 @@
         <v>192</v>
       </c>
       <c r="L322">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.875</v>
       </c>
       <c r="M322">
         <v>145</v>
       </c>
       <c r="N322">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="O322" t="s">
@@ -22801,14 +22804,14 @@
         <v>96</v>
       </c>
       <c r="L323">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.75</v>
       </c>
       <c r="M323">
         <v>96</v>
       </c>
       <c r="N323">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.875</v>
       </c>
       <c r="O323" t="s">
@@ -22838,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -22865,14 +22868,14 @@
         <v>192</v>
       </c>
       <c r="L324">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.875</v>
       </c>
       <c r="M324">
         <v>96</v>
       </c>
       <c r="N324">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.875</v>
       </c>
       <c r="O324" t="s">
@@ -22902,7 +22905,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -22929,14 +22932,14 @@
         <v>192</v>
       </c>
       <c r="L325">
-        <f t="shared" ref="L325:L328" si="28">360/K325</f>
+        <f t="shared" ref="L325:L328" si="29">360/K325</f>
         <v>1.875</v>
       </c>
       <c r="M325">
         <v>96</v>
       </c>
       <c r="N325">
-        <f t="shared" ref="N325:N328" si="29">180/M325</f>
+        <f t="shared" ref="N325:N328" si="30">180/M325</f>
         <v>1.875</v>
       </c>
       <c r="O325" t="s">
@@ -22966,7 +22969,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -22993,14 +22996,14 @@
         <v>192</v>
       </c>
       <c r="L326">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.875</v>
       </c>
       <c r="M326">
         <v>96</v>
       </c>
       <c r="N326">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.875</v>
       </c>
       <c r="O326" t="s">
@@ -23030,7 +23033,7 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -23057,14 +23060,14 @@
         <v>192</v>
       </c>
       <c r="L327">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.875</v>
       </c>
       <c r="M327">
         <v>96</v>
       </c>
       <c r="N327">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.875</v>
       </c>
       <c r="O327" t="s">
@@ -23094,7 +23097,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>145</v>
+        <v>421</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -23121,14 +23124,14 @@
         <v>192</v>
       </c>
       <c r="L328">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.875</v>
       </c>
       <c r="M328">
         <v>96</v>
       </c>
       <c r="N328">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.875</v>
       </c>
       <c r="O328" t="s">

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -798,9 +798,6 @@
     <t>rsds_day_MPI-ESM-MR_historical_r1i1p1_20000101-20051231.nc</t>
   </si>
   <si>
-    <t>rsds_day_bcc-csm1-1_historical_r1i1p1_19500101-20121230</t>
-  </si>
-  <si>
     <t>rsds_Amon_CanCM4_historical_r1i1p1_196101-200512.nc</t>
   </si>
   <si>
@@ -1282,6 +1279,9 @@
   </si>
   <si>
     <t>mpi_m_mpi_esm_mr</t>
+  </si>
+  <si>
+    <t>rsds_day_bcc-csm1-1_historical_r1i1p1_19500101-20121230.nc</t>
   </si>
 </sst>
 </file>
@@ -1635,8 +1635,8 @@
   <dimension ref="A1:T328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C324" sqref="C324:C328"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,7 +1783,7 @@
         <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="T2" t="s">
         <v>201</v>
@@ -1848,7 +1848,7 @@
         <v>202</v>
       </c>
       <c r="S3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T3" t="s">
         <v>201</v>
@@ -1913,7 +1913,7 @@
         <v>203</v>
       </c>
       <c r="S4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T4" t="s">
         <v>201</v>
@@ -1978,7 +1978,7 @@
         <v>204</v>
       </c>
       <c r="S5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T5" t="s">
         <v>201</v>
@@ -2043,7 +2043,7 @@
         <v>205</v>
       </c>
       <c r="S6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T6" t="s">
         <v>201</v>
@@ -2108,7 +2108,7 @@
         <v>206</v>
       </c>
       <c r="S7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T7" t="s">
         <v>201</v>
@@ -2173,7 +2173,7 @@
         <v>207</v>
       </c>
       <c r="S8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T8" t="s">
         <v>201</v>
@@ -2238,7 +2238,7 @@
         <v>208</v>
       </c>
       <c r="S9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T9" t="s">
         <v>201</v>
@@ -2303,7 +2303,7 @@
         <v>209</v>
       </c>
       <c r="S10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T10" t="s">
         <v>201</v>
@@ -2368,7 +2368,7 @@
         <v>210</v>
       </c>
       <c r="S11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T11" t="s">
         <v>201</v>
@@ -2433,7 +2433,7 @@
         <v>211</v>
       </c>
       <c r="S12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T12" t="s">
         <v>201</v>
@@ -2498,7 +2498,7 @@
         <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T13" t="s">
         <v>201</v>
@@ -2563,7 +2563,7 @@
         <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T14" t="s">
         <v>201</v>
@@ -2628,7 +2628,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T15" t="s">
         <v>201</v>
@@ -2693,7 +2693,7 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T16" t="s">
         <v>201</v>
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T17" t="s">
         <v>201</v>
@@ -2823,7 +2823,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T18" t="s">
         <v>201</v>
@@ -2888,7 +2888,7 @@
         <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T19" t="s">
         <v>201</v>
@@ -2953,7 +2953,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T20" t="s">
         <v>201</v>
@@ -3018,7 +3018,7 @@
         <v>45</v>
       </c>
       <c r="S21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T21" t="s">
         <v>201</v>
@@ -3083,7 +3083,7 @@
         <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T22" t="s">
         <v>201</v>
@@ -3148,7 +3148,7 @@
         <v>47</v>
       </c>
       <c r="S23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T23" t="s">
         <v>201</v>
@@ -3213,7 +3213,7 @@
         <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T24" t="s">
         <v>201</v>
@@ -3278,7 +3278,7 @@
         <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T25" t="s">
         <v>201</v>
@@ -3343,7 +3343,7 @@
         <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T26" t="s">
         <v>201</v>
@@ -3408,7 +3408,7 @@
         <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T27" t="s">
         <v>201</v>
@@ -3473,7 +3473,7 @@
         <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T28" t="s">
         <v>201</v>
@@ -3538,7 +3538,7 @@
         <v>54</v>
       </c>
       <c r="S29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T29" t="s">
         <v>201</v>
@@ -3603,7 +3603,7 @@
         <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T30" t="s">
         <v>201</v>
@@ -3668,7 +3668,7 @@
         <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T31" t="s">
         <v>201</v>
@@ -3733,7 +3733,7 @@
         <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T32" t="s">
         <v>201</v>
@@ -3798,7 +3798,7 @@
         <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T33" t="s">
         <v>201</v>
@@ -3863,7 +3863,7 @@
         <v>59</v>
       </c>
       <c r="S34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T34" t="s">
         <v>201</v>
@@ -3928,7 +3928,7 @@
         <v>60</v>
       </c>
       <c r="S35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T35" t="s">
         <v>201</v>
@@ -3993,7 +3993,7 @@
         <v>61</v>
       </c>
       <c r="S36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T36" t="s">
         <v>201</v>
@@ -4058,7 +4058,7 @@
         <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T37" t="s">
         <v>201</v>
@@ -4123,7 +4123,7 @@
         <v>63</v>
       </c>
       <c r="S38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T38" t="s">
         <v>201</v>
@@ -4188,7 +4188,7 @@
         <v>64</v>
       </c>
       <c r="S39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T39" t="s">
         <v>201</v>
@@ -4253,7 +4253,7 @@
         <v>65</v>
       </c>
       <c r="S40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T40" t="s">
         <v>201</v>
@@ -4318,7 +4318,7 @@
         <v>66</v>
       </c>
       <c r="S41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T41" t="s">
         <v>201</v>
@@ -4383,7 +4383,7 @@
         <v>67</v>
       </c>
       <c r="S42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T42" t="s">
         <v>201</v>
@@ -4448,7 +4448,7 @@
         <v>68</v>
       </c>
       <c r="S43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T43" t="s">
         <v>201</v>
@@ -4513,7 +4513,7 @@
         <v>69</v>
       </c>
       <c r="S44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T44" t="s">
         <v>201</v>
@@ -4578,7 +4578,7 @@
         <v>70</v>
       </c>
       <c r="S45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T45" t="s">
         <v>201</v>
@@ -4643,7 +4643,7 @@
         <v>71</v>
       </c>
       <c r="S46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T46" t="s">
         <v>201</v>
@@ -4708,7 +4708,7 @@
         <v>72</v>
       </c>
       <c r="S47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T47" t="s">
         <v>201</v>
@@ -4773,7 +4773,7 @@
         <v>73</v>
       </c>
       <c r="S48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T48" t="s">
         <v>201</v>
@@ -4838,7 +4838,7 @@
         <v>74</v>
       </c>
       <c r="S49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T49" t="s">
         <v>201</v>
@@ -4903,7 +4903,7 @@
         <v>75</v>
       </c>
       <c r="S50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T50" t="s">
         <v>201</v>
@@ -4968,7 +4968,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T51" t="s">
         <v>201</v>
@@ -5033,7 +5033,7 @@
         <v>77</v>
       </c>
       <c r="S52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T52" t="s">
         <v>201</v>
@@ -5098,7 +5098,7 @@
         <v>78</v>
       </c>
       <c r="S53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T53" t="s">
         <v>201</v>
@@ -5163,7 +5163,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T54" t="s">
         <v>201</v>
@@ -5228,7 +5228,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T55" t="s">
         <v>201</v>
@@ -5293,7 +5293,7 @@
         <v>81</v>
       </c>
       <c r="S56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T56" t="s">
         <v>201</v>
@@ -5358,7 +5358,7 @@
         <v>82</v>
       </c>
       <c r="S57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T57" t="s">
         <v>201</v>
@@ -5683,7 +5683,7 @@
         <v>89</v>
       </c>
       <c r="S62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T62" t="s">
         <v>201</v>
@@ -5748,7 +5748,7 @@
         <v>90</v>
       </c>
       <c r="S63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T63" t="s">
         <v>201</v>
@@ -5813,7 +5813,7 @@
         <v>91</v>
       </c>
       <c r="S64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T64" t="s">
         <v>201</v>
@@ -5878,7 +5878,7 @@
         <v>92</v>
       </c>
       <c r="S65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T65" t="s">
         <v>201</v>
@@ -5943,7 +5943,7 @@
         <v>93</v>
       </c>
       <c r="S66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T66" t="s">
         <v>201</v>
@@ -6008,7 +6008,7 @@
         <v>95</v>
       </c>
       <c r="S67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T67" t="s">
         <v>201</v>
@@ -6073,7 +6073,7 @@
         <v>97</v>
       </c>
       <c r="S68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T68" t="s">
         <v>201</v>
@@ -6138,7 +6138,7 @@
         <v>98</v>
       </c>
       <c r="S69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T69" t="s">
         <v>201</v>
@@ -6203,7 +6203,7 @@
         <v>96</v>
       </c>
       <c r="S70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T70" t="s">
         <v>201</v>
@@ -6268,7 +6268,7 @@
         <v>99</v>
       </c>
       <c r="S71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T71" t="s">
         <v>201</v>
@@ -6333,7 +6333,7 @@
         <v>100</v>
       </c>
       <c r="S72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T72" t="s">
         <v>201</v>
@@ -6398,7 +6398,7 @@
         <v>102</v>
       </c>
       <c r="S73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T73" t="s">
         <v>201</v>
@@ -6463,7 +6463,7 @@
         <v>103</v>
       </c>
       <c r="S74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T74" t="s">
         <v>201</v>
@@ -6528,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="S75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T75" t="s">
         <v>201</v>
@@ -6593,7 +6593,7 @@
         <v>107</v>
       </c>
       <c r="S76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T76" t="s">
         <v>201</v>
@@ -9741,7 +9741,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T123" t="s">
         <v>201</v>
@@ -9807,7 +9807,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S124" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T124" t="s">
         <v>201</v>
@@ -9873,7 +9873,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T125" t="s">
         <v>201</v>
@@ -9939,7 +9939,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S126" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T126" t="s">
         <v>201</v>
@@ -10005,7 +10005,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T127" t="s">
         <v>201</v>
@@ -10071,7 +10071,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S128" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T128" t="s">
         <v>201</v>
@@ -10137,7 +10137,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S129" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T129" t="s">
         <v>201</v>
@@ -10203,7 +10203,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S130" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T130" t="s">
         <v>201</v>
@@ -10269,7 +10269,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S131" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T131" t="s">
         <v>201</v>
@@ -10335,7 +10335,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S132" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T132" t="s">
         <v>201</v>
@@ -10401,7 +10401,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T133" t="s">
         <v>201</v>
@@ -10467,7 +10467,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S134" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T134" t="s">
         <v>201</v>
@@ -10533,7 +10533,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S135" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T135" t="s">
         <v>201</v>
@@ -10599,7 +10599,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T136" t="s">
         <v>201</v>
@@ -10665,7 +10665,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S137" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T137" t="s">
         <v>201</v>
@@ -10731,7 +10731,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S138" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T138" t="s">
         <v>201</v>
@@ -10797,7 +10797,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S139" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T139" t="s">
         <v>201</v>
@@ -10863,7 +10863,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T140" t="s">
         <v>201</v>
@@ -10929,7 +10929,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S141" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T141" t="s">
         <v>201</v>
@@ -10995,7 +10995,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T142" t="s">
         <v>201</v>
@@ -11061,7 +11061,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T143" t="s">
         <v>201</v>
@@ -11127,7 +11127,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S144" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T144" t="s">
         <v>201</v>
@@ -11193,7 +11193,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T145" t="s">
         <v>201</v>
@@ -11259,7 +11259,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T146" t="s">
         <v>201</v>
@@ -11325,7 +11325,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S147" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T147" t="s">
         <v>201</v>
@@ -11391,7 +11391,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S148" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T148" t="s">
         <v>201</v>
@@ -11457,7 +11457,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T149" t="s">
         <v>201</v>
@@ -11523,7 +11523,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S150" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T150" t="s">
         <v>201</v>
@@ -11589,7 +11589,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S151" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T151" t="s">
         <v>201</v>
@@ -11655,7 +11655,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T152" t="s">
         <v>201</v>
@@ -11721,7 +11721,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T153" t="s">
         <v>201</v>
@@ -11787,7 +11787,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T154" t="s">
         <v>201</v>
@@ -11853,7 +11853,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T155" t="s">
         <v>201</v>
@@ -11919,7 +11919,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T156" t="s">
         <v>201</v>
@@ -11985,7 +11985,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S157" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T157" t="s">
         <v>201</v>
@@ -12051,7 +12051,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T158" t="s">
         <v>201</v>
@@ -12117,7 +12117,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S159" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T159" t="s">
         <v>201</v>
@@ -12183,7 +12183,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T160" t="s">
         <v>201</v>
@@ -12249,7 +12249,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S161" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T161" t="s">
         <v>201</v>
@@ -12315,7 +12315,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T162" t="s">
         <v>201</v>
@@ -12381,7 +12381,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T163" t="s">
         <v>201</v>
@@ -12447,7 +12447,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T164" t="s">
         <v>201</v>
@@ -12513,7 +12513,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S165" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T165" t="s">
         <v>201</v>
@@ -12579,7 +12579,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S166" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T166" t="s">
         <v>201</v>
@@ -12645,7 +12645,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S167" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T167" t="s">
         <v>201</v>
@@ -12711,7 +12711,7 @@
         <v>%var%_day_MIROC4h_historical_r2i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S168" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T168" t="s">
         <v>201</v>
@@ -12777,7 +12777,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19600101-19601231.nc</v>
       </c>
       <c r="S169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T169" t="s">
         <v>201</v>
@@ -12843,7 +12843,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19610101-19611231.nc</v>
       </c>
       <c r="S170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T170" t="s">
         <v>201</v>
@@ -12909,7 +12909,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19620101-19621231.nc</v>
       </c>
       <c r="S171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T171" t="s">
         <v>201</v>
@@ -12975,7 +12975,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19630101-19631231.nc</v>
       </c>
       <c r="S172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T172" t="s">
         <v>201</v>
@@ -13041,7 +13041,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19640101-19641231.nc</v>
       </c>
       <c r="S173" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T173" t="s">
         <v>201</v>
@@ -13107,7 +13107,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19650101-19651231.nc</v>
       </c>
       <c r="S174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T174" t="s">
         <v>201</v>
@@ -13173,7 +13173,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19660101-19661231.nc</v>
       </c>
       <c r="S175" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T175" t="s">
         <v>201</v>
@@ -13239,7 +13239,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19670101-19671231.nc</v>
       </c>
       <c r="S176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T176" t="s">
         <v>201</v>
@@ -13305,7 +13305,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19680101-19681231.nc</v>
       </c>
       <c r="S177" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T177" t="s">
         <v>201</v>
@@ -13371,7 +13371,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19690101-19691231.nc</v>
       </c>
       <c r="S178" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T178" t="s">
         <v>201</v>
@@ -13437,7 +13437,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19700101-19701231.nc</v>
       </c>
       <c r="S179" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T179" t="s">
         <v>201</v>
@@ -13503,7 +13503,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19710101-19711231.nc</v>
       </c>
       <c r="S180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T180" t="s">
         <v>201</v>
@@ -13569,7 +13569,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19720101-19721231.nc</v>
       </c>
       <c r="S181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T181" t="s">
         <v>201</v>
@@ -13635,7 +13635,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19730101-19731231.nc</v>
       </c>
       <c r="S182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T182" t="s">
         <v>201</v>
@@ -13701,7 +13701,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19740101-19741231.nc</v>
       </c>
       <c r="S183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T183" t="s">
         <v>201</v>
@@ -13767,7 +13767,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19750101-19751231.nc</v>
       </c>
       <c r="S184" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T184" t="s">
         <v>201</v>
@@ -13833,7 +13833,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19760101-19761231.nc</v>
       </c>
       <c r="S185" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T185" t="s">
         <v>201</v>
@@ -13899,7 +13899,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19770101-19771231.nc</v>
       </c>
       <c r="S186" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T186" t="s">
         <v>201</v>
@@ -13965,7 +13965,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19780101-19781231.nc</v>
       </c>
       <c r="S187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T187" t="s">
         <v>201</v>
@@ -14031,7 +14031,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19790101-19791231.nc</v>
       </c>
       <c r="S188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T188" t="s">
         <v>201</v>
@@ -14097,7 +14097,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19800101-19801231.nc</v>
       </c>
       <c r="S189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T189" t="s">
         <v>201</v>
@@ -14163,7 +14163,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19810101-19811231.nc</v>
       </c>
       <c r="S190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T190" t="s">
         <v>201</v>
@@ -14229,7 +14229,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19820101-19821231.nc</v>
       </c>
       <c r="S191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T191" t="s">
         <v>201</v>
@@ -14295,7 +14295,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19830101-19831231.nc</v>
       </c>
       <c r="S192" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T192" t="s">
         <v>201</v>
@@ -14361,7 +14361,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19840101-19841231.nc</v>
       </c>
       <c r="S193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T193" t="s">
         <v>201</v>
@@ -14427,7 +14427,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19850101-19851231.nc</v>
       </c>
       <c r="S194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T194" t="s">
         <v>201</v>
@@ -14493,7 +14493,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19860101-19861231.nc</v>
       </c>
       <c r="S195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T195" t="s">
         <v>201</v>
@@ -14559,7 +14559,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19870101-19871231.nc</v>
       </c>
       <c r="S196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T196" t="s">
         <v>201</v>
@@ -14625,7 +14625,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19880101-19881231.nc</v>
       </c>
       <c r="S197" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T197" t="s">
         <v>201</v>
@@ -14691,7 +14691,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19890101-19891231.nc</v>
       </c>
       <c r="S198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T198" t="s">
         <v>201</v>
@@ -14757,7 +14757,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19900101-19901231.nc</v>
       </c>
       <c r="S199" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T199" t="s">
         <v>201</v>
@@ -14823,7 +14823,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19910101-19911231.nc</v>
       </c>
       <c r="S200" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T200" t="s">
         <v>201</v>
@@ -14889,7 +14889,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19920101-19921231.nc</v>
       </c>
       <c r="S201" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T201" t="s">
         <v>201</v>
@@ -14955,7 +14955,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19930101-19931231.nc</v>
       </c>
       <c r="S202" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T202" t="s">
         <v>201</v>
@@ -15021,7 +15021,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19940101-19941231.nc</v>
       </c>
       <c r="S203" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T203" t="s">
         <v>201</v>
@@ -15087,7 +15087,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19950101-19951231.nc</v>
       </c>
       <c r="S204" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T204" t="s">
         <v>201</v>
@@ -15153,7 +15153,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19960101-19961231.nc</v>
       </c>
       <c r="S205" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T205" t="s">
         <v>201</v>
@@ -15219,7 +15219,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19970101-19971231.nc</v>
       </c>
       <c r="S206" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T206" t="s">
         <v>201</v>
@@ -15285,7 +15285,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19980101-19981231.nc</v>
       </c>
       <c r="S207" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T207" t="s">
         <v>201</v>
@@ -15351,7 +15351,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_19990101-19991231.nc</v>
       </c>
       <c r="S208" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T208" t="s">
         <v>201</v>
@@ -15417,7 +15417,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20000101-20001231.nc</v>
       </c>
       <c r="S209" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T209" t="s">
         <v>201</v>
@@ -15483,7 +15483,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20010101-20011231.nc</v>
       </c>
       <c r="S210" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T210" t="s">
         <v>201</v>
@@ -15549,7 +15549,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20020101-20021231.nc</v>
       </c>
       <c r="S211" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T211" t="s">
         <v>201</v>
@@ -15615,7 +15615,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20030101-20031231.nc</v>
       </c>
       <c r="S212" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T212" t="s">
         <v>201</v>
@@ -15681,7 +15681,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20040101-20041231.nc</v>
       </c>
       <c r="S213" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T213" t="s">
         <v>201</v>
@@ -15747,7 +15747,7 @@
         <v>%var%_day_MIROC4h_historical_r3i1p1_20050101-20051231.nc</v>
       </c>
       <c r="S214" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T214" t="s">
         <v>201</v>
@@ -15812,7 +15812,7 @@
         <v>110</v>
       </c>
       <c r="S215" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T215" t="s">
         <v>201</v>
@@ -15877,7 +15877,7 @@
         <v>111</v>
       </c>
       <c r="S216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T216" t="s">
         <v>201</v>
@@ -15942,7 +15942,7 @@
         <v>112</v>
       </c>
       <c r="S217" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T217" t="s">
         <v>201</v>
@@ -16007,7 +16007,7 @@
         <v>113</v>
       </c>
       <c r="S218" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T218" t="s">
         <v>201</v>
@@ -16072,7 +16072,7 @@
         <v>114</v>
       </c>
       <c r="S219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T219" t="s">
         <v>201</v>
@@ -16137,7 +16137,7 @@
         <v>212</v>
       </c>
       <c r="S220" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T220" t="s">
         <v>118</v>
@@ -16202,7 +16202,7 @@
         <v>213</v>
       </c>
       <c r="S221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T221" t="s">
         <v>118</v>
@@ -16267,7 +16267,7 @@
         <v>214</v>
       </c>
       <c r="S222" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T222" t="s">
         <v>118</v>
@@ -16332,7 +16332,7 @@
         <v>215</v>
       </c>
       <c r="S223" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T223" t="s">
         <v>118</v>
@@ -16397,7 +16397,7 @@
         <v>216</v>
       </c>
       <c r="S224" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T224" t="s">
         <v>118</v>
@@ -16462,7 +16462,7 @@
         <v>217</v>
       </c>
       <c r="S225" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T225" t="s">
         <v>118</v>
@@ -16527,7 +16527,7 @@
         <v>218</v>
       </c>
       <c r="S226" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T226" t="s">
         <v>118</v>
@@ -16592,7 +16592,7 @@
         <v>219</v>
       </c>
       <c r="S227" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T227" t="s">
         <v>118</v>
@@ -16657,7 +16657,7 @@
         <v>220</v>
       </c>
       <c r="S228" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T228" t="s">
         <v>118</v>
@@ -16722,7 +16722,7 @@
         <v>221</v>
       </c>
       <c r="S229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T229" t="s">
         <v>118</v>
@@ -16787,7 +16787,7 @@
         <v>222</v>
       </c>
       <c r="S230" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T230" t="s">
         <v>118</v>
@@ -16852,7 +16852,7 @@
         <v>223</v>
       </c>
       <c r="S231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T231" t="s">
         <v>118</v>
@@ -16917,7 +16917,7 @@
         <v>224</v>
       </c>
       <c r="S232" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T232" t="s">
         <v>118</v>
@@ -16982,7 +16982,7 @@
         <v>225</v>
       </c>
       <c r="S233" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T233" t="s">
         <v>118</v>
@@ -17047,7 +17047,7 @@
         <v>226</v>
       </c>
       <c r="S234" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T234" t="s">
         <v>118</v>
@@ -17112,7 +17112,7 @@
         <v>227</v>
       </c>
       <c r="S235" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T235" t="s">
         <v>118</v>
@@ -17177,7 +17177,7 @@
         <v>228</v>
       </c>
       <c r="S236" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T236" t="s">
         <v>118</v>
@@ -17242,7 +17242,7 @@
         <v>229</v>
       </c>
       <c r="S237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T237" t="s">
         <v>118</v>
@@ -17307,7 +17307,7 @@
         <v>230</v>
       </c>
       <c r="S238" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T238" t="s">
         <v>118</v>
@@ -17372,7 +17372,7 @@
         <v>231</v>
       </c>
       <c r="S239" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T239" t="s">
         <v>118</v>
@@ -17437,7 +17437,7 @@
         <v>119</v>
       </c>
       <c r="S240" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T240" t="s">
         <v>118</v>
@@ -17502,7 +17502,7 @@
         <v>120</v>
       </c>
       <c r="S241" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T241" t="s">
         <v>118</v>
@@ -17567,7 +17567,7 @@
         <v>121</v>
       </c>
       <c r="S242" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T242" t="s">
         <v>118</v>
@@ -17632,7 +17632,7 @@
         <v>122</v>
       </c>
       <c r="S243" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T243" t="s">
         <v>118</v>
@@ -17697,7 +17697,7 @@
         <v>123</v>
       </c>
       <c r="S244" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T244" t="s">
         <v>118</v>
@@ -17762,7 +17762,7 @@
         <v>124</v>
       </c>
       <c r="S245" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T245" t="s">
         <v>118</v>
@@ -17827,7 +17827,7 @@
         <v>125</v>
       </c>
       <c r="S246" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T246" t="s">
         <v>118</v>
@@ -17892,7 +17892,7 @@
         <v>126</v>
       </c>
       <c r="S247" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T247" t="s">
         <v>118</v>
@@ -17957,7 +17957,7 @@
         <v>127</v>
       </c>
       <c r="S248" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T248" t="s">
         <v>118</v>
@@ -18022,7 +18022,7 @@
         <v>128</v>
       </c>
       <c r="S249" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T249" t="s">
         <v>118</v>
@@ -18087,7 +18087,7 @@
         <v>130</v>
       </c>
       <c r="S250" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T250" t="s">
         <v>118</v>
@@ -18152,7 +18152,7 @@
         <v>131</v>
       </c>
       <c r="S251" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T251" t="s">
         <v>118</v>
@@ -18217,7 +18217,7 @@
         <v>132</v>
       </c>
       <c r="S252" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T252" t="s">
         <v>118</v>
@@ -18282,7 +18282,7 @@
         <v>133</v>
       </c>
       <c r="S253" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T253" t="s">
         <v>118</v>
@@ -18347,7 +18347,7 @@
         <v>134</v>
       </c>
       <c r="S254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T254" t="s">
         <v>118</v>
@@ -18412,7 +18412,7 @@
         <v>233</v>
       </c>
       <c r="S255" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T255" t="s">
         <v>118</v>
@@ -18477,7 +18477,7 @@
         <v>234</v>
       </c>
       <c r="S256" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T256" t="s">
         <v>118</v>
@@ -18542,7 +18542,7 @@
         <v>235</v>
       </c>
       <c r="S257" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T257" t="s">
         <v>118</v>
@@ -18607,7 +18607,7 @@
         <v>236</v>
       </c>
       <c r="S258" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T258" t="s">
         <v>118</v>
@@ -18672,7 +18672,7 @@
         <v>237</v>
       </c>
       <c r="S259" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T259" t="s">
         <v>118</v>
@@ -18737,7 +18737,7 @@
         <v>135</v>
       </c>
       <c r="S260" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T260" t="s">
         <v>118</v>
@@ -18802,7 +18802,7 @@
         <v>136</v>
       </c>
       <c r="S261" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T261" t="s">
         <v>118</v>
@@ -18867,7 +18867,7 @@
         <v>137</v>
       </c>
       <c r="S262" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T262" t="s">
         <v>118</v>
@@ -18932,7 +18932,7 @@
         <v>138</v>
       </c>
       <c r="S263" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T263" t="s">
         <v>118</v>
@@ -18997,7 +18997,7 @@
         <v>139</v>
       </c>
       <c r="S264" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T264" t="s">
         <v>118</v>
@@ -19062,7 +19062,7 @@
         <v>140</v>
       </c>
       <c r="S265" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T265" t="s">
         <v>118</v>
@@ -19127,7 +19127,7 @@
         <v>141</v>
       </c>
       <c r="S266" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T266" t="s">
         <v>118</v>
@@ -19192,7 +19192,7 @@
         <v>142</v>
       </c>
       <c r="S267" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T267" t="s">
         <v>118</v>
@@ -19257,7 +19257,7 @@
         <v>143</v>
       </c>
       <c r="S268" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T268" t="s">
         <v>118</v>
@@ -19322,7 +19322,7 @@
         <v>144</v>
       </c>
       <c r="S269" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T269" t="s">
         <v>118</v>
@@ -19387,7 +19387,7 @@
         <v>146</v>
       </c>
       <c r="S270" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T270" t="s">
         <v>201</v>
@@ -19452,7 +19452,7 @@
         <v>147</v>
       </c>
       <c r="S271" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T271" t="s">
         <v>201</v>
@@ -19517,7 +19517,7 @@
         <v>148</v>
       </c>
       <c r="S272" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T272" t="s">
         <v>201</v>
@@ -19582,7 +19582,7 @@
         <v>149</v>
       </c>
       <c r="S273" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T273" t="s">
         <v>201</v>
@@ -19647,7 +19647,7 @@
         <v>150</v>
       </c>
       <c r="S274" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T274" t="s">
         <v>201</v>
@@ -19712,7 +19712,7 @@
         <v>151</v>
       </c>
       <c r="S275" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T275" t="s">
         <v>201</v>
@@ -19777,7 +19777,7 @@
         <v>152</v>
       </c>
       <c r="S276" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T276" t="s">
         <v>201</v>
@@ -19842,7 +19842,7 @@
         <v>153</v>
       </c>
       <c r="S277" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T277" t="s">
         <v>201</v>
@@ -19907,7 +19907,7 @@
         <v>154</v>
       </c>
       <c r="S278" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T278" t="s">
         <v>201</v>
@@ -19972,7 +19972,7 @@
         <v>155</v>
       </c>
       <c r="S279" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T279" t="s">
         <v>201</v>
@@ -20037,7 +20037,7 @@
         <v>156</v>
       </c>
       <c r="S280" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T280" t="s">
         <v>201</v>
@@ -20102,7 +20102,7 @@
         <v>157</v>
       </c>
       <c r="S281" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T281" t="s">
         <v>201</v>
@@ -20167,7 +20167,7 @@
         <v>158</v>
       </c>
       <c r="S282" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T282" t="s">
         <v>201</v>
@@ -20232,7 +20232,7 @@
         <v>159</v>
       </c>
       <c r="S283" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T283" t="s">
         <v>201</v>
@@ -20297,7 +20297,7 @@
         <v>160</v>
       </c>
       <c r="S284" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T284" t="s">
         <v>201</v>
@@ -20362,7 +20362,7 @@
         <v>162</v>
       </c>
       <c r="S285" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T285" t="s">
         <v>201</v>
@@ -20427,7 +20427,7 @@
         <v>163</v>
       </c>
       <c r="S286" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T286" t="s">
         <v>201</v>
@@ -20492,7 +20492,7 @@
         <v>164</v>
       </c>
       <c r="S287" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T287" t="s">
         <v>201</v>
@@ -20557,7 +20557,7 @@
         <v>165</v>
       </c>
       <c r="S288" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T288" t="s">
         <v>201</v>
@@ -20622,7 +20622,7 @@
         <v>166</v>
       </c>
       <c r="S289" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T289" t="s">
         <v>201</v>
@@ -21012,7 +21012,7 @@
         <v>174</v>
       </c>
       <c r="S295" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T295" t="s">
         <v>201</v>
@@ -21077,7 +21077,7 @@
         <v>175</v>
       </c>
       <c r="S296" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T296" t="s">
         <v>201</v>
@@ -21142,7 +21142,7 @@
         <v>176</v>
       </c>
       <c r="S297" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T297" t="s">
         <v>201</v>
@@ -21207,7 +21207,7 @@
         <v>177</v>
       </c>
       <c r="S298" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T298" t="s">
         <v>201</v>
@@ -21272,7 +21272,7 @@
         <v>179</v>
       </c>
       <c r="S299" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T299" t="s">
         <v>201</v>
@@ -21337,7 +21337,7 @@
         <v>180</v>
       </c>
       <c r="S300" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T300" t="s">
         <v>201</v>
@@ -21402,7 +21402,7 @@
         <v>182</v>
       </c>
       <c r="S301" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T301" t="s">
         <v>201</v>
@@ -21467,7 +21467,7 @@
         <v>183</v>
       </c>
       <c r="S302" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T302" t="s">
         <v>201</v>
@@ -21532,7 +21532,7 @@
         <v>184</v>
       </c>
       <c r="S303" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T303" t="s">
         <v>201</v>
@@ -21597,7 +21597,7 @@
         <v>185</v>
       </c>
       <c r="S304" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T304" t="s">
         <v>201</v>
@@ -21662,7 +21662,7 @@
         <v>186</v>
       </c>
       <c r="S305" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T305" t="s">
         <v>201</v>
@@ -21727,7 +21727,7 @@
         <v>187</v>
       </c>
       <c r="S306" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T306" t="s">
         <v>201</v>
@@ -21792,7 +21792,7 @@
         <v>188</v>
       </c>
       <c r="S307" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T307" t="s">
         <v>201</v>
@@ -21857,7 +21857,7 @@
         <v>189</v>
       </c>
       <c r="S308" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T308" t="s">
         <v>201</v>
@@ -21922,7 +21922,7 @@
         <v>190</v>
       </c>
       <c r="S309" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T309" t="s">
         <v>201</v>
@@ -21987,7 +21987,7 @@
         <v>192</v>
       </c>
       <c r="S310" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T310" t="s">
         <v>201</v>
@@ -22052,7 +22052,7 @@
         <v>193</v>
       </c>
       <c r="S311" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T311" t="s">
         <v>201</v>
@@ -22117,7 +22117,7 @@
         <v>194</v>
       </c>
       <c r="S312" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T312" t="s">
         <v>201</v>
@@ -22182,7 +22182,7 @@
         <v>195</v>
       </c>
       <c r="S313" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T313" t="s">
         <v>201</v>
@@ -22247,7 +22247,7 @@
         <v>196</v>
       </c>
       <c r="S314" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T314" t="s">
         <v>201</v>
@@ -22312,7 +22312,7 @@
         <v>197</v>
       </c>
       <c r="S315" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T315" t="s">
         <v>201</v>
@@ -22377,7 +22377,7 @@
         <v>198</v>
       </c>
       <c r="S316" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T316" t="s">
         <v>201</v>
@@ -22442,7 +22442,7 @@
         <v>199</v>
       </c>
       <c r="S317" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T317" t="s">
         <v>201</v>
@@ -22507,7 +22507,7 @@
         <v>200</v>
       </c>
       <c r="S318" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T318" t="s">
         <v>201</v>
@@ -22841,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -22969,7 +22969,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -23033,7 +23033,7 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D327" t="s">
         <v>3</v>
@@ -23097,7 +23097,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -2519,8 +2519,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -2575,8 +2575,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24363,7 +24363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25484,7 +25484,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -25548,7 +25548,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -25612,7 +25612,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -25676,7 +25676,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -25740,7 +25740,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -25804,7 +25804,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -25868,7 +25868,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -25932,7 +25932,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -25996,7 +25996,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -26060,7 +26060,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -26124,7 +26124,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -26188,7 +26188,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -26252,7 +26252,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -26316,7 +26316,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -26380,7 +26380,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -26444,7 +26444,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
@@ -26508,7 +26508,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -26572,7 +26572,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -26636,7 +26636,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -26700,7 +26700,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -26764,7 +26764,7 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -26828,7 +26828,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -26892,7 +26892,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -26956,7 +26956,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -27020,7 +27020,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -27084,7 +27084,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
@@ -27148,7 +27148,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -27212,7 +27212,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -27276,7 +27276,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
@@ -27340,7 +27340,7 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -27215,7 +27215,7 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>2006</v>
@@ -27279,7 +27279,7 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>2026</v>
@@ -27343,7 +27343,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>2046</v>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -24362,8 +24362,8 @@
   <dimension ref="A1:T226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153:O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="historical" sheetId="1" r:id="rId1"/>
@@ -2878,9 +2878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93:Q93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24361,9 +24361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153:O153"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PhD/0008-CMIP5/data/gcms.xlsx
+++ b/PhD/0008-CMIP5/data/gcms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="historical" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="831">
   <si>
     <t>GCM</t>
   </si>
@@ -1900,9 +1900,6 @@
   </si>
   <si>
     <t>rsds_Amon_HadGEM2-ES_rcp45_r4i1p1_203012-205511.nc</t>
-  </si>
-  <si>
-    <t>mpi_esm_mr</t>
   </si>
   <si>
     <t>%var%_day_MPI-ESM-MR_rcp45_r1i1p1_20200101-20291231.nc</t>
@@ -2878,7 +2875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -24361,9 +24358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28475,10 +28472,10 @@
         <v>19</v>
       </c>
       <c r="R64" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S64" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T64" t="s">
         <v>201</v>
@@ -28539,10 +28536,10 @@
         <v>19</v>
       </c>
       <c r="R65" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S65" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T65" t="s">
         <v>201</v>
@@ -28603,10 +28600,10 @@
         <v>19</v>
       </c>
       <c r="R66" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S66" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T66" t="s">
         <v>201</v>
@@ -28667,10 +28664,10 @@
         <v>19</v>
       </c>
       <c r="R67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T67" t="s">
         <v>201</v>
@@ -28731,10 +28728,10 @@
         <v>19</v>
       </c>
       <c r="R68" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S68" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T68" t="s">
         <v>201</v>
@@ -28795,10 +28792,10 @@
         <v>19</v>
       </c>
       <c r="R69" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S69" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T69" t="s">
         <v>201</v>
@@ -28859,10 +28856,10 @@
         <v>19</v>
       </c>
       <c r="R70" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S70" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T70" t="s">
         <v>201</v>
@@ -28923,10 +28920,10 @@
         <v>19</v>
       </c>
       <c r="R71" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S71" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T71" t="s">
         <v>201</v>
@@ -28987,10 +28984,10 @@
         <v>19</v>
       </c>
       <c r="R72" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S72" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T72" t="s">
         <v>201</v>
@@ -29051,10 +29048,10 @@
         <v>19</v>
       </c>
       <c r="R73" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S73" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T73" t="s">
         <v>201</v>
@@ -29115,10 +29112,10 @@
         <v>19</v>
       </c>
       <c r="R74" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S74" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T74" t="s">
         <v>201</v>
@@ -29179,10 +29176,10 @@
         <v>19</v>
       </c>
       <c r="R75" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S75" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="T75" t="s">
         <v>201</v>
@@ -29243,10 +29240,10 @@
         <v>19</v>
       </c>
       <c r="R76" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S76" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T76" t="s">
         <v>201</v>
@@ -29307,10 +29304,10 @@
         <v>19</v>
       </c>
       <c r="R77" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S77" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T77" t="s">
         <v>201</v>
@@ -29371,10 +29368,10 @@
         <v>19</v>
       </c>
       <c r="R78" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S78" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T78" t="s">
         <v>201</v>
@@ -29435,10 +29432,10 @@
         <v>19</v>
       </c>
       <c r="R79" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S79" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T79" t="s">
         <v>201</v>
@@ -29499,10 +29496,10 @@
         <v>19</v>
       </c>
       <c r="R80" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S80" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T80" t="s">
         <v>201</v>
@@ -29563,10 +29560,10 @@
         <v>19</v>
       </c>
       <c r="R81" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S81" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="T81" t="s">
         <v>201</v>
@@ -29627,10 +29624,10 @@
         <v>19</v>
       </c>
       <c r="R82" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S82" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T82" t="s">
         <v>201</v>
@@ -29691,10 +29688,10 @@
         <v>19</v>
       </c>
       <c r="R83" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="S83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T83" t="s">
         <v>201</v>
@@ -29755,10 +29752,10 @@
         <v>19</v>
       </c>
       <c r="R84" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="S84" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T84" t="s">
         <v>201</v>
@@ -29819,10 +29816,10 @@
         <v>19</v>
       </c>
       <c r="R85" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S85" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T85" t="s">
         <v>201</v>
@@ -29883,10 +29880,10 @@
         <v>19</v>
       </c>
       <c r="R86" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="T86" t="s">
         <v>201</v>
@@ -29947,10 +29944,10 @@
         <v>19</v>
       </c>
       <c r="R87" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S87" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T87" t="s">
         <v>201</v>
@@ -30011,10 +30008,10 @@
         <v>19</v>
       </c>
       <c r="R88" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S88" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T88" t="s">
         <v>201</v>
@@ -30075,10 +30072,10 @@
         <v>19</v>
       </c>
       <c r="R89" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S89" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T89" t="s">
         <v>201</v>
@@ -30139,10 +30136,10 @@
         <v>19</v>
       </c>
       <c r="R90" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S90" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T90" t="s">
         <v>201</v>
@@ -30203,10 +30200,10 @@
         <v>19</v>
       </c>
       <c r="R91" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S91" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T91" t="s">
         <v>201</v>
@@ -30267,10 +30264,10 @@
         <v>19</v>
       </c>
       <c r="R92" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S92" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="T92" t="s">
         <v>201</v>
@@ -30331,10 +30328,10 @@
         <v>19</v>
       </c>
       <c r="R93" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S93" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T93" t="s">
         <v>201</v>
@@ -30395,10 +30392,10 @@
         <v>19</v>
       </c>
       <c r="R94" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S94" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T94" t="s">
         <v>201</v>
@@ -30459,10 +30456,10 @@
         <v>19</v>
       </c>
       <c r="R95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S95" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T95" t="s">
         <v>201</v>
@@ -30523,10 +30520,10 @@
         <v>19</v>
       </c>
       <c r="R96" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S96" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T96" t="s">
         <v>201</v>
@@ -30587,10 +30584,10 @@
         <v>19</v>
       </c>
       <c r="R97" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S97" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T97" t="s">
         <v>201</v>
@@ -30651,10 +30648,10 @@
         <v>19</v>
       </c>
       <c r="R98" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S98" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T98" t="s">
         <v>201</v>
@@ -30715,10 +30712,10 @@
         <v>19</v>
       </c>
       <c r="R99" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S99" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T99" t="s">
         <v>201</v>
@@ -30779,10 +30776,10 @@
         <v>19</v>
       </c>
       <c r="R100" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S100" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T100" t="s">
         <v>201</v>
@@ -30843,10 +30840,10 @@
         <v>19</v>
       </c>
       <c r="R101" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S101" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T101" t="s">
         <v>201</v>
@@ -30907,10 +30904,10 @@
         <v>19</v>
       </c>
       <c r="R102" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S102" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T102" t="s">
         <v>201</v>
@@ -30971,10 +30968,10 @@
         <v>19</v>
       </c>
       <c r="R103" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S103" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T103" t="s">
         <v>201</v>
@@ -31035,10 +31032,10 @@
         <v>19</v>
       </c>
       <c r="R104" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S104" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T104" t="s">
         <v>201</v>
@@ -31099,10 +31096,10 @@
         <v>19</v>
       </c>
       <c r="R105" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S105" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T105" t="s">
         <v>201</v>
@@ -31163,10 +31160,10 @@
         <v>19</v>
       </c>
       <c r="R106" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S106" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T106" t="s">
         <v>201</v>
@@ -31227,10 +31224,10 @@
         <v>19</v>
       </c>
       <c r="R107" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S107" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T107" t="s">
         <v>201</v>
@@ -31291,10 +31288,10 @@
         <v>19</v>
       </c>
       <c r="R108" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S108" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T108" t="s">
         <v>201</v>
@@ -31355,10 +31352,10 @@
         <v>19</v>
       </c>
       <c r="R109" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S109" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T109" t="s">
         <v>201</v>
@@ -31419,10 +31416,10 @@
         <v>19</v>
       </c>
       <c r="R110" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S110" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T110" t="s">
         <v>201</v>
@@ -31483,10 +31480,10 @@
         <v>19</v>
       </c>
       <c r="R111" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S111" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T111" t="s">
         <v>201</v>
@@ -31547,10 +31544,10 @@
         <v>19</v>
       </c>
       <c r="R112" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S112" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T112" t="s">
         <v>201</v>
@@ -31611,10 +31608,10 @@
         <v>19</v>
       </c>
       <c r="R113" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S113" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T113" t="s">
         <v>201</v>
@@ -31675,10 +31672,10 @@
         <v>19</v>
       </c>
       <c r="R114" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S114" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T114" t="s">
         <v>201</v>
@@ -31739,10 +31736,10 @@
         <v>19</v>
       </c>
       <c r="R115" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S115" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T115" t="s">
         <v>201</v>
@@ -31803,10 +31800,10 @@
         <v>19</v>
       </c>
       <c r="R116" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S116" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T116" t="s">
         <v>201</v>
@@ -31867,10 +31864,10 @@
         <v>19</v>
       </c>
       <c r="R117" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S117" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T117" t="s">
         <v>201</v>
@@ -31931,10 +31928,10 @@
         <v>19</v>
       </c>
       <c r="R118" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S118" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T118" t="s">
         <v>201</v>
@@ -31995,10 +31992,10 @@
         <v>19</v>
       </c>
       <c r="R119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S119" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T119" t="s">
         <v>201</v>
@@ -32059,10 +32056,10 @@
         <v>19</v>
       </c>
       <c r="R120" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S120" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T120" t="s">
         <v>201</v>
@@ -32123,10 +32120,10 @@
         <v>19</v>
       </c>
       <c r="R121" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S121" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T121" t="s">
         <v>201</v>
@@ -32187,10 +32184,10 @@
         <v>19</v>
       </c>
       <c r="R122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S122" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T122" t="s">
         <v>201</v>
@@ -32251,10 +32248,10 @@
         <v>19</v>
       </c>
       <c r="R123" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S123" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T123" t="s">
         <v>201</v>
@@ -32315,10 +32312,10 @@
         <v>19</v>
       </c>
       <c r="R124" t="s">
+        <v>798</v>
+      </c>
+      <c r="S124" t="s">
         <v>799</v>
-      </c>
-      <c r="S124" t="s">
-        <v>800</v>
       </c>
       <c r="T124" t="s">
         <v>201</v>
@@ -32379,10 +32376,10 @@
         <v>19</v>
       </c>
       <c r="R125" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S125" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T125" t="s">
         <v>201</v>
@@ -32443,10 +32440,10 @@
         <v>19</v>
       </c>
       <c r="R126" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="S126" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T126" t="s">
         <v>201</v>
@@ -32507,10 +32504,10 @@
         <v>19</v>
       </c>
       <c r="R127" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="S127" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T127" t="s">
         <v>201</v>
@@ -32571,10 +32568,10 @@
         <v>19</v>
       </c>
       <c r="R128" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="S128" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T128" t="s">
         <v>201</v>
@@ -32635,10 +32632,10 @@
         <v>19</v>
       </c>
       <c r="R129" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S129" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T129" t="s">
         <v>201</v>
@@ -32699,10 +32696,10 @@
         <v>19</v>
       </c>
       <c r="R130" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S130" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T130" t="s">
         <v>201</v>
@@ -32763,10 +32760,10 @@
         <v>19</v>
       </c>
       <c r="R131" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S131" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T131" t="s">
         <v>201</v>
@@ -32827,10 +32824,10 @@
         <v>19</v>
       </c>
       <c r="R132" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S132" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T132" t="s">
         <v>201</v>
@@ -32891,10 +32888,10 @@
         <v>19</v>
       </c>
       <c r="R133" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S133" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T133" t="s">
         <v>201</v>
@@ -32955,10 +32952,10 @@
         <v>19</v>
       </c>
       <c r="R134" t="s">
+        <v>809</v>
+      </c>
+      <c r="S134" t="s">
         <v>810</v>
-      </c>
-      <c r="S134" t="s">
-        <v>811</v>
       </c>
       <c r="T134" t="s">
         <v>201</v>
@@ -33019,10 +33016,10 @@
         <v>19</v>
       </c>
       <c r="R135" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S135" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T135" t="s">
         <v>201</v>
@@ -33083,10 +33080,10 @@
         <v>19</v>
       </c>
       <c r="R136" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S136" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T136" t="s">
         <v>201</v>
@@ -33147,10 +33144,10 @@
         <v>19</v>
       </c>
       <c r="R137" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S137" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T137" t="s">
         <v>201</v>
@@ -33211,10 +33208,10 @@
         <v>19</v>
       </c>
       <c r="R138" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S138" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T138" t="s">
         <v>201</v>
@@ -33275,10 +33272,10 @@
         <v>19</v>
       </c>
       <c r="R139" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S139" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T139" t="s">
         <v>201</v>
@@ -33339,10 +33336,10 @@
         <v>19</v>
       </c>
       <c r="R140" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="S140" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T140" t="s">
         <v>201</v>
@@ -33403,10 +33400,10 @@
         <v>19</v>
       </c>
       <c r="R141" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="S141" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T141" t="s">
         <v>201</v>
@@ -33467,10 +33464,10 @@
         <v>19</v>
       </c>
       <c r="R142" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S142" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T142" t="s">
         <v>201</v>
@@ -33531,10 +33528,10 @@
         <v>19</v>
       </c>
       <c r="R143" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="S143" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T143" t="s">
         <v>201</v>
@@ -33595,10 +33592,10 @@
         <v>19</v>
       </c>
       <c r="R144" t="s">
+        <v>820</v>
+      </c>
+      <c r="S144" t="s">
         <v>821</v>
-      </c>
-      <c r="S144" t="s">
-        <v>822</v>
       </c>
       <c r="T144" t="s">
         <v>201</v>
@@ -33659,10 +33656,10 @@
         <v>19</v>
       </c>
       <c r="R145" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="S145" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T145" t="s">
         <v>201</v>
@@ -33723,10 +33720,10 @@
         <v>19</v>
       </c>
       <c r="R146" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="S146" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T146" t="s">
         <v>201</v>
@@ -33787,10 +33784,10 @@
         <v>19</v>
       </c>
       <c r="R147" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="S147" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T147" t="s">
         <v>201</v>
@@ -33851,10 +33848,10 @@
         <v>19</v>
       </c>
       <c r="R148" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="S148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T148" t="s">
         <v>201</v>
@@ -33915,10 +33912,10 @@
         <v>19</v>
       </c>
       <c r="R149" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="S149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T149" t="s">
         <v>201</v>
@@ -33979,10 +33976,10 @@
         <v>19</v>
       </c>
       <c r="R150" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="S150" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T150" t="s">
         <v>201</v>
@@ -34043,10 +34040,10 @@
         <v>19</v>
       </c>
       <c r="R151" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="S151" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T151" t="s">
         <v>201</v>
@@ -34107,10 +34104,10 @@
         <v>19</v>
       </c>
       <c r="R152" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S152" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T152" t="s">
         <v>201</v>
@@ -34171,10 +34168,10 @@
         <v>19</v>
       </c>
       <c r="R153" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="S153" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T153" t="s">
         <v>201</v>
@@ -36236,7 +36233,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>628</v>
+        <v>420</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
@@ -36283,10 +36280,10 @@
         <v>19</v>
       </c>
       <c r="R186" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S186" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T186" t="s">
         <v>201</v>
@@ -36300,7 +36297,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>628</v>
+        <v>420</v>
       </c>
       <c r="D187" t="s">
         <v>3</v>
@@ -36347,10 +36344,10 @@
         <v>19</v>
       </c>
       <c r="R187" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S187" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T187" t="s">
         <v>201</v>
@@ -36364,7 +36361,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>628</v>
+        <v>420</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -36411,10 +36408,10 @@
         <v>19</v>
       </c>
       <c r="R188" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S188" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T188" t="s">
         <v>201</v>
@@ -36475,10 +36472,10 @@
         <v>19</v>
       </c>
       <c r="R189" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S189" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T189" t="s">
         <v>201</v>
@@ -36539,10 +36536,10 @@
         <v>19</v>
       </c>
       <c r="R190" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S190" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T190" t="s">
         <v>201</v>
@@ -36603,10 +36600,10 @@
         <v>19</v>
       </c>
       <c r="R191" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S191" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T191" t="s">
         <v>201</v>
@@ -36667,10 +36664,10 @@
         <v>19</v>
       </c>
       <c r="R192" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S192" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T192" t="s">
         <v>201</v>
@@ -36731,10 +36728,10 @@
         <v>19</v>
       </c>
       <c r="R193" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S193" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T193" t="s">
         <v>201</v>
@@ -36795,10 +36792,10 @@
         <v>19</v>
       </c>
       <c r="R194" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S194" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T194" t="s">
         <v>201</v>
@@ -36859,10 +36856,10 @@
         <v>19</v>
       </c>
       <c r="R195" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S195" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T195" t="s">
         <v>201</v>
@@ -36923,10 +36920,10 @@
         <v>19</v>
       </c>
       <c r="R196" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="S196" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T196" t="s">
         <v>201</v>
@@ -36987,10 +36984,10 @@
         <v>19</v>
       </c>
       <c r="R197" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="S197" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T197" t="s">
         <v>201</v>
@@ -37051,10 +37048,10 @@
         <v>19</v>
       </c>
       <c r="R198" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S198" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T198" t="s">
         <v>201</v>
@@ -37115,10 +37112,10 @@
         <v>19</v>
       </c>
       <c r="R199" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S199" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T199" t="s">
         <v>201</v>
@@ -37179,10 +37176,10 @@
         <v>19</v>
       </c>
       <c r="R200" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S200" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T200" t="s">
         <v>201</v>
@@ -37243,10 +37240,10 @@
         <v>19</v>
       </c>
       <c r="R201" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S201" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T201" t="s">
         <v>201</v>
@@ -37307,10 +37304,10 @@
         <v>19</v>
       </c>
       <c r="R202" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S202" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T202" t="s">
         <v>201</v>
@@ -37371,10 +37368,10 @@
         <v>19</v>
       </c>
       <c r="R203" t="s">
+        <v>691</v>
+      </c>
+      <c r="S203" t="s">
         <v>692</v>
-      </c>
-      <c r="S203" t="s">
-        <v>693</v>
       </c>
       <c r="T203" t="s">
         <v>201</v>
@@ -37435,10 +37432,10 @@
         <v>19</v>
       </c>
       <c r="R204" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S204" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T204" t="s">
         <v>201</v>
@@ -37499,10 +37496,10 @@
         <v>19</v>
       </c>
       <c r="R205" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S205" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T205" t="s">
         <v>201</v>
@@ -37563,10 +37560,10 @@
         <v>19</v>
       </c>
       <c r="R206" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S206" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T206" t="s">
         <v>201</v>
@@ -37627,10 +37624,10 @@
         <v>19</v>
       </c>
       <c r="R207" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S207" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T207" t="s">
         <v>201</v>
@@ -37691,10 +37688,10 @@
         <v>19</v>
       </c>
       <c r="R208" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S208" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T208" t="s">
         <v>201</v>
@@ -37755,10 +37752,10 @@
         <v>19</v>
       </c>
       <c r="R209" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S209" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T209" t="s">
         <v>201</v>
@@ -37819,10 +37816,10 @@
         <v>19</v>
       </c>
       <c r="R210" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S210" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T210" t="s">
         <v>201</v>
@@ -37883,10 +37880,10 @@
         <v>19</v>
       </c>
       <c r="R211" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S211" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T211" t="s">
         <v>201</v>
@@ -37947,10 +37944,10 @@
         <v>19</v>
       </c>
       <c r="R212" t="s">
+        <v>660</v>
+      </c>
+      <c r="S212" t="s">
         <v>661</v>
-      </c>
-      <c r="S212" t="s">
-        <v>662</v>
       </c>
       <c r="T212" t="s">
         <v>201</v>
@@ -38011,10 +38008,10 @@
         <v>19</v>
       </c>
       <c r="R213" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S213" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T213" t="s">
         <v>201</v>
@@ -38075,10 +38072,10 @@
         <v>19</v>
       </c>
       <c r="R214" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S214" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T214" t="s">
         <v>201</v>
@@ -38139,10 +38136,10 @@
         <v>19</v>
       </c>
       <c r="R215" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S215" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T215" t="s">
         <v>201</v>
@@ -38203,10 +38200,10 @@
         <v>19</v>
       </c>
       <c r="R216" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S216" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T216" t="s">
         <v>201</v>
@@ -38267,10 +38264,10 @@
         <v>19</v>
       </c>
       <c r="R217" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S217" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T217" t="s">
         <v>201</v>
@@ -38331,10 +38328,10 @@
         <v>19</v>
       </c>
       <c r="R218" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S218" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T218" t="s">
         <v>201</v>
@@ -38395,10 +38392,10 @@
         <v>19</v>
       </c>
       <c r="R219" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S219" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T219" t="s">
         <v>201</v>
@@ -38459,10 +38456,10 @@
         <v>19</v>
       </c>
       <c r="R220" t="s">
+        <v>676</v>
+      </c>
+      <c r="S220" t="s">
         <v>677</v>
-      </c>
-      <c r="S220" t="s">
-        <v>678</v>
       </c>
       <c r="T220" t="s">
         <v>201</v>
@@ -38523,10 +38520,10 @@
         <v>19</v>
       </c>
       <c r="R221" t="s">
+        <v>678</v>
+      </c>
+      <c r="S221" t="s">
         <v>679</v>
-      </c>
-      <c r="S221" t="s">
-        <v>680</v>
       </c>
       <c r="T221" t="s">
         <v>201</v>
@@ -38587,10 +38584,10 @@
         <v>19</v>
       </c>
       <c r="R222" t="s">
+        <v>680</v>
+      </c>
+      <c r="S222" t="s">
         <v>681</v>
-      </c>
-      <c r="S222" t="s">
-        <v>682</v>
       </c>
       <c r="T222" t="s">
         <v>201</v>
@@ -38651,10 +38648,10 @@
         <v>19</v>
       </c>
       <c r="R223" t="s">
+        <v>682</v>
+      </c>
+      <c r="S223" t="s">
         <v>683</v>
-      </c>
-      <c r="S223" t="s">
-        <v>684</v>
       </c>
       <c r="T223" t="s">
         <v>201</v>
@@ -38715,10 +38712,10 @@
         <v>19</v>
       </c>
       <c r="R224" t="s">
+        <v>684</v>
+      </c>
+      <c r="S224" t="s">
         <v>685</v>
-      </c>
-      <c r="S224" t="s">
-        <v>686</v>
       </c>
       <c r="T224" t="s">
         <v>201</v>
@@ -38779,10 +38776,10 @@
         <v>19</v>
       </c>
       <c r="R225" t="s">
+        <v>686</v>
+      </c>
+      <c r="S225" t="s">
         <v>687</v>
-      </c>
-      <c r="S225" t="s">
-        <v>688</v>
       </c>
       <c r="T225" t="s">
         <v>201</v>
@@ -38843,10 +38840,10 @@
         <v>19</v>
       </c>
       <c r="R226" t="s">
+        <v>688</v>
+      </c>
+      <c r="S226" t="s">
         <v>689</v>
-      </c>
-      <c r="S226" t="s">
-        <v>690</v>
       </c>
       <c r="T226" t="s">
         <v>201</v>
